--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -62,15 +62,24 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
@@ -80,7 +89,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 9:46 AM</t>
+    <t>Sunday, 1 June, 2025 10:04 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -771,42 +780,75 @@
         <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
-      <c r="P9" s="13">
-        <v>64</v>
-      </c>
-      <c r="Q9" s="13"/>
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>18</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>19</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>23</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>25</v>
+      </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
-        <v>23</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
-        <v>24</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
-        <v>25</v>
-      </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="P10" s="13">
+        <v>67</v>
+      </c>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="14">
+        <v>26</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c t="s" r="G11" s="15">
+        <v>27</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c t="s" r="K11" s="17">
+        <v>28</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="27">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -825,10 +867,15 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -89,7 +89,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 10:04 AM</t>
+    <t>Sunday, 1 June, 2025 10:18 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -44,30 +44,72 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>129.0000</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>CONCOR 5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
     <t>3:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
     <t>60.0000</t>
   </si>
   <si>
-    <t>1:0</t>
+    <t>VENTOLIN EVOHALER 100MCG/ACTUATION INHALER</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>86.0000</t>
   </si>
   <si>
     <t>حبايه</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -89,7 +131,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 10:18 AM</t>
+    <t>Sunday, 1 June, 2025 10:22 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -769,18 +811,18 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -789,20 +831,20 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -813,42 +855,174 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>67</v>
-      </c>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
         <v>26</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
         <v>27</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
         <v>28</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+      <c t="s" r="Q10" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>29</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>30</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>14</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>32</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>30</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>33</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>34</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>36</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>30</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>33</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>37</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="P14" s="13">
+        <v>534</v>
+      </c>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c t="s" r="A15" s="14">
+        <v>40</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c t="s" r="G15" s="15">
+        <v>41</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c t="s" r="K15" s="17">
+        <v>42</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="47">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -872,10 +1046,30 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:Q15"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -131,7 +131,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 10:22 AM</t>
+    <t>Sunday, 1 June, 2025 10:23 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -107,12 +107,24 @@
     <t>86.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>3.00</t>
   </si>
   <si>
@@ -131,7 +143,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 10:23 AM</t>
+    <t>Sunday, 1 June, 2025 10:24 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -937,21 +949,21 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -963,7 +975,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -976,53 +988,86 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
-      <c r="P14" s="13">
-        <v>534</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="14">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
         <v>40</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c t="s" r="G15" s="15">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>30</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>34</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
         <v>41</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c t="s" r="K15" s="17">
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
         <v>42</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+      <c t="s" r="Q14" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>554</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>44</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>45</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>46</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1066,10 +1111,15 @@
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -98,12 +98,39 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>MOBITIL 15MG 10 TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>23.50</t>
+  </si>
+  <si>
+    <t>23.5000</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>SORAL 20MG 5 SUPP.</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>VENTOLIN EVOHALER 100MCG/ACTUATION INHALER</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>86.0000</t>
   </si>
   <si>
@@ -143,7 +170,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 10:24 AM</t>
+    <t>Sunday, 1 June, 2025 10:25 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -926,11 +953,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
@@ -942,31 +969,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -975,7 +1002,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -988,15 +1015,15 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1008,7 +1035,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1021,53 +1048,152 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>41</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
         <v>42</v>
       </c>
-      <c t="s" r="Q14" s="12">
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>554</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
         <v>44</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
         <v>45</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
+      <c t="s" r="Q15" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
         <v>46</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>30</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>43</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>47</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>49</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>30</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>43</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>50</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>658.5</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>53</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>54</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>55</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1116,10 +1242,25 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -170,7 +170,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 10:25 AM</t>
+    <t>Sunday, 1 June, 2025 10:26 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -74,12 +74,24 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>180.00</t>
   </si>
   <si>
@@ -128,6 +140,18 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>TORSERETIC 5MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>-19.8000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>VENTOLIN EVOHALER 100MCG/ACTUATION INHALER</t>
   </si>
   <si>
@@ -167,10 +191,7 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>Sunday, 1 June, 2025 10:26 AM</t>
+    <t>Sunday, 1 June, 2025 10:37 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -894,7 +915,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -903,14 +924,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -976,7 +997,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -986,14 +1007,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1002,14 +1023,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1019,14 +1040,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1035,14 +1056,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1052,11 +1073,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1068,31 +1089,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1101,24 +1122,24 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
@@ -1141,59 +1162,125 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>54</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>34</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
         <v>51</v>
       </c>
-      <c t="s" r="Q17" s="12">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>658.5</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
-        <v>53</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
-        <v>54</v>
-      </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
         <v>55</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>57</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>34</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>51</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>58</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="P20" s="13">
+        <v>673.70000000000005</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
+        <v>60</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
+        <v>61</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
+        <v>62</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1257,10 +1344,20 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -86,9 +98,6 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
@@ -188,10 +197,13 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>Sunday, 1 June, 2025 10:37 AM</t>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>Sunday, 1 June, 2025 10:47 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -915,7 +927,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -924,14 +936,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -948,7 +960,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -964,7 +976,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -974,11 +986,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
@@ -990,14 +1002,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1007,11 +1019,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1023,14 +1035,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1047,7 +1059,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1063,7 +1075,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1080,7 +1092,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1096,7 +1108,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1106,14 +1118,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1122,14 +1134,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1139,14 +1151,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1155,28 +1167,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1188,20 +1200,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1228,13 +1240,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1245,42 +1257,75 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>673.70000000000005</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
         <v>60</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>37</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>54</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
         <v>61</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
         <v>62</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c t="s" r="Q20" s="12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>697.58000000000004</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
+        <v>64</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>65</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>66</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1354,10 +1399,15 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -203,7 +203,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 10:47 AM</t>
+    <t>Sunday, 1 June, 2025 10:48 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -119,6 +119,15 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>MEGALASE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG 10 TAB.</t>
   </si>
   <si>
@@ -203,7 +212,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 10:48 AM</t>
+    <t>Sunday, 1 June, 2025 10:57 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1042,7 +1051,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1052,11 +1061,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1068,14 +1077,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1092,7 +1101,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1108,7 +1117,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1125,7 +1134,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1141,7 +1150,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1151,14 +1160,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1167,14 +1176,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1184,14 +1193,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1200,28 +1209,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1233,20 +1242,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1273,13 +1282,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1290,42 +1299,75 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
         <v>63</v>
       </c>
-    </row>
-    <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>697.58000000000004</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>40</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>57</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
         <v>64</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
         <v>65</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
+      <c t="s" r="Q21" s="12">
         <v>66</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>728.58000000000004</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>67</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>68</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>69</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1404,10 +1446,15 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -212,7 +212,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 10:57 AM</t>
+    <t>Sunday, 1 June, 2025 11:07 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -107,6 +107,15 @@
     <t>180.0000</t>
   </si>
   <si>
+    <t>INCONT L.A. 4MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>91.50</t>
+  </si>
+  <si>
+    <t>30.1950</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -158,6 +167,15 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>TAMSULIN PLUS 6/0.4MG 20 MR TABS</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
     <t>TORSERETIC 5MG 30 TABS.</t>
   </si>
   <si>
@@ -212,7 +230,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 11:07 AM</t>
+    <t>Sunday, 1 June, 2025 11:09 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1018,7 +1036,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1028,14 +1046,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1044,14 +1062,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1084,7 +1102,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1094,11 +1112,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1110,14 +1128,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1134,7 +1152,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1150,7 +1168,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1167,7 +1185,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1183,7 +1201,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1193,14 +1211,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1209,14 +1227,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1226,14 +1244,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1255,18 +1273,18 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1275,28 +1293,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1308,20 +1326,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1332,42 +1350,108 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
         <v>66</v>
       </c>
-    </row>
-    <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>728.58000000000004</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>43</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>63</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
         <v>67</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
         <v>68</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
+      <c t="s" r="Q22" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
         <v>69</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>43</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>63</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>70</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>832.77499999999998</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
+        <v>73</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>74</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>75</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1451,10 +1535,20 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -74,6 +74,12 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -86,12 +92,21 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>70.00</t>
   </si>
   <si>
@@ -107,6 +122,18 @@
     <t>180.0000</t>
   </si>
   <si>
+    <t>FLOPADEX 8 MG 30 CAPSULES</t>
+  </si>
+  <si>
+    <t>177.00</t>
+  </si>
+  <si>
+    <t>116.8200</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>INCONT L.A. 4MG 30 TAB.</t>
   </si>
   <si>
@@ -128,6 +155,24 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:23</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>MEGALASE SYRUP 125 ML</t>
   </si>
   <si>
@@ -200,9 +245,6 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
@@ -230,7 +272,7 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 11:09 AM</t>
+    <t>Sunday, 1 June, 2025 11:13 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -947,14 +989,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -963,14 +1005,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -980,14 +1022,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -996,14 +1038,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1013,11 +1055,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
@@ -1029,14 +1071,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1046,14 +1088,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1062,14 +1104,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1079,11 +1121,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1095,7 +1137,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1112,14 +1154,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1128,14 +1170,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1145,14 +1187,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1161,14 +1203,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1178,14 +1220,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1194,31 +1236,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1227,14 +1269,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1244,14 +1286,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1260,14 +1302,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1277,14 +1319,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1293,14 +1335,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1310,14 +1352,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1326,28 +1368,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1359,31 +1401,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1392,66 +1434,198 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>832.77499999999998</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
-        <v>73</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
         <v>74</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>58</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>13</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>14</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
         <v>75</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+      <c t="s" r="Q24" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>76</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>77</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>50</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>78</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>80</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>58</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>50</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>81</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>83</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>58</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>50</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>84</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>1165.595</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>87</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>88</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>89</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1545,10 +1719,30 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -92,6 +92,18 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
   </si>
   <si>
@@ -221,6 +233,15 @@
     <t>74.0000</t>
   </si>
   <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>TORSERETIC 5MG 30 TABS.</t>
   </si>
   <si>
@@ -251,6 +272,18 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>جهاز ريد</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -266,13 +299,13 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>Sunday, 1 June, 2025 11:13 AM</t>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>Sunday, 1 June, 2025 11:17 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1078,7 +1111,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1088,14 +1121,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1104,14 +1137,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1121,14 +1154,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1137,14 +1170,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1154,14 +1187,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1194,7 +1227,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1203,14 +1236,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1227,7 +1260,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1249,18 +1282,18 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1269,20 +1302,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1293,7 +1326,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1302,14 +1335,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1342,7 +1375,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1352,14 +1385,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1368,14 +1401,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1385,14 +1418,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1401,14 +1434,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1418,14 +1451,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1434,14 +1467,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1451,14 +1484,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>73</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1474,7 +1507,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1484,11 +1517,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1500,31 +1533,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1533,24 +1566,24 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
@@ -1573,59 +1606,158 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>86</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>1165.595</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
         <v>87</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
         <v>88</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>54</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
         <v>89</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>91</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>62</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>54</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>92</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>94</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>62</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>54</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>95</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>1428.595</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>98</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>99</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>100</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1739,10 +1871,25 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -305,7 +305,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 11:17 AM</t>
+    <t>Sunday, 1 June, 2025 11:18 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -80,12 +80,24 @@
     <t>2:2</t>
   </si>
   <si>
+    <t>D.DEP 10.000 I.U. 30 CAPS</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -143,9 +155,6 @@
     <t>116.8200</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>INCONT L.A. 4MG 30 TAB.</t>
   </si>
   <si>
@@ -176,15 +185,24 @@
     <t>0</t>
   </si>
   <si>
-    <t>300.00</t>
-  </si>
-  <si>
     <t>36.0000</t>
   </si>
   <si>
     <t>0:3</t>
   </si>
   <si>
+    <t>MARK FAST 30 CAPSULES</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
     <t>MEGALASE SYRUP 125 ML</t>
   </si>
   <si>
@@ -197,9 +215,6 @@
     <t>MOBITIL 15MG 10 TAB.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>23.50</t>
   </si>
   <si>
@@ -305,7 +320,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 11:18 AM</t>
+    <t>Sunday, 1 June, 2025 11:22 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1062,7 +1077,7 @@
         <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1071,14 +1086,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1095,7 +1110,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1144,7 +1159,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1154,14 +1169,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1170,14 +1185,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1187,14 +1202,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1203,14 +1218,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1220,14 +1235,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1276,7 +1291,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1286,14 +1301,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1302,31 +1317,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1335,31 +1350,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1368,14 +1383,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1385,11 +1400,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1401,14 +1416,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1418,14 +1433,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1434,14 +1449,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1451,11 +1466,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1467,14 +1482,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1484,14 +1499,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1500,14 +1515,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1517,11 +1532,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1533,14 +1548,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1550,14 +1565,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>80</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1566,14 +1581,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1583,11 +1598,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1599,31 +1614,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1632,28 +1647,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1665,28 +1680,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1698,66 +1713,132 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
         <v>96</v>
       </c>
-      <c t="s" r="Q30" s="12">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>61</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>57</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
         <v>97</v>
       </c>
-    </row>
-    <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>1428.595</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
         <v>98</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
+      <c t="s" r="Q31" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>99</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>61</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>57</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
         <v>100</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1581.595</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>103</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>104</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>105</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1886,10 +1967,20 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -221,6 +221,15 @@
     <t>23.5000</t>
   </si>
   <si>
+    <t>OCTATRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
@@ -230,6 +239,21 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>REALCOXSTAR 90MG 14TAB</t>
+  </si>
+  <si>
+    <t>133.00</t>
+  </si>
+  <si>
+    <t>66.5000</t>
+  </si>
+  <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>SORAL 20MG 5 SUPP.</t>
   </si>
   <si>
@@ -320,7 +344,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 11:22 AM</t>
+    <t>Sunday, 1 June, 2025 11:24 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1489,7 +1513,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1522,7 +1546,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1539,7 +1563,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1555,13 +1579,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1588,7 +1612,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1598,14 +1622,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1614,14 +1638,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1631,14 +1655,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>85</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1647,14 +1671,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1664,14 +1688,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1680,28 +1704,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1713,31 +1737,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1746,7 +1770,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1759,15 +1783,15 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1779,14 +1803,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1796,49 +1820,148 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>100</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
         <v>101</v>
       </c>
-      <c t="s" r="Q32" s="12">
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>57</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
         <v>102</v>
       </c>
-    </row>
-    <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1581.595</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
         <v>103</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
+      <c t="s" r="Q33" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
         <v>104</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>61</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>57</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
         <v>105</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>107</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>61</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>57</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>108</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1709.4749999999999</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>111</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>112</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>113</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1977,10 +2100,25 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -344,7 +344,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 11:24 AM</t>
+    <t>Sunday, 1 June, 2025 11:25 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -344,7 +344,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 11:25 AM</t>
+    <t>Sunday, 1 June, 2025 11:26 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -80,6 +80,15 @@
     <t>2:2</t>
   </si>
   <si>
+    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
     <t>D.DEP 10.000 I.U. 30 CAPS</t>
   </si>
   <si>
@@ -221,12 +230,18 @@
     <t>23.5000</t>
   </si>
   <si>
+    <t>MUCOSTA 100MG 20 TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
     <t>OCTATRON 30 CAPS</t>
   </si>
   <si>
-    <t>114.00</t>
-  </si>
-  <si>
     <t>37.6200</t>
   </si>
   <si>
@@ -299,6 +314,15 @@
     <t>86.0000</t>
   </si>
   <si>
+    <t>VERSERC 16MG 30 TAB</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -344,7 +368,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 11:26 AM</t>
+    <t>Sunday, 1 June, 2025 11:27 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1084,7 +1108,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1094,14 +1118,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1110,7 +1134,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1127,14 +1151,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>30</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>27</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1150,7 +1174,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1160,14 +1184,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1176,14 +1200,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1193,11 +1217,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1209,14 +1233,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1233,7 +1257,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1249,7 +1273,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1266,7 +1290,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1282,7 +1306,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1299,7 +1323,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1348,7 +1372,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1358,14 +1382,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1374,31 +1398,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1407,31 +1431,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1440,14 +1464,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1480,7 +1504,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1513,7 +1537,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1530,7 +1554,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1546,7 +1570,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1563,7 +1587,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1579,24 +1603,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1605,14 +1629,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1622,14 +1646,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1645,13 +1669,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1662,7 +1686,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1678,7 +1702,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1688,14 +1712,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1704,14 +1728,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1721,11 +1745,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1737,14 +1761,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1754,14 +1778,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>93</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1770,14 +1794,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1787,11 +1811,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1803,31 +1827,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1836,28 +1860,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1869,28 +1893,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1902,66 +1926,165 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>108</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
         <v>109</v>
       </c>
-      <c t="s" r="Q35" s="12">
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>60</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
         <v>110</v>
       </c>
-    </row>
-    <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1709.4749999999999</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
         <v>111</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
+      <c t="s" r="Q36" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
         <v>112</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>64</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>60</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
         <v>113</v>
       </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>115</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>64</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>60</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>116</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>2098.4749999999999</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
+        <v>119</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>120</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>121</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2115,10 +2238,25 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>86.00</t>
   </si>
   <si>
@@ -179,12 +191,6 @@
     <t>3:1</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
   </si>
   <si>
@@ -266,7 +272,7 @@
     <t>ROWATINEX 45 CAPSULES</t>
   </si>
   <si>
-    <t>23.7600</t>
+    <t>95.7600</t>
   </si>
   <si>
     <t>SORAL 20MG 5 SUPP.</t>
@@ -299,9 +305,6 @@
     <t>TORSERETIC 5MG 30 TABS.</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>-19.8000</t>
   </si>
   <si>
@@ -366,6 +369,15 @@
   </si>
   <si>
     <t>13:0</t>
+  </si>
+  <si>
+    <t>مان لوك كريم حلاقه</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
   </si>
   <si>
     <t>Sunday, 1 June, 2025 11:27 AM</t>
@@ -1042,7 +1054,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1052,14 +1064,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1085,14 +1097,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1101,14 +1113,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1118,14 +1130,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1134,14 +1146,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1158,7 +1170,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1167,14 +1179,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1191,7 +1203,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1200,14 +1212,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1224,7 +1236,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1257,7 +1269,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1273,7 +1285,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1283,14 +1295,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1299,14 +1311,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1316,14 +1328,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1332,14 +1344,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1349,14 +1361,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1365,14 +1377,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1382,14 +1394,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1398,14 +1410,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1422,7 +1434,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1444,18 +1456,18 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1464,31 +1476,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1497,14 +1509,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1514,14 +1526,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1530,14 +1542,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1547,14 +1559,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1563,14 +1575,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1580,14 +1592,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1596,14 +1608,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1613,14 +1625,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1636,7 +1648,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1646,14 +1658,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1662,31 +1674,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1695,31 +1707,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1735,7 +1747,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1745,14 +1757,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1761,14 +1773,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1778,14 +1790,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1794,14 +1806,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1811,14 +1823,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1827,14 +1839,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1844,14 +1856,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1860,14 +1872,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1881,10 +1893,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1893,14 +1905,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1910,14 +1922,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1926,31 +1938,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1959,31 +1971,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1992,31 +2004,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2025,66 +2037,132 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>116</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>66</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>62</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
         <v>117</v>
       </c>
-      <c t="s" r="Q38" s="12">
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
         <v>118</v>
       </c>
-    </row>
-    <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>2098.4749999999999</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
+      <c t="s" r="Q39" s="12">
         <v>119</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
         <v>120</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>43</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>62</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
         <v>121</v>
       </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>2285.4749999999999</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>123</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>124</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>125</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2253,10 +2331,20 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -380,7 +380,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 11:27 AM</t>
+    <t>Sunday, 1 June, 2025 11:28 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -227,6 +227,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG 10 TAB.</t>
   </si>
   <si>
@@ -260,6 +269,24 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>PK-MERZ 100MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>RAMIXOLE 1 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
     <t>REALCOXSTAR 90MG 14TAB</t>
   </si>
   <si>
@@ -273,6 +300,15 @@
   </si>
   <si>
     <t>95.7600</t>
+  </si>
+  <si>
+    <t>SINEMET 25/250 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
   </si>
   <si>
     <t>SORAL 20MG 5 SUPP.</t>
@@ -1582,7 +1618,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1615,7 +1651,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1658,14 +1694,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1674,14 +1710,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1691,7 +1727,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -1714,13 +1750,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1747,7 +1783,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1757,14 +1793,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1773,14 +1809,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1790,11 +1826,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1806,28 +1842,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>34</v>
@@ -1839,14 +1875,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1856,14 +1892,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1879,7 +1915,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1889,14 +1925,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1922,11 +1958,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1938,14 +1974,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1955,14 +1991,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1971,20 +2007,20 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2011,24 +2047,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2037,7 +2073,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2050,15 +2086,15 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2070,31 +2106,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>119</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2103,14 +2139,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2120,49 +2156,181 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>121</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
         <v>122</v>
       </c>
-      <c t="s" r="Q40" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>2285.4749999999999</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>62</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
         <v>123</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
         <v>124</v>
       </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
+      <c t="s" r="Q41" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
         <v>125</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>66</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>62</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>126</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>128</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>66</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>62</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>129</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>132</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>43</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>62</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>133</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>2777.4749999999999</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
+        <v>135</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
+        <v>136</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>137</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2341,10 +2509,30 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -416,7 +416,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 11:28 AM</t>
+    <t>Sunday, 1 June, 2025 11:46 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -71,9 +86,6 @@
     <t>129.0000</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>CONCOR 5MG 30 TAB</t>
   </si>
   <si>
@@ -203,9 +215,6 @@
     <t>36.0000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>MARK FAST 30 CAPSULES</t>
   </si>
   <si>
@@ -374,6 +383,18 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>جهاز ريد</t>
   </si>
   <si>
@@ -401,10 +422,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>13:0</t>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>16:0</t>
   </si>
   <si>
     <t>مان لوك كريم حلاقه</t>
@@ -416,7 +437,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 11:46 AM</t>
+    <t>Sunday, 1 June, 2025 11:55 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1090,7 +1111,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1100,14 +1121,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1116,14 +1137,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1140,7 +1161,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1166,14 +1187,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1182,14 +1203,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1199,14 +1220,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1215,14 +1236,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1239,7 +1260,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1248,14 +1269,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1272,7 +1293,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1281,14 +1302,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1305,7 +1326,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1338,7 +1359,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1354,7 +1375,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1364,14 +1385,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1380,14 +1401,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1397,14 +1418,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1413,14 +1434,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1430,14 +1451,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1446,14 +1467,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1463,14 +1484,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1479,14 +1500,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1496,14 +1517,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1512,31 +1533,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1545,28 +1566,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1578,14 +1599,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1602,7 +1623,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1618,7 +1639,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1635,7 +1656,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1651,7 +1672,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1668,7 +1689,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1684,7 +1705,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1701,7 +1722,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1717,7 +1738,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1727,14 +1748,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1743,14 +1764,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1760,14 +1781,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1783,7 +1804,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1800,7 +1821,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1816,7 +1837,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1833,7 +1854,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1849,13 +1870,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1866,7 +1887,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1882,24 +1903,24 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1908,14 +1929,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1925,14 +1946,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1948,7 +1969,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1965,7 +1986,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1981,7 +2002,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1998,7 +2019,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2014,7 +2035,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2031,7 +2052,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2047,7 +2068,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2057,14 +2078,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>111</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2080,7 +2101,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2090,14 +2111,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2106,14 +2127,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2123,14 +2144,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2146,24 +2167,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2172,31 +2193,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2205,20 +2226,20 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2229,7 +2250,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2245,24 +2266,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>131</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2278,13 +2299,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2295,42 +2316,108 @@
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>2777.4749999999999</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
         <v>135</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>69</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>66</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
         <v>136</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
         <v>137</v>
       </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+      <c t="s" r="Q45" s="12">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>139</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>47</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>66</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>140</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>2837.4749999999999</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>142</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>143</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>144</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2529,10 +2616,20 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -200,7 +200,10 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>3:1</t>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>84.0000</t>
   </si>
   <si>
     <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
@@ -422,10 +425,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>16:0</t>
+    <t>18:0</t>
   </si>
   <si>
     <t>مان لوك كريم حلاقه</t>
@@ -437,7 +437,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 11:55 AM</t>
+    <t>Sunday, 1 June, 2025 12:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1554,10 +1554,10 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1566,20 +1566,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1599,14 +1599,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1616,11 +1616,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1649,11 +1649,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1682,11 +1682,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1698,14 +1698,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1715,11 +1715,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1748,11 +1748,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1764,7 +1764,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1781,11 +1781,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>38</v>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1814,11 +1814,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>38</v>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1847,11 +1847,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1863,7 +1863,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1880,11 +1880,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1909,15 +1909,15 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>38</v>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1962,14 +1962,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1979,11 +1979,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -1995,14 +1995,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2012,11 +2012,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2045,11 +2045,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>38</v>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2078,11 +2078,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2115,10 +2115,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2127,14 +2127,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2177,11 +2177,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2193,28 +2193,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2226,28 +2226,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2259,28 +2259,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2292,28 +2292,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2325,28 +2325,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>138</v>
@@ -2371,7 +2371,7 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2387,7 +2387,7 @@
     </row>
     <row r="47" ht="25.5" customHeight="1">
       <c r="P47" s="13">
-        <v>2837.4749999999999</v>
+        <v>2865.4749999999999</v>
       </c>
       <c r="Q47" s="13"/>
     </row>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AMBEZIM-G 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -77,6 +92,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>BIOREST MASSAGE SPRAY</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -125,9 +155,6 @@
     <t>99.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -152,9 +179,6 @@
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>108.00</t>
   </si>
   <si>
@@ -212,18 +236,12 @@
     <t>0:23</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>36.0000</t>
   </si>
   <si>
     <t>MARK FAST 30 CAPSULES</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>54.00</t>
   </si>
   <si>
@@ -275,9 +293,6 @@
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
-    <t>102.00</t>
-  </si>
-  <si>
     <t>51.0000</t>
   </si>
   <si>
@@ -437,7 +452,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 12:00 PM</t>
+    <t>Sunday, 1 June, 2025 12:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1144,7 +1159,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1154,14 +1169,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1170,31 +1185,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1203,14 +1218,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1220,14 +1235,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1236,14 +1251,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1253,14 +1268,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1269,14 +1284,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1286,14 +1301,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1302,14 +1317,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1319,14 +1334,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1335,14 +1350,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1352,14 +1367,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1368,14 +1383,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1385,14 +1400,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1401,14 +1416,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1418,14 +1433,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1434,14 +1449,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1451,14 +1466,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1467,14 +1482,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1484,14 +1499,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1500,14 +1515,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1517,14 +1532,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1533,14 +1548,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1550,14 +1565,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1566,28 +1581,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1599,14 +1614,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1616,14 +1631,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1639,17 +1654,17 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -1672,7 +1687,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1689,7 +1704,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1705,7 +1720,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1722,7 +1737,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1738,7 +1753,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1755,7 +1770,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1771,7 +1786,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1781,14 +1796,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1797,14 +1812,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1814,14 +1829,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1830,14 +1845,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1847,14 +1862,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1870,7 +1885,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1880,14 +1895,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1896,31 +1911,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1929,14 +1944,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1946,14 +1961,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1969,13 +1984,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1986,7 +2001,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2002,7 +2017,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2012,14 +2027,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2028,14 +2043,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2045,14 +2060,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2061,14 +2076,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2078,14 +2093,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2094,14 +2109,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2111,14 +2126,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2127,14 +2142,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2144,14 +2159,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2167,7 +2182,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2177,14 +2192,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q40" s="12">
         <v>120</v>
-      </c>
-      <c t="s" r="Q40" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2200,24 +2215,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2226,31 +2241,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2259,31 +2274,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2292,31 +2307,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2325,31 +2340,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>138</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2358,66 +2373,132 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
         <v>141</v>
       </c>
-      <c t="s" r="Q46" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>2865.4749999999999</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>28</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>29</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
         <v>142</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q47" s="12">
         <v>143</v>
       </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
         <v>144</v>
       </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>12</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>29</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>145</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>3009.1350000000002</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
+        <v>147</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
+        <v>148</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>149</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2626,10 +2707,20 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -404,15 +404,12 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
-    <t>14:0</t>
+    <t>13:0</t>
   </si>
   <si>
     <t>15.00</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>جهاز ريد</t>
   </si>
   <si>
@@ -443,6 +440,18 @@
     <t>18:0</t>
   </si>
   <si>
+    <t>شاش فازلين 10*10 سم</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
     <t>مان لوك كريم حلاقه</t>
   </si>
   <si>
@@ -452,7 +461,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 12:04 PM</t>
+    <t>Sunday, 1 June, 2025 12:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2328,10 +2337,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2340,14 +2349,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2357,11 +2366,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>26</v>
@@ -2373,7 +2382,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2390,11 +2399,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>26</v>
@@ -2406,7 +2415,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2423,14 +2432,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>75</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2439,14 +2448,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2467,38 +2476,71 @@
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>3009.1350000000002</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
         <v>147</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>12</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>29</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
         <v>148</v>
       </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
         <v>149</v>
       </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c t="s" r="Q49" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>3031.1350000000002</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>150</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>151</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>152</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2717,10 +2759,15 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -105,6 +105,15 @@
   </si>
   <si>
     <t>110.0000</t>
+  </si>
+  <si>
+    <t>BRIMOSALM EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
   </si>
   <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
@@ -1234,7 +1243,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1251,7 +1260,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1267,7 +1276,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1277,14 +1286,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1293,14 +1302,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1310,11 +1319,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>26</v>
@@ -1326,14 +1335,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1343,11 +1352,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>26</v>
@@ -1366,7 +1375,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1376,14 +1385,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1392,14 +1401,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1432,7 +1441,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1442,14 +1451,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1458,14 +1467,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1515,7 +1524,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1531,7 +1540,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1548,7 +1557,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1564,7 +1573,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1581,7 +1590,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1614,7 +1623,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1630,7 +1639,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1640,14 +1649,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1669,18 +1678,18 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1696,24 +1705,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1729,7 +1738,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1795,7 +1804,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1828,7 +1837,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1871,14 +1880,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1887,14 +1896,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1904,11 +1913,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1920,14 +1929,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1937,14 +1946,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1960,7 +1969,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1993,13 +2002,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2010,7 +2019,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2026,24 +2035,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2052,14 +2061,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2069,14 +2078,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2125,7 +2134,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2142,7 +2151,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2158,7 +2167,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2175,7 +2184,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2191,7 +2200,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2201,14 +2210,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>120</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2224,7 +2233,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2234,14 +2243,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>26</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2250,14 +2259,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2267,7 +2276,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2290,21 +2299,21 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>26</v>
@@ -2316,14 +2325,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2333,14 +2342,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2370,10 +2379,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2382,14 +2391,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2436,10 +2445,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>142</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2455,7 +2464,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>28</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2465,14 +2474,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>26</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2481,14 +2490,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2509,38 +2518,71 @@
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>3031.1350000000002</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
         <v>150</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>12</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>29</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
         <v>151</v>
       </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
         <v>152</v>
       </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c t="s" r="Q50" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>3072.1350000000002</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
+        <v>153</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>154</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>155</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2764,10 +2806,15 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -398,6 +398,15 @@
     <t>87.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>16.3200</t>
+  </si>
+  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -446,7 +455,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>18:0</t>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>19:0</t>
   </si>
   <si>
     <t>شاش فازلين 10*10 سم</t>
@@ -470,7 +482,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 12:07 PM</t>
+    <t>Sunday, 1 June, 2025 12:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2338,18 +2350,18 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2358,14 +2370,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2375,14 +2387,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2412,10 +2424,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2424,14 +2436,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2478,10 +2490,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>145</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2497,7 +2509,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2507,14 +2519,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q49" s="12">
         <v>149</v>
-      </c>
-      <c t="s" r="Q49" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2530,7 +2542,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2540,49 +2552,82 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>3072.1350000000002</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
-        <v>153</v>
-      </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
         <v>154</v>
       </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>12</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>29</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
         <v>155</v>
       </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>3090.4549999999999</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>157</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>158</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>159</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2811,10 +2856,15 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -449,6 +449,18 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>سائل ريد</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -482,7 +494,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 12:08 PM</t>
+    <t>Sunday, 1 June, 2025 12:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2509,7 +2521,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2519,14 +2531,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>149</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2542,7 +2554,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>28</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2552,14 +2564,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q50" s="12">
         <v>153</v>
-      </c>
-      <c t="s" r="Q50" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2575,7 +2587,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2585,49 +2597,82 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>26</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>3090.4549999999999</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
-        <v>157</v>
-      </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
         <v>158</v>
       </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>12</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>29</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
         <v>159</v>
       </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>3185.4549999999999</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>161</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>162</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>163</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2861,10 +2906,15 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -209,7 +209,7 @@
     <t>180.00</t>
   </si>
   <si>
-    <t>180.0000</t>
+    <t>270.0000</t>
   </si>
   <si>
     <t>FLOPADEX 8 MG 30 CAPSULES</t>
@@ -449,18 +449,6 @@
     <t>3.0000</t>
   </si>
   <si>
-    <t>سائل ريد</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -485,6 +473,18 @@
     <t>7.0000</t>
   </si>
   <si>
+    <t>صابونه دوف SOAP</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>مان لوك كريم حلاقه</t>
   </si>
   <si>
@@ -494,7 +494,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 12:26 PM</t>
+    <t>Sunday, 1 June, 2025 1:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1597,7 +1597,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1614,7 +1614,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2521,7 +2521,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2531,14 +2531,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q49" s="12">
         <v>149</v>
-      </c>
-      <c t="s" r="Q49" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2554,7 +2554,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2564,14 +2564,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>153</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2642,7 +2642,7 @@
     </row>
     <row r="53" ht="24.75" customHeight="1">
       <c r="P53" s="13">
-        <v>3185.4549999999999</v>
+        <v>3220.4549999999999</v>
       </c>
       <c r="Q53" s="13"/>
     </row>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -125,6 +125,18 @@
     <t>129.0000</t>
   </si>
   <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>85.8000</t>
+  </si>
+  <si>
     <t>CONCOR 5MG 30 TAB</t>
   </si>
   <si>
@@ -155,9 +167,6 @@
     <t>D.DEP 10.000 I.U. 30 CAPS</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>300.00</t>
   </si>
   <si>
@@ -203,6 +212,18 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>104.0000</t>
+  </si>
+  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
@@ -269,9 +290,6 @@
     <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
   </si>
   <si>
-    <t>130.00</t>
-  </si>
-  <si>
     <t>130.0000</t>
   </si>
   <si>
@@ -494,7 +512,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 1:17 PM</t>
+    <t>Sunday, 1 June, 2025 1:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1350,7 +1368,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1376,11 +1394,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>26</v>
@@ -1392,14 +1410,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1409,11 +1427,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>26</v>
@@ -1425,14 +1443,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1449,7 +1467,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1465,7 +1483,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1498,7 +1516,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1508,14 +1526,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1524,14 +1542,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1581,7 +1599,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1597,7 +1615,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1614,7 +1632,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1630,7 +1648,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1640,14 +1658,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1656,14 +1674,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1673,14 +1691,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1689,14 +1707,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1706,14 +1724,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1722,31 +1740,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1755,14 +1773,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1772,14 +1790,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1788,31 +1806,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1821,14 +1839,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1838,11 +1856,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>26</v>
@@ -1854,14 +1872,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1871,11 +1889,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>26</v>
@@ -1887,14 +1905,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1904,7 +1922,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -1927,7 +1945,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1937,14 +1955,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1953,14 +1971,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1970,14 +1988,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1986,14 +2004,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2003,14 +2021,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2019,7 +2037,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2036,14 +2054,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2065,7 +2083,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2076,7 +2094,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2092,7 +2110,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2102,14 +2120,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2118,31 +2136,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2151,14 +2169,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2168,14 +2186,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2191,7 +2209,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2208,7 +2226,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2224,7 +2242,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2257,7 +2275,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2267,14 +2285,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2290,7 +2308,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2300,11 +2318,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>26</v>
@@ -2316,14 +2334,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2333,14 +2351,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>24</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2349,14 +2367,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2366,14 +2384,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2389,21 +2407,21 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>26</v>
@@ -2415,31 +2433,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2448,14 +2466,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2465,11 +2483,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>26</v>
@@ -2481,14 +2499,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2502,10 +2520,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2514,14 +2532,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2538,7 +2556,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>149</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2547,14 +2565,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>28</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2564,11 +2582,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>26</v>
@@ -2580,14 +2598,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2597,14 +2615,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>26</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2613,14 +2631,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2630,49 +2648,115 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
         <v>160</v>
       </c>
-      <c t="s" r="Q52" s="12">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>3220.4549999999999</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
         <v>161</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>29</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
         <v>162</v>
       </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
         <v>163</v>
       </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c t="s" r="Q53" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>164</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>12</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>29</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>165</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>3410.2550000000001</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
+        <v>167</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>168</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>169</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2911,10 +2995,20 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -92,6 +92,15 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ARYTHREX 200MG 20 CAP</t>
+  </si>
+  <si>
+    <t>94.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
     <t>BIOREST MASSAGE SPRAY</t>
   </si>
   <si>
@@ -320,7 +329,7 @@
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
-    <t>51.0000</t>
+    <t>102.0000</t>
   </si>
   <si>
     <t>PK-MERZ 100MG 30 F.C. TAB</t>
@@ -512,7 +521,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 1:25 PM</t>
+    <t>Sunday, 1 June, 2025 1:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1252,24 +1261,24 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1278,20 +1287,20 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1318,7 +1327,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1335,7 +1344,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1351,7 +1360,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1361,14 +1370,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1377,14 +1386,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1394,14 +1403,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1410,14 +1419,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1427,11 +1436,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>26</v>
@@ -1443,14 +1452,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1460,11 +1469,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>26</v>
@@ -1483,7 +1492,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1500,7 +1509,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1516,7 +1525,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1549,7 +1558,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1559,14 +1568,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1575,14 +1584,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1632,7 +1641,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1648,7 +1657,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1658,14 +1667,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1674,14 +1683,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1698,7 +1707,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1714,7 +1723,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1731,7 +1740,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1764,7 +1773,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1780,7 +1789,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1790,14 +1799,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1819,18 +1828,18 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1846,24 +1855,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1879,7 +1888,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1922,11 +1931,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>26</v>
@@ -1938,14 +1947,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1955,7 +1964,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -1978,7 +1987,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2021,14 +2030,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2037,14 +2046,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2054,11 +2063,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2070,14 +2079,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2087,7 +2096,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2110,7 +2119,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2143,13 +2152,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2160,7 +2169,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2176,24 +2185,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2202,14 +2211,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2219,14 +2228,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2242,7 +2251,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2275,7 +2284,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2292,7 +2301,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2308,7 +2317,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2325,7 +2334,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2341,7 +2350,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2351,14 +2360,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>129</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2374,7 +2383,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2384,14 +2393,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>26</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2400,14 +2409,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2417,7 +2426,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2440,7 +2449,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2450,14 +2459,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2479,18 +2488,18 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2499,31 +2508,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2545,7 +2554,7 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2553,10 +2562,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2565,20 +2574,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2605,13 +2614,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2622,7 +2631,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>155</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2631,31 +2640,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>26</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2664,28 +2673,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>26</v>
@@ -2697,20 +2706,20 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2725,38 +2734,71 @@
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>3410.2550000000001</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
         <v>167</v>
       </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>12</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>32</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
         <v>168</v>
       </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
         <v>169</v>
       </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+      <c t="s" r="Q55" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="P56" s="13">
+        <v>3508.2550000000001</v>
+      </c>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="14">
+        <v>170</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c t="s" r="G57" s="15">
+        <v>171</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c t="s" r="K57" s="17">
+        <v>172</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="257">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3005,10 +3047,15 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:Q57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -134,6 +134,15 @@
     <t>129.0000</t>
   </si>
   <si>
+    <t>CENTRUM FROM A TO Z 30 TAB LUTIN</t>
+  </si>
+  <si>
+    <t>265.00</t>
+  </si>
+  <si>
+    <t>265.0000</t>
+  </si>
+  <si>
     <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
   </si>
   <si>
@@ -383,6 +392,12 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>TAMSULIN PLUS 6/0.4MG 20 MR TABS</t>
   </si>
   <si>
@@ -521,7 +536,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 1:35 PM</t>
+    <t>Sunday, 1 June, 2025 1:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1393,7 +1408,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1403,14 +1418,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1419,14 +1434,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1436,14 +1451,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1452,14 +1467,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1469,11 +1484,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>26</v>
@@ -1485,14 +1500,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1502,11 +1517,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>26</v>
@@ -1525,7 +1540,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1542,7 +1557,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1558,7 +1573,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1591,7 +1606,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1601,14 +1616,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1617,14 +1632,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1674,7 +1689,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1690,7 +1705,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1700,14 +1715,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1716,14 +1731,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1740,7 +1755,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1756,7 +1771,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1773,7 +1788,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1806,7 +1821,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1822,7 +1837,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1832,14 +1847,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1861,18 +1876,18 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1888,24 +1903,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1921,7 +1936,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1964,11 +1979,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>26</v>
@@ -1980,14 +1995,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1997,7 +2012,7 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -2020,7 +2035,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2063,14 +2078,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2079,14 +2094,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2096,14 +2111,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2112,14 +2127,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2129,7 +2144,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2152,7 +2167,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2185,13 +2200,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2202,7 +2217,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2218,24 +2233,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2244,14 +2259,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2261,14 +2276,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2317,7 +2332,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2334,7 +2349,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2350,7 +2365,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2360,14 +2375,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2376,14 +2391,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2393,14 +2408,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>132</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2409,14 +2424,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2426,7 +2441,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2449,7 +2464,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2459,14 +2474,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>137</v>
-      </c>
-      <c t="s" r="Q46" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2482,7 +2497,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2492,14 +2507,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2508,28 +2523,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>26</v>
@@ -2541,31 +2556,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2574,14 +2589,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2591,11 +2606,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>26</v>
@@ -2607,14 +2622,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2624,14 +2639,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2640,14 +2655,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2657,14 +2672,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>158</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2673,14 +2688,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>31</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2690,11 +2705,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>26</v>
@@ -2706,14 +2721,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2723,14 +2738,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>26</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2739,14 +2754,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2756,49 +2771,115 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>168</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
         <v>169</v>
       </c>
-      <c t="s" r="Q55" s="12">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>3508.2550000000001</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>32</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
         <v>170</v>
       </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
         <v>171</v>
       </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
+      <c t="s" r="Q56" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
         <v>172</v>
       </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>12</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>32</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>173</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>3798.9949999999999</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>175</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>176</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>177</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3052,10 +3133,20 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -536,7 +536,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 1:51 PM</t>
+    <t>Sunday, 1 June, 2025 1:58 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -197,7 +197,7 @@
     <t>36.00</t>
   </si>
   <si>
-    <t>11.8800</t>
+    <t>23.7600</t>
   </si>
   <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
@@ -260,6 +260,18 @@
     <t>116.8200</t>
   </si>
   <si>
+    <t>FORTAZEDIM 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
     <t>INCONT L.A. 4MG 30 TAB.</t>
   </si>
   <si>
@@ -329,6 +341,9 @@
     <t>114.0000</t>
   </si>
   <si>
+    <t>NAUSILEX 50MG/2ML I.V./I.M. 3 AMPOULES</t>
+  </si>
+  <si>
     <t>OCTATRON 30 CAPS</t>
   </si>
   <si>
@@ -497,10 +512,13 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>19:0</t>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
   </si>
   <si>
     <t>شاش فازلين 10*10 سم</t>
@@ -524,9 +542,6 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t>مان لوك كريم حلاقه</t>
   </si>
   <si>
@@ -536,7 +551,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 1:58 PM</t>
+    <t>Sunday, 1 June, 2025 2:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1606,7 +1621,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1623,7 +1638,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1837,7 +1852,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1847,14 +1862,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1863,14 +1878,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1880,14 +1895,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1896,31 +1911,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1929,31 +1944,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1962,14 +1977,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1979,11 +1994,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>26</v>
@@ -1995,7 +2010,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2012,11 +2027,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>26</v>
@@ -2028,14 +2043,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2045,11 +2060,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>26</v>
@@ -2061,14 +2076,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2078,11 +2093,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>26</v>
@@ -2094,7 +2109,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2111,14 +2126,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2127,14 +2142,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2144,14 +2159,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2160,14 +2175,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2177,14 +2192,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2200,7 +2215,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2210,11 +2225,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>26</v>
@@ -2226,7 +2241,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2239,18 +2254,18 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2259,14 +2274,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2276,14 +2291,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2299,13 +2314,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2316,7 +2331,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2332,7 +2347,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2342,14 +2357,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2358,14 +2373,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2375,14 +2390,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2398,7 +2413,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2415,7 +2430,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2431,7 +2446,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2441,14 +2456,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2457,14 +2472,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2474,14 +2489,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>137</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2490,14 +2505,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2507,7 +2522,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2530,7 +2545,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2540,14 +2555,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q48" s="12">
         <v>142</v>
-      </c>
-      <c t="s" r="Q48" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2563,7 +2578,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2573,14 +2588,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2589,28 +2604,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>26</v>
@@ -2622,31 +2637,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2655,14 +2670,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2672,11 +2687,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>26</v>
@@ -2688,14 +2703,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>31</v>
+        <v>156</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2705,14 +2720,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2721,14 +2736,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2738,14 +2753,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>163</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2754,14 +2769,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2771,11 +2786,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>26</v>
@@ -2787,14 +2802,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>31</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2804,14 +2819,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>26</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2820,14 +2835,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2837,49 +2852,148 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>170</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>171</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>32</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>172</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>173</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
         <v>174</v>
       </c>
-      <c t="s" r="Q57" s="12">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>3798.9949999999999</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
         <v>175</v>
       </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>32</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
         <v>176</v>
       </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
         <v>177</v>
       </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>12</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>32</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>178</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>3898.6350000000002</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
+        <v>180</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
+        <v>181</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>182</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3143,10 +3257,25 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -134,6 +134,15 @@
     <t>129.0000</t>
   </si>
   <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
     <t>CENTRUM FROM A TO Z 30 TAB LUTIN</t>
   </si>
   <si>
@@ -521,6 +530,9 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>شاش فازلين 10*10 سم</t>
   </si>
   <si>
@@ -551,7 +563,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 2:11 PM</t>
+    <t>Sunday, 1 June, 2025 2:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1423,7 +1435,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1440,7 +1452,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1456,7 +1468,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1466,14 +1478,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1482,14 +1494,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1499,14 +1511,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1515,14 +1527,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1532,11 +1544,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>26</v>
@@ -1548,14 +1560,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1565,11 +1577,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>26</v>
@@ -1588,7 +1600,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1605,7 +1617,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1621,7 +1633,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1638,7 +1650,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1654,7 +1666,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1664,14 +1676,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1680,14 +1692,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1737,7 +1749,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1753,7 +1765,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1763,14 +1775,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1779,14 +1791,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1803,7 +1815,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1819,7 +1831,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1836,7 +1848,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1852,7 +1864,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1862,14 +1874,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1878,14 +1890,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1902,7 +1914,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1918,7 +1930,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1928,14 +1940,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1957,18 +1969,18 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1984,24 +1996,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2017,7 +2029,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2060,11 +2072,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>26</v>
@@ -2076,14 +2088,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2093,7 +2105,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2116,7 +2128,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2149,7 +2161,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2159,14 +2171,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2175,14 +2187,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2192,11 +2204,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2208,14 +2220,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2225,14 +2237,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2241,14 +2253,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2258,7 +2270,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2281,7 +2293,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2314,13 +2326,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2331,7 +2343,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2347,24 +2359,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2373,14 +2385,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2390,14 +2402,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2446,7 +2458,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2456,14 +2468,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2472,14 +2484,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2489,7 +2501,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2512,7 +2524,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2529,7 +2541,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2545,7 +2557,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2555,14 +2567,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>142</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2578,7 +2590,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2588,14 +2600,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>26</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2604,14 +2616,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2621,7 +2633,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2644,7 +2656,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>149</v>
+        <v>48</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2654,14 +2666,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2683,18 +2695,18 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2703,14 +2715,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2720,14 +2732,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2757,10 +2769,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2769,14 +2781,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>31</v>
+        <v>162</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2826,7 +2838,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>168</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2835,7 +2847,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2852,14 +2864,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>26</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2868,14 +2880,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>171</v>
+        <v>31</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2885,14 +2897,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2922,7 +2934,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>26</v>
@@ -2934,14 +2946,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2951,49 +2963,82 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>26</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>3898.6350000000002</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
-        <v>180</v>
-      </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
         <v>181</v>
       </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>12</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>32</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
         <v>182</v>
       </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>3920.835</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>184</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>185</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>186</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3272,10 +3317,15 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -563,7 +563,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 2:20 PM</t>
+    <t>Sunday, 1 June, 2025 3:16 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -239,6 +239,15 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
@@ -251,6 +260,15 @@
     <t>104.0000</t>
   </si>
   <si>
+    <t>EXTRAUMA DNA CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
@@ -434,12 +452,6 @@
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
   </si>
   <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
     <t>TORSERETIC 5MG 30 TABS.</t>
   </si>
   <si>
@@ -563,7 +575,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 3:16 PM</t>
+    <t>Sunday, 1 June, 2025 3:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1798,7 +1810,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1808,11 +1820,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>26</v>
@@ -1824,14 +1836,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1848,7 +1860,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1864,7 +1876,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1881,7 +1893,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1897,7 +1909,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1907,14 +1919,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1923,7 +1935,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1940,14 +1952,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1956,14 +1968,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1973,14 +1985,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1996,24 +2008,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2029,7 +2041,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2039,14 +2051,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2062,24 +2074,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2095,7 +2107,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2105,11 +2117,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>26</v>
@@ -2121,14 +2133,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2138,11 +2150,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>26</v>
@@ -2154,14 +2166,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2171,7 +2183,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2194,7 +2206,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2204,14 +2216,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2220,7 +2232,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2237,14 +2249,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2253,14 +2265,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2270,14 +2282,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2286,14 +2298,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2303,14 +2315,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2319,14 +2331,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2336,7 +2348,7 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2365,7 +2377,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2376,7 +2388,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2392,7 +2404,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2402,14 +2414,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2418,31 +2430,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2451,14 +2463,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2468,14 +2480,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2491,7 +2503,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2501,14 +2513,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2517,14 +2529,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2534,14 +2546,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2550,14 +2562,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2567,14 +2579,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2590,7 +2602,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2600,14 +2612,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>145</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2623,7 +2635,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2633,11 +2645,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>26</v>
@@ -2649,14 +2661,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2666,14 +2678,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>26</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2682,14 +2694,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2699,14 +2711,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2715,28 +2727,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>155</v>
+        <v>48</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>26</v>
@@ -2748,31 +2760,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2781,14 +2793,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2798,11 +2810,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>26</v>
@@ -2814,14 +2826,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2831,14 +2843,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2847,14 +2859,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2864,14 +2876,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>171</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2880,7 +2892,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2897,14 +2909,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2913,14 +2925,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>31</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2930,14 +2942,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>26</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2946,14 +2958,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>31</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2963,14 +2975,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2979,14 +2991,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2996,49 +3008,115 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>182</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
         <v>183</v>
       </c>
-      <c t="s" r="Q61" s="12">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>3920.835</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>32</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
         <v>184</v>
       </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
         <v>185</v>
       </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>12</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>32</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
         <v>186</v>
       </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="P64" s="13">
+        <v>4000.835</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
+        <v>188</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>189</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>190</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3322,10 +3400,20 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -575,7 +575,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 3:18 PM</t>
+    <t>Sunday, 1 June, 2025 4:19 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>47.0000</t>
+  </si>
+  <si>
+    <t>BETADINE ANTISEPTIC SOLN. 10% 120 ML</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
   </si>
   <si>
     <t>BIOREST MASSAGE SPRAY</t>
@@ -1348,21 +1357,21 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>26</v>
@@ -1374,20 +1383,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1414,7 +1423,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1431,7 +1440,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1447,7 +1456,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1464,7 +1473,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1480,7 +1489,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1497,7 +1506,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1513,7 +1522,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1523,14 +1532,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1539,14 +1548,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1556,14 +1565,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1572,14 +1581,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1589,11 +1598,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>26</v>
@@ -1605,14 +1614,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1622,11 +1631,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>26</v>
@@ -1645,7 +1654,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1662,7 +1671,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1678,7 +1687,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1695,7 +1704,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1711,7 +1720,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1721,14 +1730,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1737,14 +1746,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1794,7 +1803,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1827,7 +1836,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1843,7 +1852,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1853,11 +1862,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>26</v>
@@ -1869,14 +1878,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1909,7 +1918,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1926,7 +1935,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1942,7 +1951,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1959,7 +1968,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1975,7 +1984,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1985,14 +1994,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2001,14 +2010,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2025,7 +2034,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2041,7 +2050,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2051,14 +2060,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2080,18 +2089,18 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2107,24 +2116,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2140,7 +2149,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2183,11 +2192,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>26</v>
@@ -2199,14 +2208,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2216,7 +2225,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2239,7 +2248,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2272,7 +2281,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2282,14 +2291,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2298,14 +2307,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2315,11 +2324,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2331,14 +2340,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2348,14 +2357,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2364,14 +2373,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2381,7 +2390,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2404,7 +2413,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2437,13 +2446,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2454,7 +2463,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2470,24 +2479,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2496,14 +2505,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2513,14 +2522,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2536,7 +2545,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2569,7 +2578,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2579,14 +2588,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2595,14 +2604,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2612,7 +2621,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2635,7 +2644,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2645,14 +2654,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2661,14 +2670,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2678,14 +2687,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>149</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2701,7 +2710,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2711,14 +2720,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>26</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2727,14 +2736,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2744,7 +2753,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -2767,7 +2776,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>156</v>
+        <v>51</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2777,14 +2786,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2806,18 +2815,18 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2826,31 +2835,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2872,7 +2881,7 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2880,10 +2889,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2892,20 +2901,20 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2932,13 +2941,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -2949,7 +2958,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>175</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2958,31 +2967,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2991,31 +3000,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>179</v>
+        <v>34</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3024,28 +3033,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>26</v>
@@ -3064,59 +3073,92 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>26</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
-      <c r="P64" s="13">
-        <v>4000.835</v>
-      </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
         <v>188</v>
       </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>12</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>35</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
         <v>189</v>
       </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
         <v>190</v>
       </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+      <c t="s" r="Q64" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="P65" s="13">
+        <v>4080.835</v>
+      </c>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="14">
+        <v>191</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c t="s" r="G66" s="15">
+        <v>192</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c t="s" r="K66" s="17">
+        <v>193</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="302">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3410,10 +3452,15 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:Q66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -485,6 +485,15 @@
     <t>87.0000</t>
   </si>
   <si>
+    <t>VIOTIC EAR DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -584,7 +593,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 4:19 PM</t>
+    <t>Sunday, 1 June, 2025 5:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2809,7 +2818,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2819,14 +2828,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2848,18 +2857,18 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2868,14 +2877,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2885,14 +2894,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2922,10 +2931,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2934,14 +2943,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>34</v>
+        <v>172</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2991,7 +3000,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>178</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3000,7 +3009,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3017,14 +3026,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3033,14 +3042,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>182</v>
+        <v>34</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3050,14 +3059,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3066,14 +3075,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3083,11 +3092,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>26</v>
@@ -3106,7 +3115,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3116,49 +3125,82 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>26</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
-      <c r="P65" s="13">
-        <v>4080.835</v>
-      </c>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="14">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
         <v>191</v>
       </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c t="s" r="G66" s="15">
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>12</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>35</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
         <v>192</v>
       </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16"/>
-      <c t="s" r="K66" s="17">
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
         <v>193</v>
       </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+      <c t="s" r="Q65" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="P66" s="13">
+        <v>4103.835</v>
+      </c>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="14">
+        <v>194</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c t="s" r="G67" s="15">
+        <v>195</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c t="s" r="K67" s="17">
+        <v>196</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="307">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3457,10 +3499,15 @@
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:Q67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -329,10 +329,13 @@
     <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
   </si>
   <si>
-    <t>0:23</t>
-  </si>
-  <si>
-    <t>36.0000</t>
+    <t>0:22</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>0:4</t>
   </si>
   <si>
     <t>MARK FAST 30 CAPSULES</t>
@@ -593,7 +596,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 5:02 PM</t>
+    <t>Sunday, 1 June, 2025 5:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2142,7 +2145,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2151,7 +2154,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2168,11 +2171,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>26</v>
@@ -2184,7 +2187,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2201,11 +2204,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>26</v>
@@ -2217,7 +2220,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2238,7 +2241,7 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>26</v>
@@ -2250,7 +2253,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2267,11 +2270,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>26</v>
@@ -2283,7 +2286,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2300,11 +2303,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>26</v>
@@ -2316,7 +2319,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2349,7 +2352,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2366,11 +2369,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2382,7 +2385,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2403,7 +2406,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>26</v>
@@ -2415,7 +2418,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2432,11 +2435,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>26</v>
@@ -2448,7 +2451,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2465,11 +2468,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>26</v>
@@ -2481,7 +2484,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2498,11 +2501,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2514,7 +2517,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2535,7 +2538,7 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2547,7 +2550,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2564,11 +2567,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>26</v>
@@ -2580,7 +2583,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2597,11 +2600,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>26</v>
@@ -2613,7 +2616,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2634,7 +2637,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2646,7 +2649,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2663,11 +2666,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2679,7 +2682,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2712,7 +2715,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2733,10 +2736,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2745,7 +2748,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2766,7 +2769,7 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>26</v>
@@ -2778,7 +2781,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2795,11 +2798,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>26</v>
@@ -2811,7 +2814,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2828,11 +2831,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>26</v>
@@ -2844,14 +2847,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2865,7 +2868,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2877,14 +2880,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2894,11 +2897,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>26</v>
@@ -2910,14 +2913,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2927,11 +2930,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2943,14 +2946,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2960,11 +2963,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>26</v>
@@ -2976,7 +2979,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -2993,11 +2996,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>26</v>
@@ -3009,7 +3012,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3026,14 +3029,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3042,7 +3045,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3059,11 +3062,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3075,14 +3078,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3092,11 +3095,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>26</v>
@@ -3108,14 +3111,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3125,11 +3128,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>26</v>
@@ -3141,7 +3144,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3158,11 +3161,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>26</v>
@@ -3170,13 +3173,13 @@
     </row>
     <row r="66" ht="25.5" customHeight="1">
       <c r="P66" s="13">
-        <v>4103.835</v>
+        <v>4115.835</v>
       </c>
       <c r="Q66" s="13"/>
     </row>
     <row r="67" ht="16.5" customHeight="1">
       <c t="s" r="A67" s="14">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -3184,13 +3187,13 @@
       <c r="E67" s="14"/>
       <c r="F67" s="14"/>
       <c t="s" r="G67" s="15">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H67" s="15"/>
       <c r="I67" s="15"/>
       <c r="J67" s="16"/>
       <c t="s" r="K67" s="17">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L67" s="17"/>
       <c r="M67" s="17"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -596,7 +596,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 5:15 PM</t>
+    <t>Sunday, 1 June, 2025 5:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -596,7 +596,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 5:22 PM</t>
+    <t>Sunday, 1 June, 2025 5:40 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -596,7 +596,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 5:40 PM</t>
+    <t>Sunday, 1 June, 2025 5:49 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -473,6 +473,15 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>TROPHIC SILICONE GEL</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
     <t>VENTOLIN EVOHALER 100MCG/ACTUATION INHALER</t>
   </si>
   <si>
@@ -548,6 +557,15 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>سائل ريد</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -596,7 +614,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 5:49 PM</t>
+    <t>Sunday, 1 June, 2025 5:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2761,15 +2779,15 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>26</v>
@@ -2781,14 +2799,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2798,7 +2816,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -2821,7 +2839,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2854,7 +2872,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>163</v>
+        <v>34</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2864,14 +2882,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2893,18 +2911,18 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2913,14 +2931,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2930,14 +2948,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2967,10 +2985,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2979,14 +2997,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>34</v>
+        <v>176</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3036,7 +3054,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>182</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3045,14 +3063,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3062,14 +3080,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3085,7 +3103,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>186</v>
+        <v>34</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3095,14 +3113,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q63" s="12">
         <v>188</v>
-      </c>
-      <c t="s" r="Q63" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3118,7 +3136,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>34</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3128,14 +3146,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3144,14 +3162,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3172,38 +3190,104 @@
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
-      <c r="P66" s="13">
-        <v>4115.835</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
         <v>195</v>
       </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
         <v>196</v>
       </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>35</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
         <v>197</v>
       </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>198</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>12</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>35</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>199</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="P68" s="13">
+        <v>4360.835</v>
+      </c>
+      <c r="Q68" s="13"/>
+    </row>
+    <row r="69" ht="16.5" customHeight="1">
+      <c t="s" r="A69" s="14">
+        <v>201</v>
+      </c>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c t="s" r="G69" s="15">
+        <v>202</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c t="s" r="K69" s="17">
+        <v>203</v>
+      </c>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="317">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3507,10 +3591,20 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="K69:Q69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -473,15 +473,6 @@
     <t>0:-1</t>
   </si>
   <si>
-    <t>TROPHIC SILICONE GEL</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
     <t>VENTOLIN EVOHALER 100MCG/ACTUATION INHALER</t>
   </si>
   <si>
@@ -614,7 +605,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 5:54 PM</t>
+    <t>Sunday, 1 June, 2025 5:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2779,15 +2770,15 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>26</v>
@@ -2799,14 +2790,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2816,7 +2807,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -2839,7 +2830,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2872,7 +2863,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2882,14 +2873,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2911,18 +2902,18 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2931,14 +2922,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2948,14 +2939,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2985,10 +2976,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2997,14 +2988,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>176</v>
+        <v>34</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3037,7 +3028,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3070,7 +3061,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3087,7 +3078,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>26</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3096,7 +3087,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3113,14 +3104,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>188</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3129,14 +3120,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>34</v>
+        <v>189</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3146,14 +3137,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3162,14 +3153,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3179,11 +3170,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>26</v>
@@ -3202,7 +3193,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3212,82 +3203,49 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>26</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
-      <c r="A67" s="7">
-        <v>61</v>
-      </c>
-      <c r="B67" s="7"/>
-      <c t="s" r="C67" s="8">
+      <c r="P67" s="13">
+        <v>4210.835</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
         <v>198</v>
       </c>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c t="s" r="H67" s="9">
-        <v>12</v>
-      </c>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
-      <c t="s" r="L67" s="10">
-        <v>35</v>
-      </c>
-      <c r="M67" s="10"/>
-      <c t="s" r="N67" s="8">
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
         <v>199</v>
       </c>
-      <c r="O67" s="8"/>
-      <c t="s" r="P67" s="11">
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
         <v>200</v>
       </c>
-      <c t="s" r="Q67" s="12">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="68" ht="24.75" customHeight="1">
-      <c r="P68" s="13">
-        <v>4360.835</v>
-      </c>
-      <c r="Q68" s="13"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c t="s" r="A69" s="14">
-        <v>201</v>
-      </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c t="s" r="G69" s="15">
-        <v>202</v>
-      </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
-      <c t="s" r="K69" s="17">
-        <v>203</v>
-      </c>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3596,15 +3554,10 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="H67:K67"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -383,6 +383,12 @@
     <t>NAUSILEX 50MG/2ML I.V./I.M. 3 AMPOULES</t>
   </si>
   <si>
+    <t>NEVILOB 5 MG 21 TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
     <t>OCTATRON 30 CAPS</t>
   </si>
   <si>
@@ -473,6 +479,12 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
     <t>VENTOLIN EVOHALER 100MCG/ACTUATION INHALER</t>
   </si>
   <si>
@@ -530,9 +542,6 @@
     <t>جهاز ريد</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>140.00</t>
   </si>
   <si>
@@ -605,7 +614,7 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 5:55 PM</t>
+    <t>Sunday, 1 June, 2025 6:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2368,7 +2377,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2378,14 +2387,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2401,7 +2410,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2411,14 +2420,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2434,7 +2443,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2444,11 +2453,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>26</v>
@@ -2460,14 +2469,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2477,11 +2486,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>26</v>
@@ -2493,31 +2502,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2526,31 +2535,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2566,7 +2575,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2576,14 +2585,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2592,7 +2601,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2609,11 +2618,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>26</v>
@@ -2625,14 +2634,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2642,14 +2651,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2665,7 +2674,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2675,11 +2684,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2691,14 +2700,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2708,14 +2717,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2724,14 +2733,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2741,14 +2750,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>153</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2757,14 +2766,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2774,14 +2783,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q53" s="12">
         <v>155</v>
-      </c>
-      <c t="s" r="Q53" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2797,7 +2806,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2807,11 +2816,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>26</v>
@@ -2823,7 +2832,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2840,11 +2849,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>26</v>
@@ -2856,14 +2865,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>163</v>
+        <v>51</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2873,14 +2882,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2889,28 +2898,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>166</v>
+        <v>34</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>26</v>
@@ -2922,31 +2931,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2955,14 +2964,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2972,11 +2981,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>26</v>
@@ -2988,14 +2997,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>34</v>
+        <v>174</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3005,14 +3014,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3021,14 +3030,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3038,11 +3047,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>26</v>
@@ -3054,7 +3063,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3071,14 +3080,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>185</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3087,14 +3096,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3104,14 +3113,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3120,14 +3129,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>189</v>
+        <v>34</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3137,14 +3146,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>26</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3153,14 +3162,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>34</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3170,14 +3179,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3186,14 +3195,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3203,49 +3212,115 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>195</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>196</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>35</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
         <v>197</v>
       </c>
-      <c t="s" r="Q66" s="12">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>4210.835</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
         <v>198</v>
       </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>12</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>35</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
         <v>199</v>
       </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
         <v>200</v>
       </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c t="s" r="Q68" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>4340.835</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
+        <v>201</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
+        <v>202</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>203</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3554,10 +3629,20 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -92,6 +92,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t xml:space="preserve">ANTODINE20    6 AMP</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
     <t>ARYTHREX 200MG 20 CAP</t>
   </si>
   <si>
@@ -116,9 +128,6 @@
     <t>0:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>110.00</t>
   </si>
   <si>
@@ -230,6 +239,12 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
   </si>
   <si>
@@ -257,6 +272,15 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>EMETREX-N 37.55MG/ML 3 I.M./I.V. AMP.</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>4.9500</t>
+  </si>
+  <si>
     <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
@@ -458,6 +482,12 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
     <t>TAMSULIN PLUS 6/0.4MG 20 MR TABS</t>
   </si>
   <si>
@@ -536,7 +566,16 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>15.00</t>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>29:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
   </si>
   <si>
     <t>جهاز ريد</t>
@@ -548,6 +587,12 @@
     <t>140.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>42:0</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -581,7 +626,7 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>شاش فازلين 10*10 سم</t>
@@ -605,6 +650,12 @@
     <t>40.00</t>
   </si>
   <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>مان لوك كريم حلاقه</t>
   </si>
   <si>
@@ -614,7 +665,19 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 6:27 PM</t>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>37:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>Sunday, 1 June, 2025 6:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1354,21 +1417,21 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1380,7 +1443,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1397,14 +1460,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1413,28 +1476,28 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>26</v>
@@ -1446,20 +1509,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1486,7 +1549,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1503,7 +1566,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1519,7 +1582,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1536,7 +1599,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1552,7 +1615,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1569,7 +1632,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1585,7 +1648,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1595,14 +1658,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1611,14 +1674,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1628,14 +1691,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1644,14 +1707,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1661,11 +1724,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>26</v>
@@ -1677,14 +1740,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1694,11 +1757,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>26</v>
@@ -1717,7 +1780,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1734,7 +1797,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1750,7 +1813,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1767,7 +1830,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1783,7 +1846,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1793,14 +1856,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1809,14 +1872,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1849,7 +1912,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1859,11 +1922,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1875,7 +1938,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1892,11 +1955,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>26</v>
@@ -1908,14 +1971,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1925,14 +1988,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1941,14 +2004,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1958,11 +2021,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>26</v>
@@ -1974,14 +2037,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1991,14 +2054,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2007,14 +2070,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2024,14 +2087,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2040,14 +2103,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2057,11 +2120,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>26</v>
@@ -2073,14 +2136,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2090,14 +2153,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2106,14 +2169,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2123,14 +2186,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2139,31 +2202,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>108</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2172,14 +2235,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2189,14 +2252,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2205,14 +2268,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2222,14 +2285,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2238,31 +2301,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>116</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2278,7 +2341,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2311,7 +2374,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2344,7 +2407,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2354,14 +2417,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2370,14 +2433,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2387,11 +2450,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>26</v>
@@ -2403,7 +2466,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2420,14 +2483,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2436,14 +2499,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2453,14 +2516,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2469,14 +2532,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2486,11 +2549,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>26</v>
@@ -2502,14 +2565,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2519,14 +2582,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2542,24 +2605,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2568,14 +2631,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2585,14 +2648,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2608,7 +2671,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2641,13 +2704,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2658,7 +2721,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2674,7 +2737,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2684,14 +2747,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2707,7 +2770,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2724,7 +2787,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2740,7 +2803,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2750,11 +2813,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>26</v>
@@ -2766,14 +2829,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2783,14 +2846,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>155</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2799,14 +2862,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2816,14 +2879,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2832,14 +2895,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2849,14 +2912,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2865,14 +2928,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2882,11 +2945,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>26</v>
@@ -2905,7 +2968,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2915,14 +2978,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>164</v>
+        <v>24</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q57" s="12">
         <v>165</v>
-      </c>
-      <c t="s" r="Q57" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2948,14 +3011,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2964,28 +3027,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>26</v>
@@ -2997,31 +3060,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>174</v>
+        <v>54</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3030,28 +3093,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>26</v>
@@ -3063,31 +3126,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>34</v>
+        <v>177</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3096,28 +3159,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>26</v>
@@ -3129,31 +3192,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>34</v>
+        <v>184</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>88</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>188</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3162,31 +3225,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>34</v>
+        <v>186</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3195,28 +3258,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>26</v>
@@ -3228,28 +3291,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>26</v>
@@ -3261,66 +3324,330 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>197</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>104</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>29</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>198</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>199</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
         <v>200</v>
       </c>
-      <c t="s" r="Q68" s="12">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>4340.835</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>38</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>29</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
         <v>201</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
         <v>202</v>
       </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
+      <c t="s" r="Q70" s="12">
         <v>203</v>
       </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>204</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>38</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>29</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>195</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>206</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>207</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>29</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>208</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>210</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>211</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>29</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>212</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>213</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>38</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>29</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>88</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>214</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>215</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>12</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>29</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>216</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>217</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>218</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>219</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>29</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>220</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>4474.9650000000001</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
+        <v>222</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>223</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>224</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3639,10 +3966,50 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -293,6 +293,15 @@
     <t>104.0000</t>
   </si>
   <si>
+    <t>ESOMIUM 40MG 14 S.R. CAPSULES</t>
+  </si>
+  <si>
+    <t>202.00</t>
+  </si>
+  <si>
+    <t>101.0000</t>
+  </si>
+  <si>
     <t>EXTRAUMA DNA CREAM 25 GM</t>
   </si>
   <si>
@@ -677,7 +686,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 6:31 PM</t>
+    <t>Sunday, 1 June, 2025 6:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2127,7 +2136,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2160,7 +2169,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2176,7 +2185,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2193,7 +2202,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2209,7 +2218,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2219,14 +2228,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2235,14 +2244,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2259,7 +2268,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2275,7 +2284,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2285,14 +2294,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2314,18 +2323,18 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>116</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2334,31 +2343,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>119</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2374,7 +2383,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2417,11 +2426,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>26</v>
@@ -2433,14 +2442,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2450,7 +2459,7 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2473,7 +2482,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2506,7 +2515,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2516,14 +2525,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2532,14 +2541,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2549,14 +2558,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2565,14 +2574,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2582,14 +2591,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2598,14 +2607,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2615,14 +2624,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2631,14 +2640,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2648,7 +2657,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2671,7 +2680,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2704,13 +2713,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2721,7 +2730,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2737,24 +2746,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>59</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2763,14 +2772,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2780,14 +2789,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>59</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2836,7 +2845,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2846,14 +2855,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2862,14 +2871,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2879,11 +2888,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2895,14 +2904,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2912,7 +2921,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -2935,7 +2944,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2945,14 +2954,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2961,14 +2970,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2978,14 +2987,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>164</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>165</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3001,7 +3010,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>167</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3011,14 +3020,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>26</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3027,14 +3036,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3044,11 +3053,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>26</v>
@@ -3060,14 +3069,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3077,7 +3086,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3100,7 +3109,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3133,7 +3142,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3143,14 +3152,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3172,18 +3181,18 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>14</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3192,14 +3201,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3209,14 +3218,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3225,14 +3234,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3242,14 +3251,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>88</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3258,14 +3267,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3298,7 +3307,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3308,11 +3317,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>26</v>
@@ -3324,14 +3333,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>38</v>
+        <v>196</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3341,11 +3350,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>26</v>
@@ -3364,7 +3373,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3397,7 +3406,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3414,7 +3423,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>203</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3423,7 +3432,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3440,14 +3449,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>104</v>
+        <v>206</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3456,14 +3465,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>38</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3473,14 +3482,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>26</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3489,14 +3498,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3506,11 +3515,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>26</v>
@@ -3529,7 +3538,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>38</v>
+        <v>214</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3539,11 +3548,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>26</v>
@@ -3555,14 +3564,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3572,7 +3581,7 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>88</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
@@ -3595,7 +3604,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3605,49 +3614,82 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
+        <v>220</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
         <v>221</v>
       </c>
-      <c t="s" r="Q76" s="12">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>4474.9650000000001</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
         <v>222</v>
       </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>29</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
         <v>223</v>
       </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
         <v>224</v>
       </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c t="s" r="Q77" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="P78" s="13">
+        <v>4575.9650000000001</v>
+      </c>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" ht="16.5" customHeight="1">
+      <c t="s" r="A79" s="14">
+        <v>225</v>
+      </c>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c t="s" r="G79" s="15">
+        <v>226</v>
+      </c>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c t="s" r="K79" s="17">
+        <v>227</v>
+      </c>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="367">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4006,10 +4048,15 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="K79:Q79"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -686,7 +686,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 6:35 PM</t>
+    <t>Sunday, 1 June, 2025 6:36 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -65,93 +65,96 @@
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTODINE20    6 AMP</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>ARYTHREX 200MG 20 CAP</t>
+  </si>
+  <si>
+    <t>94.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
+    <t>BETADINE ANTISEPTIC SOLN. 10% 120 ML</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>BIOREST MASSAGE SPRAY</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>BRIMOSALM EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>129.0000</t>
+  </si>
+  <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>ANTODINE 20MG 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTODINE20    6 AMP</t>
-  </si>
-  <si>
-    <t>1:5</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>12.4800</t>
-  </si>
-  <si>
-    <t>ARYTHREX 200MG 20 CAP</t>
-  </si>
-  <si>
-    <t>94.00</t>
-  </si>
-  <si>
-    <t>47.0000</t>
-  </si>
-  <si>
-    <t>BETADINE ANTISEPTIC SOLN. 10% 120 ML</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>BIOREST MASSAGE SPRAY</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>BRIMOSALM EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>129.0000</t>
-  </si>
-  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -221,6 +224,9 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
+    <t>5:0</t>
+  </si>
+  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -293,6 +299,15 @@
     <t>104.0000</t>
   </si>
   <si>
+    <t>ERASTAPEX CO 10/40MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>124.50</t>
+  </si>
+  <si>
+    <t>41.0850</t>
+  </si>
+  <si>
     <t>ESOMIUM 40MG 14 S.R. CAPSULES</t>
   </si>
   <si>
@@ -410,7 +425,7 @@
     <t>114.00</t>
   </si>
   <si>
-    <t>114.0000</t>
+    <t>171.0000</t>
   </si>
   <si>
     <t>NAUSILEX 50MG/2ML I.V./I.M. 3 AMPOULES</t>
@@ -551,9 +566,6 @@
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>16.3200</t>
   </si>
   <si>
@@ -611,6 +623,9 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>رباط ضغط 10سم</t>
+  </si>
+  <si>
     <t>سائل ريد</t>
   </si>
   <si>
@@ -653,9 +668,6 @@
     <t>صابونه دوف SOAP</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>40.00</t>
   </si>
   <si>
@@ -686,7 +698,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 6:36 PM</t>
+    <t>Sunday, 1 June, 2025 7:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1608,7 +1620,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1617,7 +1629,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1634,11 +1646,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1650,7 +1662,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1667,11 +1679,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>26</v>
@@ -1683,14 +1695,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1700,14 +1712,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1716,14 +1728,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1733,11 +1745,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>26</v>
@@ -1749,14 +1761,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1766,11 +1778,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>26</v>
@@ -1782,7 +1794,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1799,11 +1811,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>26</v>
@@ -1815,14 +1827,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1832,11 +1844,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1848,14 +1860,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1865,14 +1877,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1881,14 +1893,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1898,11 +1910,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>26</v>
@@ -1914,14 +1926,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1931,11 +1943,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1947,7 +1959,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1964,11 +1976,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>26</v>
@@ -1980,7 +1992,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1997,11 +2009,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2013,7 +2025,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2030,11 +2042,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>26</v>
@@ -2046,7 +2058,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2063,11 +2075,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2079,14 +2091,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2096,11 +2108,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>26</v>
@@ -2112,7 +2124,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2129,11 +2141,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2145,7 +2157,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2162,14 +2174,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2178,7 +2190,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2195,14 +2207,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2211,14 +2223,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2228,14 +2240,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2244,14 +2256,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2261,14 +2273,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2277,14 +2289,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2294,14 +2306,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2310,14 +2322,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2327,14 +2339,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2343,31 +2355,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>119</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2376,31 +2388,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2409,14 +2421,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2426,11 +2438,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>26</v>
@@ -2442,7 +2454,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2459,11 +2471,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>26</v>
@@ -2475,14 +2487,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2492,11 +2504,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>26</v>
@@ -2508,14 +2520,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2525,11 +2537,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>26</v>
@@ -2541,14 +2553,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2558,14 +2570,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2574,14 +2586,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2591,14 +2603,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2607,14 +2619,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2624,14 +2636,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2640,14 +2652,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2657,14 +2669,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2673,7 +2685,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2690,11 +2702,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>26</v>
@@ -2706,14 +2718,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2723,11 +2735,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>26</v>
@@ -2739,31 +2751,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2772,31 +2784,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2805,14 +2817,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2822,14 +2834,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>60</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2838,7 +2850,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2855,11 +2867,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>26</v>
@@ -2871,14 +2883,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2888,14 +2900,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2904,14 +2916,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2921,11 +2933,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2937,14 +2949,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2954,11 +2966,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2970,14 +2982,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2987,14 +2999,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>98</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>99</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3003,14 +3015,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3020,14 +3032,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>168</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3036,14 +3048,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>170</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3053,14 +3065,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>26</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3069,14 +3081,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>38</v>
+        <v>175</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3086,11 +3098,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>26</v>
@@ -3102,14 +3114,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3119,11 +3131,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>26</v>
@@ -3135,14 +3147,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3152,11 +3164,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>26</v>
@@ -3168,14 +3180,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3185,14 +3197,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3201,31 +3213,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>183</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>14</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3251,14 +3263,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>88</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3267,14 +3279,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3284,14 +3296,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3307,7 +3319,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3317,11 +3329,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>26</v>
@@ -3333,14 +3345,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3350,11 +3362,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>26</v>
@@ -3366,14 +3378,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3383,11 +3395,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>26</v>
@@ -3399,14 +3411,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3416,11 +3428,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>26</v>
@@ -3432,7 +3444,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3449,14 +3461,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>206</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3465,14 +3477,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3482,14 +3494,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>107</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3498,14 +3510,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>210</v>
+        <v>38</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3515,14 +3527,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>26</v>
+        <v>211</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3531,14 +3543,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>38</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3548,14 +3560,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>26</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3564,14 +3576,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>38</v>
+        <v>215</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3581,7 +3593,7 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>88</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
@@ -3604,7 +3616,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3618,7 +3630,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>26</v>
@@ -3630,14 +3642,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>222</v>
+        <v>38</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3647,49 +3659,115 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>90</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>222</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>12</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>29</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>223</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
         <v>224</v>
       </c>
-      <c t="s" r="Q77" s="12">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="78" ht="24.75" customHeight="1">
-      <c r="P78" s="13">
-        <v>4575.9650000000001</v>
-      </c>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c t="s" r="A79" s="14">
+      <c t="s" r="Q78" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
         <v>225</v>
       </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c t="s" r="G79" s="15">
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
         <v>226</v>
       </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
-      <c t="s" r="K79" s="17">
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>29</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
         <v>227</v>
       </c>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="P80" s="13">
+        <v>4699.0500000000002</v>
+      </c>
+      <c r="Q80" s="13"/>
+    </row>
+    <row r="81" ht="16.5" customHeight="1">
+      <c t="s" r="A81" s="14">
+        <v>229</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c t="s" r="G81" s="15">
+        <v>230</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c t="s" r="K81" s="17">
+        <v>231</v>
+      </c>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="367">
+  <mergeCells count="377">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4053,10 +4131,20 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="K81:Q81"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -44,18 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
     <t>AMBEZIM-G 30 F.C. TABS.</t>
   </si>
   <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
     <t>33.6600</t>
   </si>
   <si>
@@ -89,9 +98,6 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">ANTODINE20    6 AMP</t>
   </si>
   <si>
@@ -308,6 +314,15 @@
     <t>41.0850</t>
   </si>
   <si>
+    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
     <t>ESOMIUM 40MG 14 S.R. CAPSULES</t>
   </si>
   <si>
@@ -356,6 +371,15 @@
     <t>59.0000</t>
   </si>
   <si>
+    <t>GATISTAR 0.5% OPHTH. SOLN. 5 ML</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>INCONT L.A. 4MG 30 TAB.</t>
   </si>
   <si>
@@ -368,10 +392,13 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>2:4</t>
-  </si>
-  <si>
-    <t>84.0000</t>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>204.0000</t>
+  </si>
+  <si>
+    <t>3:2</t>
   </si>
   <si>
     <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
@@ -383,9 +410,6 @@
     <t>48.0000</t>
   </si>
   <si>
-    <t>0:4</t>
-  </si>
-  <si>
     <t>MARK FAST 30 CAPSULES</t>
   </si>
   <si>
@@ -422,9 +446,6 @@
     <t>MUCOSTA 100MG 20 TAB</t>
   </si>
   <si>
-    <t>114.00</t>
-  </si>
-  <si>
     <t>171.0000</t>
   </si>
   <si>
@@ -446,9 +467,6 @@
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
-    <t>102.0000</t>
-  </si>
-  <si>
     <t>PK-MERZ 100MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -641,36 +659,36 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>30:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>شاش فازلين 10*10 سم</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
+    <t>صابونه دوف SOAP</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
     <t>40.0000</t>
   </si>
   <si>
-    <t>20:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>شاش فازلين 10*10 سم</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>7.0000</t>
-  </si>
-  <si>
-    <t>صابونه دوف SOAP</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -698,7 +716,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 7:17 PM</t>
+    <t>Sunday, 1 June, 2025 7:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1356,7 +1374,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1365,14 +1383,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1382,14 +1400,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1398,14 +1416,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1415,14 +1433,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1431,31 +1449,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1464,31 +1482,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1497,14 +1515,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1514,14 +1532,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1530,31 +1548,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1563,31 +1581,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1596,14 +1614,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1613,14 +1631,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1629,14 +1647,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1646,14 +1664,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1662,14 +1680,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1679,14 +1697,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1695,14 +1713,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1712,14 +1730,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1728,14 +1746,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1745,14 +1763,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1761,14 +1779,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1778,14 +1796,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1801,7 +1819,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1811,14 +1829,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1827,14 +1845,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1844,14 +1862,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1860,14 +1878,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1877,14 +1895,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>55</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1893,14 +1911,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1910,14 +1928,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1926,14 +1944,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1943,14 +1961,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1966,7 +1984,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1976,14 +1994,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1992,14 +2010,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2009,14 +2027,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2025,14 +2043,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2042,14 +2060,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2058,14 +2076,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2075,14 +2093,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2091,14 +2109,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2108,14 +2126,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2124,14 +2142,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2141,14 +2159,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2157,14 +2175,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2174,14 +2192,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2190,14 +2208,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2207,14 +2225,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2223,14 +2241,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2240,14 +2258,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2256,14 +2274,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2273,14 +2291,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2289,14 +2307,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2306,14 +2324,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2322,14 +2340,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2339,14 +2357,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2355,14 +2373,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2372,14 +2390,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2388,31 +2406,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>124</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2421,14 +2439,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2438,14 +2456,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2454,14 +2472,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2471,14 +2489,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>26</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2487,31 +2505,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2527,7 +2545,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2544,7 +2562,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2560,7 +2578,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2577,7 +2595,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2593,7 +2611,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2603,14 +2621,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2619,14 +2637,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2636,14 +2654,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2652,14 +2670,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2669,14 +2687,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2685,14 +2703,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2702,14 +2720,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2718,14 +2736,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2735,14 +2753,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2758,7 +2776,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2768,14 +2786,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2784,31 +2802,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2817,14 +2835,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2834,14 +2852,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2850,14 +2868,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2867,14 +2885,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2883,31 +2901,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2916,14 +2934,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2933,14 +2951,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2949,14 +2967,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2966,14 +2984,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2982,14 +3000,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2999,14 +3017,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3015,14 +3033,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3032,14 +3050,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3055,7 +3073,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3065,14 +3083,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>173</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3081,14 +3099,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>175</v>
+        <v>19</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3098,14 +3116,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3121,7 +3139,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3131,14 +3149,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3147,14 +3165,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3164,14 +3182,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>27</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>26</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3180,14 +3198,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3197,14 +3215,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3213,14 +3231,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3230,14 +3248,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3246,31 +3264,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>187</v>
+        <v>57</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3279,28 +3297,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3312,31 +3330,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>14</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3345,31 +3363,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3378,31 +3396,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>188</v>
+        <v>92</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3411,31 +3429,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>38</v>
+        <v>199</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3444,31 +3462,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3484,24 +3502,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>112</v>
+        <v>206</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3510,31 +3528,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>211</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3543,31 +3561,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>112</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3576,31 +3594,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>215</v>
+        <v>117</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3609,31 +3627,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>210</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>26</v>
+        <v>216</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3642,31 +3660,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>90</v>
+        <v>208</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>26</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3675,31 +3693,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3708,66 +3726,165 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>226</v>
+        <v>73</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
+        <v>225</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>226</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>40</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>31</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>92</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>227</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
         <v>228</v>
       </c>
-      <c t="s" r="Q79" s="12">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="80" ht="24.75" customHeight="1">
-      <c r="P80" s="13">
-        <v>4699.0500000000002</v>
-      </c>
-      <c r="Q80" s="13"/>
-    </row>
-    <row r="81" ht="16.5" customHeight="1">
-      <c t="s" r="A81" s="14">
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>17</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>31</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
         <v>229</v>
       </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c t="s" r="G81" s="15">
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
         <v>230</v>
       </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="16"/>
-      <c t="s" r="K81" s="17">
+      <c t="s" r="Q81" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
         <v>231</v>
       </c>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>232</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>31</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>233</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>234</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>5117.0500000000002</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
+        <v>235</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>236</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>237</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="377">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4141,10 +4258,25 @@
     <mergeCell ref="H79:K79"/>
     <mergeCell ref="L79:M79"/>
     <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -716,7 +716,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 7:23 PM</t>
+    <t>Sunday, 1 June, 2025 7:29 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -590,48 +590,51 @@
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
-    <t>17:0</t>
+    <t>16:0</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>29:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>جهاز ريد</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>42:0</t>
+  </si>
+  <si>
     <t>20.0000</t>
   </si>
   <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2.5 سم</t>
-  </si>
-  <si>
-    <t>29:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>جهاز ريد</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>42:0</t>
-  </si>
-  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -686,9 +689,6 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -716,7 +716,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 7:29 PM</t>
+    <t>Sunday, 1 June, 2025 7:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3387,7 +3387,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3516,7 +3516,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3528,7 +3528,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3545,11 +3545,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3594,7 +3594,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3611,11 +3611,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3644,14 +3644,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>28</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3660,7 +3660,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3677,11 +3677,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>117</v>
@@ -3693,14 +3693,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3710,11 +3710,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3726,7 +3726,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3743,11 +3743,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3854,7 +3854,7 @@
     </row>
     <row r="83" ht="24.75" customHeight="1">
       <c r="P83" s="13">
-        <v>5117.0500000000002</v>
+        <v>5137.0500000000002</v>
       </c>
       <c r="Q83" s="13"/>
     </row>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -239,6 +239,12 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>DEMAFIGHT 5 MG 30 SCORED TABS</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -464,6 +470,12 @@
     <t>37.6200</t>
   </si>
   <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
@@ -542,6 +554,15 @@
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
   </si>
   <si>
+    <t>TORSERETIC 100MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>261.00</t>
+  </si>
+  <si>
+    <t>261.0000</t>
+  </si>
+  <si>
     <t>TORSERETIC 5MG 30 TABS.</t>
   </si>
   <si>
@@ -716,7 +737,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 7:30 PM</t>
+    <t>Sunday, 1 June, 2025 7:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1951,7 +1972,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1961,11 +1982,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1977,14 +1998,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1994,14 +2015,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2017,7 +2038,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2027,14 +2048,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2043,7 +2064,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2060,14 +2081,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2076,7 +2097,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2093,14 +2114,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2109,14 +2130,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2126,14 +2147,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2142,14 +2163,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2159,14 +2180,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2175,14 +2196,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2192,14 +2213,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2208,14 +2229,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2225,14 +2246,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2241,14 +2262,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2258,14 +2279,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2274,7 +2295,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2291,14 +2312,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2307,7 +2328,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2324,14 +2345,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2340,14 +2361,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2357,14 +2378,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2373,14 +2394,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2390,14 +2411,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2406,14 +2427,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2423,11 +2444,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2439,14 +2460,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2456,14 +2477,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2472,14 +2493,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2489,14 +2510,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>129</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2505,31 +2526,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2538,31 +2559,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2571,14 +2592,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2588,11 +2609,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2604,7 +2625,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2621,7 +2642,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2644,7 +2665,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2654,11 +2675,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>58</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2670,14 +2691,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2687,14 +2708,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2710,7 +2731,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2720,14 +2741,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2736,14 +2757,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2753,14 +2774,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2776,7 +2797,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2786,14 +2807,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2809,7 +2830,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2819,14 +2840,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2835,14 +2856,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2852,14 +2873,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2875,7 +2896,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2885,11 +2906,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2901,7 +2922,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2914,18 +2935,18 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2934,14 +2955,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2951,14 +2972,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>62</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2967,31 +2988,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3000,14 +3021,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3017,14 +3038,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>62</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3033,14 +3054,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3050,14 +3071,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3066,14 +3087,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3083,14 +3104,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3106,7 +3127,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3116,11 +3137,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>19</v>
@@ -3132,7 +3153,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3149,14 +3170,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3172,7 +3193,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3182,14 +3203,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>179</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3205,7 +3226,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3215,11 +3236,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3231,7 +3252,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3248,7 +3269,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>47</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3271,7 +3292,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3281,14 +3302,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>27</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q65" s="12">
         <v>186</v>
-      </c>
-      <c t="s" r="Q65" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3304,7 +3325,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3314,11 +3335,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3330,14 +3351,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3347,14 +3368,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3363,31 +3384,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>193</v>
+        <v>57</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3396,31 +3417,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>197</v>
+        <v>40</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>92</v>
+        <v>195</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3429,31 +3450,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>199</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3462,14 +3483,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3479,14 +3500,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3495,14 +3516,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3512,14 +3533,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>194</v>
+        <v>94</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3528,14 +3549,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3545,11 +3566,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3561,14 +3582,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3578,11 +3599,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3601,7 +3622,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3611,7 +3632,7 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
@@ -3648,10 +3669,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>28</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>217</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3677,14 +3698,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>117</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3693,14 +3714,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>221</v>
+        <v>119</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3710,11 +3731,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3726,14 +3747,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3743,14 +3764,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>195</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>224</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3759,7 +3780,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3776,14 +3797,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>92</v>
+        <v>216</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3792,14 +3813,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>17</v>
+        <v>228</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3832,7 +3853,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>232</v>
+        <v>73</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3842,49 +3863,148 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>233</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>40</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>31</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>94</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
         <v>234</v>
       </c>
-      <c t="s" r="Q82" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>5137.0500000000002</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
+      <c t="s" r="Q83" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
         <v>235</v>
       </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>17</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>31</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
         <v>236</v>
       </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
         <v>237</v>
       </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c t="s" r="Q84" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>238</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>239</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>31</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>240</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>241</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="P86" s="13">
+        <v>5504.0500000000002</v>
+      </c>
+      <c r="Q86" s="13"/>
+    </row>
+    <row r="87" ht="16.5" customHeight="1">
+      <c t="s" r="A87" s="14">
+        <v>242</v>
+      </c>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c t="s" r="G87" s="15">
+        <v>243</v>
+      </c>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="16"/>
+      <c t="s" r="K87" s="17">
+        <v>244</v>
+      </c>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="407">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4273,10 +4393,25 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="K87:Q87"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -563,6 +563,18 @@
     <t>261.0000</t>
   </si>
   <si>
+    <t>TORSERETIC 20MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>-81.1800</t>
+  </si>
+  <si>
+    <t>0:-2</t>
+  </si>
+  <si>
     <t>TORSERETIC 5MG 30 TABS.</t>
   </si>
   <si>
@@ -737,7 +749,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 7:35 PM</t>
+    <t>Sunday, 1 June, 2025 7:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3302,14 +3314,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>27</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3318,14 +3330,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>188</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3335,14 +3347,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>139</v>
+        <v>27</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3351,14 +3363,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3368,11 +3380,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3384,14 +3396,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3401,11 +3413,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>192</v>
+        <v>47</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3417,14 +3429,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3434,11 +3446,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3450,14 +3462,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3467,14 +3479,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3483,31 +3495,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>200</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>201</v>
+        <v>14</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3533,11 +3545,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>94</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>17</v>
@@ -3549,14 +3561,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3566,14 +3578,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>94</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3589,7 +3601,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3599,11 +3611,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3615,14 +3627,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3632,11 +3644,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3648,14 +3660,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3665,11 +3677,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3681,7 +3693,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3698,11 +3710,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3714,14 +3726,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3731,11 +3743,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3747,14 +3759,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3764,14 +3776,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>28</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>224</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3780,7 +3792,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3797,14 +3809,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>119</v>
+        <v>228</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3813,14 +3825,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>228</v>
+        <v>40</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3830,14 +3842,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>119</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3853,7 +3865,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>73</v>
+        <v>232</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3863,11 +3875,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3879,14 +3891,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3896,11 +3908,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>94</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -3912,14 +3924,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3929,11 +3941,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>94</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -3945,14 +3957,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>239</v>
+        <v>17</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3973,38 +3985,71 @@
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
-      <c r="P86" s="13">
-        <v>5504.0500000000002</v>
-      </c>
-      <c r="Q86" s="13"/>
-    </row>
-    <row r="87" ht="16.5" customHeight="1">
-      <c t="s" r="A87" s="14">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
         <v>242</v>
       </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c t="s" r="G87" s="15">
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
         <v>243</v>
       </c>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="16"/>
-      <c t="s" r="K87" s="17">
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>31</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
         <v>244</v>
       </c>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>245</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>5422.8699999999999</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
+        <v>246</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>247</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>248</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="407">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4408,10 +4453,15 @@
     <mergeCell ref="H85:K85"/>
     <mergeCell ref="L85:M85"/>
     <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="K87:Q87"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -749,7 +749,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 7:52 PM</t>
+    <t>Sunday, 1 June, 2025 7:53 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>102.00</t>
   </si>
   <si>
@@ -62,15 +77,9 @@
     <t>AMBEZIM-G 30 F.C. TABS.</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>33.6600</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -377,6 +386,15 @@
     <t>59.0000</t>
   </si>
   <si>
+    <t>GAPTIN 300 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>GATISTAR 0.5% OPHTH. SOLN. 5 ML</t>
   </si>
   <si>
@@ -386,6 +404,15 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>INCONT L.A. 4MG 30 TAB.</t>
   </si>
   <si>
@@ -599,9 +626,6 @@
     <t>VERSERC 16MG 30 TAB</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
     <t>87.0000</t>
   </si>
   <si>
@@ -722,6 +746,15 @@
     <t>40.00</t>
   </si>
   <si>
+    <t>قياس سكر</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -749,7 +782,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 7:53 PM</t>
+    <t>Sunday, 1 June, 2025 8:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1407,7 +1440,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1416,14 +1449,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1433,14 +1466,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1449,14 +1482,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1466,14 +1499,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1482,14 +1515,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1499,14 +1532,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1515,31 +1548,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1548,31 +1581,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1588,7 +1621,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1605,7 +1638,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1621,24 +1654,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1647,20 +1680,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1671,7 +1704,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1687,7 +1720,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1704,7 +1737,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1713,14 +1746,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1730,14 +1763,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>52</v>
-      </c>
-      <c t="s" r="Q17" s="12">
-        <v>19</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1753,7 +1786,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1770,7 +1803,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1786,7 +1819,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1796,14 +1829,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1812,14 +1845,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1829,14 +1862,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1845,14 +1878,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1862,14 +1895,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1878,14 +1911,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1895,14 +1928,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1918,7 +1951,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1935,7 +1968,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1951,7 +1984,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1961,14 +1994,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1977,14 +2010,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1994,14 +2027,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2010,14 +2043,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2027,14 +2060,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2043,14 +2076,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2060,14 +2093,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2076,14 +2109,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2093,14 +2126,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2116,7 +2149,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2133,7 +2166,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2149,7 +2182,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2166,7 +2199,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2199,7 +2232,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2215,7 +2248,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2225,14 +2258,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2241,14 +2274,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2265,7 +2298,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2281,7 +2314,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2298,7 +2331,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2314,7 +2347,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2331,7 +2364,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2347,7 +2380,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2364,7 +2397,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2380,7 +2413,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2397,7 +2430,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2413,7 +2446,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2430,7 +2463,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2446,7 +2479,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2456,14 +2489,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2472,14 +2505,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2496,7 +2529,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2512,7 +2545,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2529,7 +2562,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2545,7 +2578,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2555,14 +2588,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>131</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2571,31 +2604,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>129</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2604,14 +2637,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2621,14 +2654,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2637,14 +2670,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2654,14 +2687,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>30</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q45" s="12">
         <v>140</v>
-      </c>
-      <c t="s" r="Q45" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2677,24 +2710,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2703,14 +2736,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2720,14 +2753,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2736,14 +2769,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2753,14 +2786,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2769,14 +2802,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2786,14 +2819,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2802,14 +2835,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2819,14 +2852,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2835,14 +2868,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2852,14 +2885,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>19</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2868,14 +2901,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2885,14 +2918,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2901,14 +2934,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2918,14 +2951,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2934,14 +2967,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2951,14 +2984,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2967,14 +3000,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2984,14 +3017,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3000,31 +3033,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3040,7 +3073,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3050,14 +3083,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>62</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3066,14 +3099,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3083,14 +3116,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3099,31 +3132,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3132,14 +3165,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3149,14 +3182,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>19</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3165,14 +3198,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3182,14 +3215,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3198,14 +3231,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3215,14 +3248,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3231,7 +3264,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3248,14 +3281,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>111</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3264,14 +3297,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3281,14 +3314,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3297,14 +3330,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3314,14 +3347,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>187</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3330,14 +3363,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3347,14 +3380,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>190</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3363,14 +3396,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>192</v>
+        <v>43</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3380,14 +3413,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3403,7 +3436,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3413,14 +3446,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>47</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3429,14 +3462,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3446,14 +3479,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>30</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3462,14 +3495,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>40</v>
+        <v>201</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3479,14 +3512,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3495,14 +3528,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3512,14 +3545,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3528,31 +3561,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>204</v>
+        <v>60</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3561,31 +3594,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>208</v>
+        <v>43</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>94</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3601,24 +3634,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>210</v>
+        <v>24</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3627,28 +3660,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3660,28 +3693,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>205</v>
+        <v>97</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3693,31 +3726,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>40</v>
+        <v>218</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3726,31 +3759,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>40</v>
+        <v>201</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3759,31 +3792,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>119</v>
+        <v>225</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3792,31 +3825,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>28</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>228</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3825,31 +3858,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>119</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3865,24 +3898,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>232</v>
+        <v>122</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3891,31 +3924,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>206</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3931,24 +3964,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>94</v>
+        <v>228</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>122</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3964,24 +3997,24 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>17</v>
+        <v>240</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3990,20 +4023,20 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
@@ -4011,45 +4044,177 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
+        <v>214</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
         <v>245</v>
       </c>
-      <c t="s" r="Q86" s="12">
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>43</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>34</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>246</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>247</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>248</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>43</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>34</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>97</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>249</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>250</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
         <v>12</v>
       </c>
-    </row>
-    <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>5422.8699999999999</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
-        <v>246</v>
-      </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
-        <v>247</v>
-      </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
-        <v>248</v>
-      </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>34</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>251</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>252</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>253</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>254</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>34</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>255</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>256</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>5569.1599999999999</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
+        <v>257</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>258</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>259</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4458,10 +4623,30 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -128,6 +128,15 @@
     <t>47.0000</t>
   </si>
   <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>8.1600</t>
+  </si>
+  <si>
     <t>BETADINE ANTISEPTIC SOLN. 10% 120 ML</t>
   </si>
   <si>
@@ -236,513 +245,534 @@
     <t>99.0000</t>
   </si>
   <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>DEMAFIGHT 5 MG 30 SCORED TABS</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>EMETREX-N 37.55MG/ML 3 I.M./I.V. AMP.</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>4.9500</t>
+  </si>
+  <si>
+    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>104.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 10/40MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>124.50</t>
+  </si>
+  <si>
+    <t>41.0850</t>
+  </si>
+  <si>
+    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>ESOMIUM 40MG 14 S.R. CAPSULES</t>
+  </si>
+  <si>
+    <t>202.00</t>
+  </si>
+  <si>
+    <t>101.0000</t>
+  </si>
+  <si>
+    <t>EXTRAUMA DNA CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>270.0000</t>
+  </si>
+  <si>
+    <t>FLOPADEX 8 MG 30 CAPSULES</t>
+  </si>
+  <si>
+    <t>177.00</t>
+  </si>
+  <si>
+    <t>116.8200</t>
+  </si>
+  <si>
+    <t>FORTAZEDIM 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
+    <t>GAPTIN 300 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>GATISTAR 0.5% OPHTH. SOLN. 5 ML</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>INCONT L.A. 4MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>91.50</t>
+  </si>
+  <si>
+    <t>30.1950</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>204.0000</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:22</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>MARK FAST 30 CAPSULES</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>MEGALASE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG 10 TAB.</t>
+  </si>
+  <si>
+    <t>23.50</t>
+  </si>
+  <si>
+    <t>23.5000</t>
+  </si>
+  <si>
+    <t>MUCOSTA 100MG 20 TAB</t>
+  </si>
+  <si>
+    <t>171.0000</t>
+  </si>
+  <si>
+    <t>NAUSILEX 50MG/2ML I.V./I.M. 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>NEVILOB 5 MG 21 TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>OCTATRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>PK-MERZ 100MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>RAMIXOLE 1 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
+    <t>REALCOXSTAR 90MG 14TAB</t>
+  </si>
+  <si>
+    <t>133.00</t>
+  </si>
+  <si>
+    <t>66.5000</t>
+  </si>
+  <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>95.7600</t>
+  </si>
+  <si>
+    <t>SINEMET 25/250 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>SORAL 20MG 5 SUPP.</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>TAMSULIN PLUS 6/0.4MG 20 MR TABS</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>TORSERETIC 100MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>261.00</t>
+  </si>
+  <si>
+    <t>261.0000</t>
+  </si>
+  <si>
+    <t>TORSERETIC 20MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>-81.1800</t>
+  </si>
+  <si>
+    <t>0:-2</t>
+  </si>
+  <si>
+    <t>TORSERETIC 5MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>-19.8000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>VENTOLIN EVOHALER 100MCG/ACTUATION INHALER</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>VERSERC 16MG 30 TAB</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
+    <t>VIOTIC EAR DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>16.3200</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>29:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>جهاز ريد</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>41:0</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>رباط ضغط 10سم</t>
+  </si>
+  <si>
+    <t>سائل ريد</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>30:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>شاش فازلين 10*10 سم</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
+    <t>صابونه دوف SOAP</t>
+  </si>
+  <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DEMAFIGHT 5 MG 30 SCORED TABS</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>EMETREX-N 37.55MG/ML 3 I.M./I.V. AMP.</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>4.9500</t>
-  </si>
-  <si>
-    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>104.00</t>
-  </si>
-  <si>
-    <t>104.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 10/40MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>124.50</t>
-  </si>
-  <si>
-    <t>41.0850</t>
-  </si>
-  <si>
-    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>ESOMIUM 40MG 14 S.R. CAPSULES</t>
-  </si>
-  <si>
-    <t>202.00</t>
-  </si>
-  <si>
-    <t>101.0000</t>
-  </si>
-  <si>
-    <t>EXTRAUMA DNA CREAM 25 GM</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>270.0000</t>
-  </si>
-  <si>
-    <t>FLOPADEX 8 MG 30 CAPSULES</t>
-  </si>
-  <si>
-    <t>177.00</t>
-  </si>
-  <si>
-    <t>116.8200</t>
-  </si>
-  <si>
-    <t>FORTAZEDIM 1 GM VIAL</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>59.00</t>
-  </si>
-  <si>
-    <t>59.0000</t>
-  </si>
-  <si>
-    <t>GAPTIN 300 MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>GATISTAR 0.5% OPHTH. SOLN. 5 ML</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>INCONT L.A. 4MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>91.50</t>
-  </si>
-  <si>
-    <t>30.1950</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>204.0000</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>0:22</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>MARK FAST 30 CAPSULES</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>MEGALASE SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG 10 TAB.</t>
-  </si>
-  <si>
-    <t>23.50</t>
-  </si>
-  <si>
-    <t>23.5000</t>
-  </si>
-  <si>
-    <t>MUCOSTA 100MG 20 TAB</t>
-  </si>
-  <si>
-    <t>171.0000</t>
-  </si>
-  <si>
-    <t>NAUSILEX 50MG/2ML I.V./I.M. 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>NEVILOB 5 MG 21 TAB</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>OCTATRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>OMEZ 20MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>PK-MERZ 100MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>81.0000</t>
-  </si>
-  <si>
-    <t>RAMIXOLE 1 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>159.00</t>
-  </si>
-  <si>
-    <t>159.0000</t>
-  </si>
-  <si>
-    <t>REALCOXSTAR 90MG 14TAB</t>
-  </si>
-  <si>
-    <t>133.00</t>
-  </si>
-  <si>
-    <t>66.5000</t>
-  </si>
-  <si>
-    <t>ROWATINEX 45 CAPSULES</t>
-  </si>
-  <si>
-    <t>95.7600</t>
-  </si>
-  <si>
-    <t>SINEMET 25/250 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>SORAL 20MG 5 SUPP.</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>TAMSULIN PLUS 6/0.4MG 20 MR TABS</t>
-  </si>
-  <si>
-    <t>148.00</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>TERRAMYCIN EYE OINT. 5 GM</t>
-  </si>
-  <si>
-    <t>TORSERETIC 100MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>261.00</t>
-  </si>
-  <si>
-    <t>261.0000</t>
-  </si>
-  <si>
-    <t>TORSERETIC 20MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>-81.1800</t>
-  </si>
-  <si>
-    <t>0:-2</t>
-  </si>
-  <si>
-    <t>TORSERETIC 5MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>-19.8000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>VENTOLIN EVOHALER 100MCG/ACTUATION INHALER</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>VERSERC 16MG 30 TAB</t>
-  </si>
-  <si>
-    <t>87.0000</t>
-  </si>
-  <si>
-    <t>VIOTIC EAR DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>16.3200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
-  </si>
-  <si>
-    <t>16:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2.5 سم</t>
-  </si>
-  <si>
-    <t>29:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>جهاز ريد</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>42:0</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>رباط ضغط 10سم</t>
-  </si>
-  <si>
-    <t>سائل ريد</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>30:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>شاش فازلين 10*10 سم</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>7.0000</t>
-  </si>
-  <si>
-    <t>صابونه دوف SOAP</t>
-  </si>
-  <si>
     <t>40.00</t>
   </si>
   <si>
@@ -773,16 +803,13 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>37:0</t>
+    <t>36:0</t>
   </si>
   <si>
     <t>24.00</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>Sunday, 1 June, 2025 8:16 PM</t>
+    <t>Sunday, 1 June, 2025 8:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1654,7 +1681,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1671,7 +1698,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1687,21 +1714,21 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>18</v>
@@ -1713,20 +1740,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1753,7 +1780,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1770,7 +1797,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1779,14 +1806,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1796,14 +1823,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>55</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1819,7 +1846,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1836,7 +1863,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1852,7 +1879,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1862,14 +1889,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>60</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1878,14 +1905,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1895,14 +1922,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1911,14 +1938,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1928,11 +1955,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>18</v>
@@ -1944,14 +1971,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1961,11 +1988,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>18</v>
@@ -1984,7 +2011,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2001,7 +2028,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2017,7 +2044,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2027,14 +2054,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2043,14 +2070,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2060,14 +2087,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2100,7 +2127,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2116,7 +2143,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2126,14 +2153,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2149,7 +2176,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2159,11 +2186,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>18</v>
@@ -2175,14 +2202,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2192,7 +2219,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -2248,7 +2275,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2281,7 +2308,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2291,11 +2318,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>18</v>
@@ -2307,14 +2334,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2324,11 +2351,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2340,14 +2367,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2380,7 +2407,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2413,7 +2440,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2446,7 +2473,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2463,7 +2490,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2479,7 +2506,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2496,7 +2523,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>60</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2512,7 +2539,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2522,14 +2549,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2538,14 +2565,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2555,14 +2582,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2571,14 +2598,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2611,7 +2638,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2628,7 +2655,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2644,7 +2671,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2661,7 +2688,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2677,7 +2704,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2687,14 +2714,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>140</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2703,31 +2730,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>138</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2736,14 +2763,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2753,14 +2780,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q47" s="12">
         <v>146</v>
-      </c>
-      <c t="s" r="Q47" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2776,24 +2803,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2809,7 +2836,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2819,11 +2846,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>18</v>
@@ -2835,14 +2862,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2852,11 +2879,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>18</v>
@@ -2868,7 +2895,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2885,14 +2912,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2901,14 +2928,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2918,14 +2945,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>65</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2934,14 +2961,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2951,14 +2978,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2967,14 +2994,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2984,11 +3011,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3000,14 +3027,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3017,14 +3044,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3033,14 +3060,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3050,14 +3077,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3066,14 +3093,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3083,14 +3110,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3099,14 +3126,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3116,11 +3143,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>18</v>
@@ -3132,7 +3159,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3145,18 +3172,18 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3165,14 +3192,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3182,14 +3209,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>65</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3198,31 +3225,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3231,14 +3258,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3248,14 +3275,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>68</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3264,14 +3291,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3281,14 +3308,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>25</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3297,14 +3324,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3314,14 +3341,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3330,14 +3357,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3347,11 +3374,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>25</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3363,7 +3390,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3380,14 +3407,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3396,14 +3423,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3413,14 +3440,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3429,14 +3456,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3446,14 +3473,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>119</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>196</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3469,7 +3496,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3479,14 +3506,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>30</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>199</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3502,7 +3529,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>201</v>
+        <v>29</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3512,14 +3539,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>149</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3528,14 +3555,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3545,14 +3572,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>206</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3561,14 +3588,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>60</v>
+        <v>208</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3578,11 +3605,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3594,14 +3621,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3611,11 +3638,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>53</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3627,14 +3654,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3644,14 +3671,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3660,31 +3687,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>212</v>
+        <v>46</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3693,31 +3720,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>216</v>
+        <v>24</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3726,20 +3753,20 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>218</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -3766,7 +3793,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3776,14 +3803,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3792,14 +3819,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3809,14 +3836,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>213</v>
+        <v>103</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3832,7 +3859,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>43</v>
+        <v>228</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3842,11 +3869,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -3858,14 +3885,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>43</v>
+        <v>208</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3875,11 +3902,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -3891,14 +3918,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>122</v>
+        <v>235</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3908,14 +3935,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3924,14 +3951,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3941,14 +3968,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>31</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>236</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3957,14 +3984,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3974,14 +4001,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>122</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3990,14 +4017,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>240</v>
+        <v>128</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4030,7 +4057,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4044,10 +4071,10 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>214</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>245</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4056,14 +4083,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4073,14 +4100,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4096,7 +4123,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>43</v>
+        <v>249</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4106,11 +4133,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4122,14 +4149,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>253</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4139,11 +4166,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>18</v>
@@ -4155,14 +4182,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>254</v>
+        <v>46</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4172,49 +4199,148 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>5569.1599999999999</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
-        <v>257</v>
-      </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
         <v>258</v>
       </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>46</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>34</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>103</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
         <v>259</v>
       </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+      <c t="s" r="Q91" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>260</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>12</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>34</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>261</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>262</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>263</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>264</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>34</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>265</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="P94" s="13">
+        <v>5747.4250000000002</v>
+      </c>
+      <c r="Q94" s="13"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="14">
+        <v>266</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c t="s" r="G95" s="15">
+        <v>267</v>
+      </c>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c t="s" r="K95" s="17">
+        <v>268</v>
+      </c>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="447">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4643,10 +4769,25 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="K95:Q95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -146,6 +146,15 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>BETASERC 16MG 60 TAB</t>
+  </si>
+  <si>
+    <t>219.00</t>
+  </si>
+  <si>
+    <t>72.2700</t>
+  </si>
+  <si>
     <t>BIOREST MASSAGE SPRAY</t>
   </si>
   <si>
@@ -197,6 +206,12 @@
     <t>265.0000</t>
   </si>
   <si>
+    <t>CERVITAM 20 CAPS.</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
   </si>
   <si>
@@ -524,6 +539,12 @@
     <t>56.00</t>
   </si>
   <si>
+    <t>PANAX LIFE 20 CAPSULES</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
@@ -536,6 +557,15 @@
     <t>81.0000</t>
   </si>
   <si>
+    <t>POWER B COMPLEX I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>RAMIXOLE 1 MG 30 TAB.</t>
   </si>
   <si>
@@ -746,7 +776,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>30:0</t>
+    <t>64.0000</t>
+  </si>
+  <si>
+    <t>32:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -809,7 +842,7 @@
     <t>24.00</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 8:24 PM</t>
+    <t>Sunday, 1 June, 2025 8:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1747,24 +1780,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1773,20 +1806,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1813,7 +1846,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1830,7 +1863,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1839,14 +1872,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1856,14 +1889,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>58</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1879,7 +1912,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1896,7 +1929,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1912,7 +1945,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1922,14 +1955,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>63</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1938,14 +1971,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1955,14 +1988,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1971,14 +2004,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1988,14 +2021,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2004,14 +2037,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2044,7 +2077,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2054,14 +2087,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2070,14 +2103,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2087,14 +2120,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2103,14 +2136,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2120,14 +2153,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2136,14 +2169,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2153,14 +2186,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2169,14 +2202,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2186,14 +2219,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2202,14 +2235,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2219,14 +2252,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2235,14 +2268,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2275,7 +2308,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2285,11 +2318,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2301,7 +2334,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2318,11 +2351,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>18</v>
@@ -2334,14 +2367,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2351,11 +2384,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2367,14 +2400,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2384,11 +2417,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>18</v>
@@ -2400,14 +2433,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2417,11 +2450,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2433,14 +2466,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2450,11 +2483,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>18</v>
@@ -2466,14 +2499,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2483,11 +2516,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2499,14 +2532,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2516,11 +2549,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>18</v>
@@ -2532,14 +2565,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2549,14 +2582,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2565,14 +2598,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2582,14 +2615,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>63</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2598,14 +2631,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2615,14 +2648,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2631,14 +2664,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2648,14 +2681,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2664,14 +2697,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2681,11 +2714,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>18</v>
@@ -2697,14 +2730,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2714,14 +2747,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2730,14 +2763,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2747,14 +2780,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2763,14 +2796,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2780,14 +2813,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>146</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2796,31 +2829,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>144</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2829,14 +2862,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2846,14 +2879,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2862,31 +2895,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2895,14 +2928,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2912,7 +2945,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -2935,7 +2968,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2978,14 +3011,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3001,7 +3034,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3011,14 +3044,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3027,14 +3060,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3044,14 +3077,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>118</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3060,14 +3093,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3077,11 +3110,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3093,14 +3126,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3110,14 +3143,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3126,14 +3159,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3143,14 +3176,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3159,14 +3192,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3176,14 +3209,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3192,14 +3225,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3209,7 +3242,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3238,18 +3271,18 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>19</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3258,14 +3291,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3275,14 +3308,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>68</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3291,14 +3324,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3308,14 +3341,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3324,14 +3357,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3341,11 +3374,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3357,24 +3390,24 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>25</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3397,7 +3430,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3407,14 +3440,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>151</v>
+        <v>73</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3430,7 +3463,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3447,7 +3480,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3463,7 +3496,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3473,11 +3506,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>119</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>120</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>18</v>
@@ -3489,14 +3522,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3506,14 +3539,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>25</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3522,14 +3555,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3539,14 +3572,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>203</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3555,14 +3588,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3572,14 +3605,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>30</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>206</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3588,14 +3621,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>208</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3605,11 +3638,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3621,14 +3654,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3638,11 +3671,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>53</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3654,14 +3687,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3671,14 +3704,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>213</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3687,14 +3720,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3704,14 +3737,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>30</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3720,14 +3753,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>24</v>
+        <v>218</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3737,14 +3770,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3753,14 +3786,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3770,7 +3803,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>56</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -3793,24 +3826,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>222</v>
+        <v>68</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>14</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3819,31 +3852,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>226</v>
+        <v>49</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>103</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3852,31 +3885,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>228</v>
+        <v>24</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>19</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3885,28 +3918,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>208</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -3918,14 +3951,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3935,11 +3968,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3951,14 +3984,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>46</v>
+        <v>236</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3968,14 +4001,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>108</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3984,14 +4017,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>46</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4001,11 +4034,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -4017,14 +4050,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>128</v>
+        <v>218</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4034,11 +4067,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4050,14 +4083,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>46</v>
+        <v>245</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4067,14 +4100,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>31</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>245</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4090,7 +4123,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4100,14 +4133,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>106</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4116,14 +4149,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>249</v>
+        <v>49</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4133,11 +4166,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4149,14 +4182,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>253</v>
+        <v>133</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4166,11 +4199,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>18</v>
@@ -4182,14 +4215,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4199,14 +4232,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>256</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4215,14 +4248,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4232,14 +4265,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>103</v>
+        <v>247</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4248,14 +4281,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>260</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4302,45 +4335,177 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>149</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q93" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>266</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>49</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>34</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>267</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>268</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>269</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>49</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>34</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>108</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>270</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>271</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
         <v>12</v>
       </c>
-    </row>
-    <row r="94" ht="25.5" customHeight="1">
-      <c r="P94" s="13">
-        <v>5747.4250000000002</v>
-      </c>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="14">
-        <v>266</v>
-      </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c t="s" r="G95" s="15">
-        <v>267</v>
-      </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="16"/>
-      <c t="s" r="K95" s="17">
-        <v>268</v>
-      </c>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>34</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>272</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>273</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>274</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>275</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>34</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>276</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="P98" s="13">
+        <v>5952.5349999999999</v>
+      </c>
+      <c r="Q98" s="13"/>
+    </row>
+    <row r="99" ht="16.5" customHeight="1">
+      <c t="s" r="A99" s="14">
+        <v>277</v>
+      </c>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c t="s" r="G99" s="15">
+        <v>278</v>
+      </c>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+      <c t="s" r="K99" s="17">
+        <v>279</v>
+      </c>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="447">
+  <mergeCells count="467">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4784,10 +4949,30 @@
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:M93"/>
     <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="K99:Q99"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -842,7 +842,7 @@
     <t>24.00</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 8:25 PM</t>
+    <t>Sunday, 1 June, 2025 8:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -680,6 +680,18 @@
     <t>87.0000</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>VIOTIC EAR DROPS 10 ML</t>
   </si>
   <si>
@@ -803,9 +815,6 @@
     <t>صابونه دوف SOAP</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>40.00</t>
   </si>
   <si>
@@ -842,7 +851,7 @@
     <t>24.00</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 8:26 PM</t>
+    <t>Sunday, 1 June, 2025 8:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3859,7 +3868,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>49</v>
+        <v>224</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3869,11 +3878,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -3885,14 +3894,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3902,14 +3911,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>19</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3918,14 +3927,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3935,14 +3944,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>19</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3951,20 +3960,20 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>232</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -3975,7 +3984,7 @@
         <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4001,11 +4010,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>108</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4017,14 +4026,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4034,14 +4043,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4057,7 +4066,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4067,11 +4076,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4083,14 +4092,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4100,14 +4109,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4116,14 +4125,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>49</v>
+        <v>249</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4133,14 +4142,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4149,7 +4158,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4166,11 +4175,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4182,14 +4191,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>133</v>
+        <v>49</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4199,11 +4208,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>18</v>
@@ -4215,14 +4224,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4232,14 +4241,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>256</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4265,14 +4274,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>111</v>
+        <v>260</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4281,14 +4290,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>260</v>
+        <v>49</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4298,14 +4307,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4335,7 +4344,7 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4347,14 +4356,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>49</v>
+        <v>224</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4364,11 +4373,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4397,11 +4406,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>108</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4413,14 +4422,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4430,7 +4439,7 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>108</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
@@ -4453,7 +4462,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>275</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4463,49 +4472,82 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
+        <v>276</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>277</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>278</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>34</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>279</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
         <v>154</v>
       </c>
-      <c t="s" r="Q97" s="12">
+      <c t="s" r="Q98" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="98" ht="24.75" customHeight="1">
-      <c r="P98" s="13">
-        <v>5952.5349999999999</v>
-      </c>
-      <c r="Q98" s="13"/>
-    </row>
-    <row r="99" ht="16.5" customHeight="1">
-      <c t="s" r="A99" s="14">
-        <v>277</v>
-      </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c t="s" r="G99" s="15">
-        <v>278</v>
-      </c>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="16"/>
-      <c t="s" r="K99" s="17">
-        <v>279</v>
-      </c>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>5978.5349999999999</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
+        <v>280</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>281</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>282</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="467">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4969,10 +5011,15 @@
     <mergeCell ref="H97:K97"/>
     <mergeCell ref="L97:M97"/>
     <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="K99:Q99"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -167,6 +167,18 @@
     <t>110.0000</t>
   </si>
   <si>
+    <t>BON-ONE 0.25 MCG 30 TABS.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
     <t>BRIMOSALM EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -176,6 +188,24 @@
     <t>41.0000</t>
   </si>
   <si>
+    <t>CALCIMATE 500 MG 12 CAPS.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>CARVID 6.25MG 30TAB</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>14.8500</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -239,9 +269,6 @@
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
   </si>
   <si>
@@ -323,6 +350,15 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>ELICA-M CREAM 30 GRAM</t>
   </si>
   <si>
@@ -398,6 +434,15 @@
     <t>270.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">FLAGELLAT FORTE 200MG/5ML  100ML SUSP</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
     <t>FLOPADEX 8 MG 30 CAPSULES</t>
   </si>
   <si>
@@ -542,9 +587,6 @@
     <t>PANAX LIFE 20 CAPSULES</t>
   </si>
   <si>
-    <t>70.0000</t>
-  </si>
-  <si>
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
@@ -608,6 +650,15 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>SPANIELA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -722,9 +773,6 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
     <t>40.0000</t>
   </si>
   <si>
@@ -776,21 +824,12 @@
     <t>سائل ريد</t>
   </si>
   <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>64.0000</t>
-  </si>
-  <si>
     <t>32:0</t>
   </si>
   <si>
@@ -824,9 +863,6 @@
     <t>10.00</t>
   </si>
   <si>
-    <t>10.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -851,7 +887,7 @@
     <t>24.00</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 8:33 PM</t>
+    <t>Sunday, 1 June, 2025 8:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1855,7 +1891,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1865,14 +1901,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1881,14 +1917,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1898,14 +1934,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1921,7 +1957,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1954,13 +1990,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1971,7 +2007,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1987,7 +2023,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1997,14 +2033,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2013,14 +2049,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2030,14 +2066,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2046,14 +2082,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2086,7 +2122,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2096,14 +2132,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2119,7 +2155,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2129,14 +2165,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2145,14 +2181,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2162,14 +2198,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2178,14 +2214,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2195,14 +2231,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2218,7 +2254,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2228,14 +2264,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2244,14 +2280,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2261,14 +2297,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2284,7 +2320,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2294,14 +2330,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2310,14 +2346,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2327,14 +2363,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2343,14 +2379,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2360,7 +2396,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2383,7 +2419,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2393,14 +2429,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2409,14 +2445,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2426,14 +2462,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2449,7 +2485,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2466,7 +2502,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2482,7 +2518,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2492,14 +2528,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2508,14 +2544,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2525,14 +2561,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2541,14 +2577,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2558,11 +2594,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>18</v>
@@ -2574,14 +2610,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2591,11 +2627,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2607,14 +2643,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2664,7 +2700,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2697,7 +2733,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>68</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2713,7 +2749,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>49</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2723,14 +2759,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2739,14 +2775,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2756,14 +2792,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2772,7 +2808,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2789,14 +2825,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2805,14 +2841,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2822,14 +2858,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2838,7 +2874,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2855,14 +2891,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2871,14 +2907,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2888,14 +2924,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>151</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2904,31 +2940,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>149</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2937,7 +2973,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2954,11 +2990,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>18</v>
@@ -2970,7 +3006,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2987,11 +3023,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>18</v>
@@ -3003,7 +3039,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3020,14 +3056,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3043,7 +3079,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>49</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3053,14 +3089,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>30</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3069,31 +3105,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>58</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3102,14 +3138,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3119,14 +3155,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3135,14 +3171,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3152,11 +3188,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>18</v>
@@ -3168,14 +3204,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3185,14 +3221,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3201,14 +3237,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3218,14 +3254,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3234,14 +3270,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3251,14 +3287,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3267,14 +3303,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3284,14 +3320,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>20</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3300,14 +3336,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3317,11 +3353,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>18</v>
@@ -3333,14 +3369,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>149</v>
+        <v>68</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3350,14 +3386,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3366,7 +3402,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3383,14 +3419,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3399,28 +3435,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>111</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3432,14 +3468,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3449,14 +3485,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3472,7 +3508,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3505,7 +3541,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>49</v>
+        <v>164</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3522,7 +3558,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3538,7 +3574,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3548,14 +3584,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3564,7 +3600,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3577,15 +3613,15 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3597,14 +3633,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3614,14 +3650,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>83</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3630,14 +3666,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3647,11 +3683,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>124</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3663,7 +3699,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3680,11 +3716,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>18</v>
@@ -3696,14 +3732,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3713,14 +3749,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>213</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3729,14 +3765,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3746,14 +3782,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>216</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3762,14 +3798,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>218</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3779,14 +3815,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>160</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3795,14 +3831,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3812,14 +3848,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>56</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3828,14 +3864,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3845,11 +3881,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -3861,14 +3897,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>224</v>
+        <v>49</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3901,7 +3937,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3918,7 +3954,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>230</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3927,14 +3963,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3944,14 +3980,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>233</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3960,14 +3996,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>235</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3977,11 +4013,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>174</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -3993,31 +4029,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>236</v>
+        <v>49</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>66</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4026,31 +4062,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>240</v>
+        <v>78</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>198</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4059,28 +4095,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4092,28 +4128,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>218</v>
+        <v>49</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4125,31 +4161,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>249</v>
+        <v>24</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>237</v>
+        <v>19</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4158,28 +4194,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4191,14 +4227,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>49</v>
+        <v>253</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4208,14 +4244,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>243</v>
+        <v>60</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4224,14 +4260,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>133</v>
+        <v>256</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4241,14 +4277,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>120</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4264,7 +4300,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>49</v>
+        <v>258</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4274,14 +4310,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>260</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4297,7 +4333,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>49</v>
+        <v>235</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4307,14 +4343,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>111</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4323,14 +4359,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4340,14 +4376,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>60</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4356,14 +4392,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>224</v>
+        <v>49</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4373,11 +4409,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4406,11 +4442,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4422,14 +4458,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4439,11 +4475,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
@@ -4455,14 +4491,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4472,14 +4508,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>273</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4488,14 +4524,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>278</v>
+        <v>49</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4505,49 +4541,247 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>154</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>276</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>277</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>34</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>278</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>279</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>280</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>241</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>34</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>281</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>254</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>282</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>49</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>34</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>283</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>284</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>49</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>34</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>120</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>285</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>286</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
         <v>12</v>
       </c>
-    </row>
-    <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>5978.5349999999999</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
-        <v>280</v>
-      </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
-        <v>281</v>
-      </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
-        <v>282</v>
-      </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>34</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>287</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>288</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>289</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>290</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>34</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>291</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="P105" s="13">
+        <v>6169.9549999999999</v>
+      </c>
+      <c r="Q105" s="13"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="14">
+        <v>292</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c t="s" r="G106" s="15">
+        <v>293</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c t="s" r="K106" s="17">
+        <v>294</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="502">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5016,10 +5250,40 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="K106:Q106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -197,6 +197,15 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>CALCITRON 30 CAPS.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
     <t>CARVID 6.25MG 30TAB</t>
   </si>
   <si>
@@ -755,7 +764,10 @@
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>16.3200</t>
+    <t>2:6</t>
+  </si>
+  <si>
+    <t>32.6400</t>
   </si>
   <si>
     <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
@@ -830,7 +842,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>32:0</t>
+    <t>33:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -885,6 +897,12 @@
   </si>
   <si>
     <t>24.00</t>
+  </si>
+  <si>
+    <t>معجون سيجنال 50 مل</t>
+  </si>
+  <si>
+    <t>35.00</t>
   </si>
   <si>
     <t>Sunday, 1 June, 2025 8:47 PM</t>
@@ -1990,13 +2008,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -2007,7 +2025,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2023,13 +2041,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -2040,7 +2058,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2049,14 +2067,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2066,14 +2084,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>71</v>
-      </c>
-      <c t="s" r="Q23" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2089,7 +2107,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2106,7 +2124,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2122,7 +2140,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2132,14 +2150,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2148,14 +2166,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2165,14 +2183,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2181,14 +2199,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2198,14 +2216,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2214,14 +2232,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2231,11 +2249,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>18</v>
@@ -2247,14 +2265,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2264,11 +2282,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>18</v>
@@ -2287,7 +2305,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2304,7 +2322,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2320,7 +2338,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2353,7 +2371,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2363,14 +2381,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2379,14 +2397,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2396,14 +2414,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2412,14 +2430,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2429,11 +2447,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>18</v>
@@ -2445,14 +2463,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2462,14 +2480,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2478,14 +2496,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2495,14 +2513,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2535,7 +2553,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2551,7 +2569,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2568,7 +2586,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2584,7 +2602,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2617,7 +2635,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2634,7 +2652,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2650,7 +2668,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2660,14 +2678,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2676,14 +2694,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2700,7 +2718,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2716,7 +2734,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2733,7 +2751,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2749,7 +2767,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2766,7 +2784,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2799,7 +2817,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2832,7 +2850,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>68</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2848,7 +2866,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2865,7 +2883,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2881,7 +2899,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2898,7 +2916,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>78</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2914,7 +2932,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2924,14 +2942,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2940,14 +2958,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2964,7 +2982,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2980,7 +2998,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2997,7 +3015,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3013,7 +3031,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3063,7 +3081,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3079,7 +3097,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3089,14 +3107,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>166</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3105,31 +3123,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q55" s="12">
         <v>169</v>
-      </c>
-      <c t="s" r="Q55" s="12">
-        <v>164</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3145,24 +3163,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>49</v>
+        <v>171</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>93</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3178,7 +3196,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3221,11 +3239,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>18</v>
@@ -3237,14 +3255,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3254,7 +3272,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3277,7 +3295,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3287,14 +3305,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>68</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3303,14 +3321,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3320,14 +3338,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3336,14 +3354,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3353,14 +3371,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>91</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3369,14 +3387,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3386,14 +3404,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3402,14 +3420,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3419,11 +3437,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3435,7 +3453,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3452,11 +3470,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>111</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3468,14 +3486,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3485,14 +3503,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3501,7 +3519,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3518,11 +3536,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>19</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3541,7 +3559,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3558,7 +3576,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>78</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3574,7 +3592,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3591,7 +3609,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3607,13 +3625,13 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3624,7 +3642,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3640,24 +3658,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3666,14 +3684,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3683,14 +3701,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>86</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3739,7 +3757,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3756,7 +3774,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3772,7 +3790,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3782,11 +3800,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3798,14 +3816,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3815,11 +3833,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3831,14 +3849,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3848,7 +3866,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -3871,7 +3889,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3881,14 +3899,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>136</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>137</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3897,14 +3915,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3914,11 +3932,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>139</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -3937,7 +3955,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3954,7 +3972,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>230</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3963,7 +3981,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3980,7 +3998,7 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>30</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -4003,7 +4021,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>235</v>
+        <v>29</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4013,14 +4031,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>175</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>236</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4029,14 +4047,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>49</v>
+        <v>238</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4046,11 +4064,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>66</v>
+        <v>177</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -4062,14 +4080,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4079,11 +4097,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -4095,14 +4113,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>241</v>
+        <v>81</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4112,11 +4130,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>14</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4128,14 +4146,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>49</v>
+        <v>244</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4168,7 +4186,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4178,14 +4196,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>19</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4194,14 +4212,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>251</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4211,14 +4229,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>19</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4227,31 +4245,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>253</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>60</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4260,14 +4278,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4277,11 +4295,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>212</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4293,14 +4311,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4310,14 +4328,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>123</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4333,7 +4351,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4343,11 +4361,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>18</v>
@@ -4359,14 +4377,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4376,14 +4394,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>60</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4392,14 +4410,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>49</v>
+        <v>269</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4409,14 +4427,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>60</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4425,7 +4443,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4442,11 +4460,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4458,14 +4476,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4475,11 +4493,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>114</v>
+        <v>263</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>115</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
@@ -4491,14 +4509,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4508,14 +4526,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>117</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>273</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4524,7 +4542,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4541,14 +4559,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>123</v>
+        <v>277</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4557,14 +4575,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>277</v>
+        <v>49</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4574,14 +4592,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>126</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4597,7 +4615,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4607,11 +4625,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>18</v>
@@ -4623,14 +4641,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>49</v>
+        <v>244</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4640,11 +4658,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>61</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>18</v>
@@ -4656,7 +4674,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4673,11 +4691,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>120</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
@@ -4689,14 +4707,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4706,11 +4724,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>287</v>
+        <v>123</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>18</v>
@@ -4722,14 +4740,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>290</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4743,45 +4761,111 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>169</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>293</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>294</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>34</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>295</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q105" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="105" ht="24.75" customHeight="1">
-      <c r="P105" s="13">
-        <v>6169.9549999999999</v>
-      </c>
-      <c r="Q105" s="13"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="14">
-        <v>292</v>
-      </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c t="s" r="G106" s="15">
-        <v>293</v>
-      </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="16"/>
-      <c t="s" r="K106" s="17">
-        <v>294</v>
-      </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>296</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>260</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>34</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>297</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="P107" s="13">
+        <v>6355.2749999999996</v>
+      </c>
+      <c r="Q107" s="13"/>
+    </row>
+    <row r="108" ht="16.5" customHeight="1">
+      <c t="s" r="A108" s="14">
+        <v>298</v>
+      </c>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c t="s" r="G108" s="15">
+        <v>299</v>
+      </c>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c t="s" r="K108" s="17">
+        <v>300</v>
+      </c>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="502">
+  <mergeCells count="512">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5280,10 +5364,20 @@
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="K108:Q108"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -305,6 +305,15 @@
     <t>27.2250</t>
   </si>
   <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -386,6 +395,12 @@
     <t>4.9500</t>
   </si>
   <si>
+    <t>EPICEPHIN 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
     <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
@@ -725,9 +740,6 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>VENTOLIN EVOHALER 100MCG/ACTUATION INHALER</t>
   </si>
   <si>
@@ -776,7 +788,7 @@
     <t>84.00</t>
   </si>
   <si>
-    <t>84.0000</t>
+    <t>168.0000</t>
   </si>
   <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
@@ -818,7 +830,7 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>41:0</t>
+    <t>40:0</t>
   </si>
   <si>
     <t>حبايه</t>
@@ -848,7 +860,7 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>12.0000</t>
+    <t>15.0000</t>
   </si>
   <si>
     <t>شاش فازلين 10*10 سم</t>
@@ -878,9 +890,6 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>مان لوك كريم حلاقه</t>
   </si>
   <si>
@@ -893,7 +902,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>36:0</t>
+    <t>35:0</t>
   </si>
   <si>
     <t>24.00</t>
@@ -905,7 +914,7 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 8:47 PM</t>
+    <t>Sunday, 1 June, 2025 8:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2404,7 +2413,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2414,14 +2423,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2430,14 +2439,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2447,14 +2456,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2463,14 +2472,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2480,11 +2489,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>18</v>
@@ -2496,14 +2505,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2513,14 +2522,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2529,14 +2538,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2546,14 +2555,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2586,7 +2595,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2602,7 +2611,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2619,7 +2628,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2635,7 +2644,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2668,7 +2677,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2685,7 +2694,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2701,7 +2710,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2711,14 +2720,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2727,14 +2736,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2744,14 +2753,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2760,14 +2769,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2777,11 +2786,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>18</v>
@@ -2793,7 +2802,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2810,11 +2819,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2826,14 +2835,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2843,11 +2852,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2859,7 +2868,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2876,14 +2885,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2892,14 +2901,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2909,14 +2918,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2925,14 +2934,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2942,14 +2951,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2958,14 +2967,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2975,14 +2984,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2991,14 +3000,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3008,14 +3017,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3024,14 +3033,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>49</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3041,11 +3050,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>18</v>
@@ -3057,14 +3066,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3074,14 +3083,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3090,14 +3099,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3107,14 +3116,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3123,14 +3132,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3140,14 +3149,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>169</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3156,31 +3165,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>167</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3189,14 +3198,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>49</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3206,14 +3215,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3222,31 +3231,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>93</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3255,14 +3264,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3272,7 +3281,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3295,7 +3304,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3338,14 +3347,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>71</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3361,7 +3370,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3371,14 +3380,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3387,14 +3396,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3404,14 +3413,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>138</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>94</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3420,14 +3429,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3437,11 +3446,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3453,14 +3462,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3470,14 +3479,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3486,14 +3495,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3503,11 +3512,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>115</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3519,14 +3528,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3536,14 +3545,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>19</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3552,14 +3561,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3569,14 +3578,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>117</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3585,14 +3594,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>167</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3602,14 +3611,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3618,14 +3627,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3635,11 +3644,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3651,31 +3660,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>172</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3684,14 +3693,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3701,14 +3710,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>86</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>71</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3724,13 +3733,13 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3741,7 +3750,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3757,7 +3766,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3767,14 +3776,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>86</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3783,14 +3792,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3800,14 +3809,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3816,14 +3825,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3833,14 +3842,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>25</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3866,11 +3875,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>174</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3882,14 +3891,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3899,7 +3908,7 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>25</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -3932,14 +3941,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>140</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3948,14 +3957,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3965,14 +3974,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3981,14 +3990,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3998,14 +4007,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>144</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>233</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4014,14 +4023,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4031,14 +4040,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>30</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>236</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4047,14 +4056,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4064,14 +4073,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>177</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>178</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>238</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4087,7 +4096,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4097,14 +4106,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>241</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4113,14 +4122,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4130,11 +4139,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4153,7 +4162,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>244</v>
+        <v>49</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4163,11 +4172,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>69</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>18</v>
@@ -4179,14 +4188,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4196,11 +4205,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>14</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4212,14 +4221,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4229,14 +4238,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>19</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4245,14 +4254,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4262,11 +4271,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>18</v>
@@ -4278,31 +4287,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4311,28 +4320,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>260</v>
+        <v>49</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>123</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>215</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4344,14 +4353,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4361,14 +4370,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>60</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4377,14 +4386,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4394,14 +4403,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>126</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4410,14 +4419,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4427,14 +4436,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>60</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4443,14 +4452,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4460,11 +4469,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4476,14 +4485,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>49</v>
+        <v>273</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4493,14 +4502,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>263</v>
+        <v>60</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>264</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4516,7 +4525,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>151</v>
+        <v>49</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4526,11 +4535,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>117</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>118</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4542,7 +4551,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4559,14 +4568,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>162</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>277</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4582,7 +4591,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>49</v>
+        <v>156</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4592,14 +4601,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>271</v>
+        <v>120</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>126</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4608,14 +4617,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>281</v>
+        <v>49</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4625,14 +4634,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>18</v>
+        <v>281</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4641,14 +4650,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>244</v>
+        <v>49</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4658,14 +4667,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>18</v>
+        <v>248</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4674,14 +4683,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>49</v>
+        <v>285</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4691,11 +4700,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>61</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
@@ -4714,7 +4723,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>49</v>
+        <v>248</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4724,11 +4733,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>123</v>
+        <v>289</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>18</v>
@@ -4747,7 +4756,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4761,7 +4770,7 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>292</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4773,14 +4782,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>294</v>
+        <v>49</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4790,14 +4799,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>295</v>
+        <v>126</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>172</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4806,14 +4815,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>260</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4823,49 +4832,115 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>115</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
-      <c r="P107" s="13">
-        <v>6355.2749999999996</v>
-      </c>
-      <c r="Q107" s="13"/>
-    </row>
-    <row r="108" ht="16.5" customHeight="1">
-      <c t="s" r="A108" s="14">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>296</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>297</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>34</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
         <v>298</v>
       </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c t="s" r="G108" s="15">
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
         <v>299</v>
       </c>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="16"/>
-      <c t="s" r="K108" s="17">
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>264</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>34</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
         <v>300</v>
       </c>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>6593.3000000000002</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>301</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>302</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>303</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="512">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5374,10 +5449,20 @@
     <mergeCell ref="H106:K106"/>
     <mergeCell ref="L106:M106"/>
     <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="K108:Q108"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -377,6 +377,18 @@
     <t>95.0000</t>
   </si>
   <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>-50.5000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>ELICA-M CREAM 30 GRAM</t>
   </si>
   <si>
@@ -395,6 +407,21 @@
     <t>4.9500</t>
   </si>
   <si>
+    <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>-45.0000</t>
+  </si>
+  <si>
+    <t>0:-3</t>
+  </si>
+  <si>
     <t>EPICEPHIN 1GM I.V. VIAL</t>
   </si>
   <si>
@@ -449,6 +476,15 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:6</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
@@ -506,6 +542,15 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
+  </si>
+  <si>
+    <t>288.00</t>
+  </si>
+  <si>
+    <t>11.5200</t>
+  </si>
+  <si>
     <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -527,9 +572,6 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>0:4</t>
-  </si>
-  <si>
     <t>204.0000</t>
   </si>
   <si>
@@ -584,6 +626,12 @@
     <t>171.0000</t>
   </si>
   <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>-37.6200</t>
+  </si>
+  <si>
     <t>NAUSILEX 50MG/2ML I.V./I.M. 3 AMPOULES</t>
   </si>
   <si>
@@ -656,6 +704,15 @@
     <t>95.7600</t>
   </si>
   <si>
+    <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>SINEMET 25/250 MG 20 TABS.</t>
   </si>
   <si>
@@ -683,6 +740,12 @@
     <t>12.8700</t>
   </si>
   <si>
+    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>-35.6400</t>
+  </si>
+  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -734,9 +797,6 @@
     <t>-19.8000</t>
   </si>
   <si>
-    <t>0:-1</t>
-  </si>
-  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -776,9 +836,6 @@
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>2:6</t>
-  </si>
-  <si>
     <t>32.6400</t>
   </si>
   <si>
@@ -845,6 +902,18 @@
     <t>رباط ضغط 10سم</t>
   </si>
   <si>
+    <t>ريكسونا بليه بودر دراي</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
     <t>سائل ريد</t>
   </si>
   <si>
@@ -914,7 +983,10 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 8:49 PM</t>
+    <t>مناديل مبلله كبيره</t>
+  </si>
+  <si>
+    <t>Sunday, 1 June, 2025 8:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2677,7 +2749,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2694,7 +2766,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2703,14 +2775,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2720,14 +2792,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2736,14 +2808,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2753,14 +2825,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2769,14 +2841,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2786,14 +2858,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2802,14 +2874,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2819,14 +2891,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2835,14 +2907,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2852,11 +2924,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2868,7 +2940,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2885,11 +2957,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2901,14 +2973,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2918,11 +2990,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>18</v>
@@ -2934,7 +3006,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2951,14 +3023,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2967,14 +3039,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2984,14 +3056,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3000,14 +3072,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3017,14 +3089,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>81</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3033,14 +3105,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>49</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3050,14 +3122,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3066,14 +3138,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3083,14 +3155,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3099,14 +3171,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3116,14 +3188,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3132,14 +3204,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3149,11 +3221,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>18</v>
@@ -3165,14 +3237,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3182,11 +3254,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3198,14 +3270,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>49</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3215,14 +3287,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>174</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3231,31 +3303,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3264,14 +3336,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3281,11 +3353,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>18</v>
@@ -3297,7 +3369,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3314,14 +3386,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3330,14 +3402,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3347,14 +3419,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3363,31 +3435,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>49</v>
+        <v>190</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3396,14 +3468,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3413,14 +3485,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>71</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3429,14 +3501,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3446,14 +3518,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>86</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3462,14 +3534,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3479,11 +3551,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>82</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>94</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3495,14 +3567,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3512,14 +3584,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3528,14 +3600,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3545,14 +3617,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>145</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3561,14 +3633,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3578,14 +3650,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>118</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3594,14 +3666,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3611,14 +3683,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>20</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3627,14 +3699,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3644,11 +3716,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3660,14 +3732,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>172</v>
+        <v>71</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3677,14 +3749,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3693,7 +3765,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3710,14 +3782,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3726,28 +3798,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>117</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3759,14 +3831,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3776,14 +3848,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>71</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3792,14 +3864,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3809,11 +3881,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3825,14 +3897,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>49</v>
+        <v>157</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3842,14 +3914,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3858,14 +3930,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3875,14 +3947,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3891,28 +3963,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>25</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3924,14 +3996,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3941,14 +4013,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>179</v>
+        <v>86</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3957,14 +4029,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3974,14 +4046,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3990,14 +4062,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4007,11 +4079,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>144</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>145</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -4023,7 +4095,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4040,11 +4112,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -4056,14 +4128,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4073,14 +4145,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>238</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4089,14 +4161,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4106,14 +4178,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>241</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4122,14 +4194,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4139,14 +4211,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>182</v>
+        <v>25</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>183</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4155,14 +4227,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4172,14 +4244,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>69</v>
+        <v>193</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4188,14 +4260,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4205,14 +4277,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4221,14 +4293,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>248</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4238,11 +4310,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>153</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>18</v>
@@ -4254,7 +4326,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4271,11 +4343,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>18</v>
@@ -4287,14 +4359,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>255</v>
+        <v>29</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4304,14 +4376,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>19</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>81</v>
+        <v>259</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4320,14 +4392,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4337,14 +4409,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>30</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>125</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4353,31 +4425,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>261</v>
+        <v>138</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>60</v>
+        <v>196</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4393,24 +4465,24 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>264</v>
+        <v>49</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>220</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4426,21 +4498,21 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>266</v>
+        <v>81</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>14</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4452,28 +4524,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>129</v>
+        <v>268</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4485,31 +4557,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>273</v>
+        <v>49</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>60</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>156</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4525,24 +4597,24 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>49</v>
+        <v>156</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>19</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4551,7 +4623,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4564,18 +4636,18 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4584,14 +4656,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>156</v>
+        <v>280</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4601,14 +4673,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>121</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4617,14 +4689,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>49</v>
+        <v>283</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4634,14 +4706,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>167</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>281</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4650,14 +4722,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>49</v>
+        <v>285</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4667,14 +4739,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>248</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4683,14 +4755,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>285</v>
+        <v>138</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4700,11 +4772,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
@@ -4716,14 +4788,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>248</v>
+        <v>292</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4733,14 +4805,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>289</v>
+        <v>60</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>262</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>18</v>
+        <v>168</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4749,7 +4821,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4766,11 +4838,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>61</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4782,7 +4854,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4799,11 +4871,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>126</v>
+        <v>286</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>18</v>
@@ -4815,14 +4887,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>298</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4832,11 +4904,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>18</v>
@@ -4848,14 +4920,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>297</v>
+        <v>168</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4865,14 +4937,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>298</v>
+        <v>120</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>156</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4881,14 +4953,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>264</v>
+        <v>49</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4898,49 +4970,346 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>305</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>49</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>34</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>294</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>306</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>307</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>308</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>34</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>309</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>310</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>311</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>268</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>34</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>312</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>281</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>313</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>49</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>34</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>314</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>315</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>49</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>34</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>130</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>306</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>316</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>12</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>34</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>317</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>318</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>319</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>320</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>34</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>321</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>322</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>283</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>34</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>323</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
         <v>118</v>
       </c>
-      <c t="s" r="Q108" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>6593.3000000000002</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
-        <v>301</v>
-      </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
-        <v>302</v>
-      </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
-        <v>303</v>
-      </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c t="s" r="Q116" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>324</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>140</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>34</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>238</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>239</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="P118" s="13">
+        <v>6565.6999999999998</v>
+      </c>
+      <c r="Q118" s="13"/>
+    </row>
+    <row r="119" ht="16.5" customHeight="1">
+      <c t="s" r="A119" s="14">
+        <v>325</v>
+      </c>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c t="s" r="G119" s="15">
+        <v>326</v>
+      </c>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="16"/>
+      <c t="s" r="K119" s="17">
+        <v>327</v>
+      </c>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="17"/>
+      <c r="P119" s="17"/>
+      <c r="Q119" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="567">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5459,10 +5828,55 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="K119:Q119"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -479,363 +479,381 @@
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
+    <t>71.2800</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>270.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAGELLAT FORTE 200MG/5ML  100ML SUSP</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
+    <t>FLOPADEX 8 MG 30 CAPSULES</t>
+  </si>
+  <si>
+    <t>177.00</t>
+  </si>
+  <si>
+    <t>116.8200</t>
+  </si>
+  <si>
+    <t>FORTAZEDIM 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
+    <t>GAPTIN 300 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>GATISTAR 0.5% OPHTH. SOLN. 5 ML</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
+  </si>
+  <si>
+    <t>288.00</t>
+  </si>
+  <si>
+    <t>11.5200</t>
+  </si>
+  <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>INCONT L.A. 4MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>91.50</t>
+  </si>
+  <si>
+    <t>30.1950</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>204.0000</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:22</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>MARK FAST 30 CAPSULES</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>MEGALASE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG 10 TAB.</t>
+  </si>
+  <si>
+    <t>23.50</t>
+  </si>
+  <si>
+    <t>23.5000</t>
+  </si>
+  <si>
+    <t>MUCOSTA 100MG 20 TAB</t>
+  </si>
+  <si>
+    <t>171.0000</t>
+  </si>
+  <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>-37.6200</t>
+  </si>
+  <si>
+    <t>NAUSILEX 50MG/2ML I.V./I.M. 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>NEVILOB 5 MG 21 TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>OCTATRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>PANAX LIFE 20 CAPSULES</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>PK-MERZ 100MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>POWER B COMPLEX I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>RAMIXOLE 1 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
+    <t>REALCOXSTAR 90MG 14TAB</t>
+  </si>
+  <si>
+    <t>133.00</t>
+  </si>
+  <si>
+    <t>66.5000</t>
+  </si>
+  <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>95.7600</t>
+  </si>
+  <si>
+    <t>SILDAVA 100MG 12 TABLETS</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>SINEMET 25/250 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>SORAL 20MG 5 SUPP.</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>SPANIELA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>-35.6400</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>TAMSULIN PLUS 6/0.4MG 20 MR TABS</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>TORSERETIC 100MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>261.00</t>
+  </si>
+  <si>
+    <t>261.0000</t>
+  </si>
+  <si>
+    <t>TORSERETIC 20MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>-81.1800</t>
+  </si>
+  <si>
+    <t>0:-2</t>
+  </si>
+  <si>
+    <t>TORSERETIC 5MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>-19.8000</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>VENTOLIN EVOHALER 100MCG/ACTUATION INHALER</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>VERSERC 16MG 30 TAB</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>VIOTIC EAR DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
     <t>2:6</t>
   </si>
   <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>270.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAGELLAT FORTE 200MG/5ML  100ML SUSP</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>64.0000</t>
-  </si>
-  <si>
-    <t>FLOPADEX 8 MG 30 CAPSULES</t>
-  </si>
-  <si>
-    <t>177.00</t>
-  </si>
-  <si>
-    <t>116.8200</t>
-  </si>
-  <si>
-    <t>FORTAZEDIM 1 GM VIAL</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>59.00</t>
-  </si>
-  <si>
-    <t>59.0000</t>
-  </si>
-  <si>
-    <t>GAPTIN 300 MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>GATISTAR 0.5% OPHTH. SOLN. 5 ML</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
-  </si>
-  <si>
-    <t>288.00</t>
-  </si>
-  <si>
-    <t>11.5200</t>
-  </si>
-  <si>
-    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>INCONT L.A. 4MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>91.50</t>
-  </si>
-  <si>
-    <t>30.1950</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>204.0000</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>0:22</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>MARK FAST 30 CAPSULES</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>MEGALASE SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG 10 TAB.</t>
-  </si>
-  <si>
-    <t>23.50</t>
-  </si>
-  <si>
-    <t>23.5000</t>
-  </si>
-  <si>
-    <t>MUCOSTA 100MG 20 TAB</t>
-  </si>
-  <si>
-    <t>171.0000</t>
-  </si>
-  <si>
-    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>-37.6200</t>
-  </si>
-  <si>
-    <t>NAUSILEX 50MG/2ML I.V./I.M. 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>NEVILOB 5 MG 21 TAB</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>OCTATRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>OMEZ 20MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>PANAX LIFE 20 CAPSULES</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>PK-MERZ 100MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>81.0000</t>
-  </si>
-  <si>
-    <t>POWER B COMPLEX I.M./I.V. 6 AMP</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>RAMIXOLE 1 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>159.00</t>
-  </si>
-  <si>
-    <t>159.0000</t>
-  </si>
-  <si>
-    <t>REALCOXSTAR 90MG 14TAB</t>
-  </si>
-  <si>
-    <t>133.00</t>
-  </si>
-  <si>
-    <t>66.5000</t>
-  </si>
-  <si>
-    <t>ROWATINEX 45 CAPSULES</t>
-  </si>
-  <si>
-    <t>95.7600</t>
-  </si>
-  <si>
-    <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>SINEMET 25/250 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>SORAL 20MG 5 SUPP.</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>SPANIELA MR 35MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>-35.6400</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>TAMSULIN PLUS 6/0.4MG 20 MR TABS</t>
-  </si>
-  <si>
-    <t>148.00</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>TERRAMYCIN EYE OINT. 5 GM</t>
-  </si>
-  <si>
-    <t>TORSERETIC 100MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>261.00</t>
-  </si>
-  <si>
-    <t>261.0000</t>
-  </si>
-  <si>
-    <t>TORSERETIC 20MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>-81.1800</t>
-  </si>
-  <si>
-    <t>0:-2</t>
-  </si>
-  <si>
-    <t>TORSERETIC 5MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>-19.8000</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>VENTOLIN EVOHALER 100MCG/ACTUATION INHALER</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>VERSERC 16MG 30 TAB</t>
-  </si>
-  <si>
-    <t>87.0000</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>VIOTIC EAR DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
     <t>32.6400</t>
   </si>
   <si>
@@ -986,7 +1004,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 8:58 PM</t>
+    <t>Sunday, 1 June, 2025 9:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3079,7 +3097,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3093,7 +3111,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>157</v>
@@ -3409,7 +3427,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3423,10 +3441,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3435,14 +3453,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3456,10 +3474,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>157</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3468,7 +3486,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3485,11 +3503,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3501,7 +3519,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3518,11 +3536,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>18</v>
@@ -3534,7 +3552,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3555,7 +3573,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3567,7 +3585,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3584,11 +3602,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3600,7 +3618,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3621,7 +3639,7 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>71</v>
@@ -3633,7 +3651,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3654,7 +3672,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>125</v>
@@ -3666,7 +3684,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3687,7 +3705,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3699,7 +3717,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3716,7 +3734,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3732,7 +3750,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3753,7 +3771,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3765,7 +3783,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3782,7 +3800,7 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3798,7 +3816,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3831,7 +3849,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3864,7 +3882,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3881,11 +3899,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3897,14 +3915,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3914,11 +3932,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>81</v>
@@ -3930,7 +3948,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3947,11 +3965,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3963,7 +3981,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3980,11 +3998,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3996,7 +4014,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4017,7 +4035,7 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>71</v>
@@ -4029,14 +4047,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>233</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4046,14 +4064,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>187</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4062,14 +4080,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4079,11 +4097,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -4095,7 +4113,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4112,11 +4130,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -4128,14 +4146,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4145,14 +4163,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4161,14 +4179,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4178,14 +4196,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>114</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>125</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4194,14 +4212,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4211,14 +4229,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4227,14 +4245,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4244,11 +4262,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>193</v>
+        <v>25</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4260,14 +4278,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4277,11 +4295,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>194</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4293,14 +4311,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4310,14 +4328,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>153</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>154</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4326,14 +4344,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4343,11 +4361,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>153</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>18</v>
@@ -4359,14 +4377,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4376,14 +4394,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>259</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4392,7 +4410,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4409,14 +4427,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>30</v>
+        <v>262</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>125</v>
+        <v>264</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4425,14 +4443,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4442,14 +4460,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>196</v>
+        <v>30</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>197</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>125</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4458,14 +4476,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4475,11 +4493,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>18</v>
@@ -4491,14 +4509,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4508,11 +4526,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4524,14 +4542,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>268</v>
+        <v>81</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4541,11 +4559,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>14</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4557,14 +4575,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>49</v>
+        <v>273</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4574,11 +4592,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
@@ -4590,14 +4608,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>156</v>
+        <v>49</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4607,14 +4625,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>19</v>
+        <v>277</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4623,14 +4641,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>49</v>
+        <v>280</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4640,14 +4658,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>19</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>81</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4656,28 +4674,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>280</v>
+        <v>49</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>60</v>
+        <v>283</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4689,14 +4707,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4706,11 +4724,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>239</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4722,14 +4740,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4739,14 +4757,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>286</v>
+        <v>130</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>287</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4755,14 +4773,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>138</v>
+        <v>291</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4772,11 +4790,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
@@ -4788,14 +4806,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>292</v>
+        <v>138</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4805,14 +4823,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>60</v>
+        <v>295</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>31</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>168</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4821,14 +4839,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>49</v>
+        <v>298</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4838,14 +4856,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>295</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>18</v>
+        <v>168</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4854,7 +4872,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4871,11 +4889,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>18</v>
@@ -4887,14 +4905,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>298</v>
+        <v>49</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4904,11 +4922,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>18</v>
@@ -4920,14 +4938,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>168</v>
+        <v>304</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4937,11 +4955,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>120</v>
+        <v>305</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>121</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>18</v>
@@ -4953,14 +4971,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>49</v>
+        <v>168</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4970,14 +4988,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>303</v>
+        <v>120</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>304</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4986,7 +5004,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5003,14 +5021,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>306</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>268</v>
+        <v>310</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5019,14 +5037,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>308</v>
+        <v>49</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5036,14 +5054,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>18</v>
+        <v>273</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5052,14 +5070,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>268</v>
+        <v>314</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5069,11 +5087,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>18</v>
@@ -5085,14 +5103,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>49</v>
+        <v>273</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5102,11 +5120,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>61</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>18</v>
@@ -5118,7 +5136,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5135,11 +5153,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>130</v>
+        <v>320</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>306</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>18</v>
@@ -5151,14 +5169,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5168,11 +5186,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>317</v>
+        <v>130</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>18</v>
@@ -5184,14 +5202,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>320</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5201,14 +5219,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>87</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>168</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5217,14 +5235,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>283</v>
+        <v>326</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5234,14 +5252,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>18</v>
+        <v>168</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5250,14 +5268,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>140</v>
+        <v>289</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5267,49 +5285,82 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>238</v>
+        <v>329</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>239</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
-      <c r="P118" s="13">
-        <v>6565.6999999999998</v>
-      </c>
-      <c r="Q118" s="13"/>
-    </row>
-    <row r="119" ht="16.5" customHeight="1">
-      <c t="s" r="A119" s="14">
-        <v>325</v>
-      </c>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c t="s" r="G119" s="15">
-        <v>326</v>
-      </c>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="16"/>
-      <c t="s" r="K119" s="17">
-        <v>327</v>
-      </c>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
-      <c r="O119" s="17"/>
-      <c r="P119" s="17"/>
-      <c r="Q119" s="17"/>
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>330</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>140</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>34</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>243</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>244</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="P119" s="13">
+        <v>6648.8599999999997</v>
+      </c>
+      <c r="Q119" s="13"/>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c t="s" r="A120" s="14">
+        <v>331</v>
+      </c>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c t="s" r="G120" s="15">
+        <v>332</v>
+      </c>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c t="s" r="K120" s="17">
+        <v>333</v>
+      </c>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="567">
+  <mergeCells count="572">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5873,10 +5924,15 @@
     <mergeCell ref="H117:K117"/>
     <mergeCell ref="L117:M117"/>
     <mergeCell ref="N117:O117"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="G119:I119"/>
-    <mergeCell ref="K119:Q119"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:Q120"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -524,6 +524,9 @@
     <t>59.0000</t>
   </si>
   <si>
+    <t>GANATON 50 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
     <t>GAPTIN 300 MG 30 CAPS</t>
   </si>
   <si>
@@ -590,6 +593,12 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>LUCIDRIL 500MG 20 F.C TAB</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>MARK FAST 30 CAPSULES</t>
   </si>
   <si>
@@ -785,6 +794,9 @@
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
   </si>
   <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>TORSERETIC 100MG 30 TABS.</t>
   </si>
   <si>
@@ -1004,7 +1016,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 9:02 PM</t>
+    <t>Sunday, 1 June, 2025 9:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3262,7 +3274,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3272,11 +3284,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>54</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3288,14 +3300,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3305,14 +3317,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3321,14 +3333,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>133</v>
+        <v>49</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3338,14 +3350,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3354,14 +3366,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3371,14 +3383,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3387,7 +3399,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3404,14 +3416,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3420,14 +3432,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>187</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3437,14 +3449,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>30</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>189</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3453,31 +3465,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3486,31 +3498,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>49</v>
+        <v>192</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>194</v>
+        <v>93</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3519,14 +3531,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3536,14 +3548,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3552,14 +3564,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3569,11 +3581,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3585,14 +3597,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3602,11 +3614,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3618,7 +3630,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3635,14 +3647,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>71</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3651,14 +3663,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3668,14 +3680,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>147</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>125</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3684,14 +3696,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3701,14 +3713,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3717,14 +3729,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3734,14 +3746,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>147</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>94</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3750,14 +3762,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3767,11 +3779,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3783,14 +3795,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3800,14 +3812,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3816,14 +3828,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3833,11 +3845,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>118</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3856,7 +3868,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3866,14 +3878,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>19</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3882,14 +3894,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3899,14 +3911,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>117</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3915,14 +3927,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>187</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3932,14 +3944,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>19</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3948,14 +3960,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3965,11 +3977,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3981,31 +3993,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>188</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4014,14 +4026,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4031,14 +4043,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>86</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>71</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4047,31 +4059,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>233</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>187</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4080,14 +4092,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4097,14 +4109,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>86</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4113,14 +4125,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>49</v>
+        <v>236</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4130,14 +4142,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>188</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4146,14 +4158,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4163,11 +4175,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -4179,14 +4191,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4196,14 +4208,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4212,14 +4224,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4229,14 +4241,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>114</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>125</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4245,14 +4257,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4262,11 +4274,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>25</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4278,14 +4290,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4295,14 +4307,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>194</v>
+        <v>114</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4311,14 +4323,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4328,11 +4340,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>25</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4344,7 +4356,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4361,14 +4373,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>154</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4377,14 +4389,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4394,14 +4406,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4410,14 +4422,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4427,14 +4439,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>262</v>
+        <v>153</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>264</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4443,14 +4455,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4460,14 +4472,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>30</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>125</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4476,14 +4488,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4493,14 +4505,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>197</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>198</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>268</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4509,14 +4521,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4526,14 +4538,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>18</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4542,14 +4554,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4559,11 +4571,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4582,7 +4594,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>273</v>
+        <v>49</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4592,11 +4604,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>274</v>
+        <v>69</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
@@ -4608,14 +4620,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4625,11 +4637,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>277</v>
+        <v>14</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4641,14 +4653,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4658,14 +4670,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>19</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4674,7 +4686,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4691,14 +4703,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4707,31 +4719,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>81</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4740,28 +4752,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>289</v>
+        <v>49</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>130</v>
+        <v>287</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4773,14 +4785,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4790,14 +4802,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>292</v>
+        <v>60</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4806,14 +4818,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>138</v>
+        <v>293</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4823,14 +4835,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>295</v>
+        <v>130</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>296</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4839,14 +4851,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4856,14 +4868,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>60</v>
+        <v>296</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>31</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>168</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4872,14 +4884,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4889,11 +4901,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>18</v>
@@ -4905,14 +4917,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>49</v>
+        <v>302</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4922,14 +4934,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>292</v>
+        <v>60</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>293</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>18</v>
+        <v>168</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4945,7 +4957,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>304</v>
+        <v>49</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4955,11 +4967,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>18</v>
@@ -4971,14 +4983,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>168</v>
+        <v>49</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4988,11 +5000,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>120</v>
+        <v>296</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>121</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>18</v>
@@ -5004,14 +5016,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>49</v>
+        <v>308</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5025,10 +5037,10 @@
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>182</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>310</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5044,7 +5056,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>49</v>
+        <v>168</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5054,14 +5066,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>312</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>273</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5070,14 +5082,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>314</v>
+        <v>49</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5087,14 +5099,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>316</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>18</v>
+        <v>314</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5103,14 +5115,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>273</v>
+        <v>49</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5120,14 +5132,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>18</v>
+        <v>277</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5136,14 +5148,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>49</v>
+        <v>318</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5153,11 +5165,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>61</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>18</v>
@@ -5176,7 +5188,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>49</v>
+        <v>277</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5186,11 +5198,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>130</v>
+        <v>322</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>18</v>
@@ -5202,14 +5214,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5219,11 +5231,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>324</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>18</v>
@@ -5242,7 +5254,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>326</v>
+        <v>49</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5252,14 +5264,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>327</v>
+        <v>130</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>87</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>168</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5268,14 +5280,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>289</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5285,11 +5297,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>118</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>18</v>
@@ -5301,14 +5313,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>140</v>
+        <v>330</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5318,49 +5330,115 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>243</v>
+        <v>331</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>18</v>
+        <v>168</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
-      <c r="P119" s="13">
-        <v>6648.8599999999997</v>
-      </c>
-      <c r="Q119" s="13"/>
-    </row>
-    <row r="120" ht="16.5" customHeight="1">
-      <c t="s" r="A120" s="14">
-        <v>331</v>
-      </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c t="s" r="G120" s="15">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
         <v>332</v>
       </c>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="16"/>
-      <c t="s" r="K120" s="17">
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>293</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>34</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
         <v>333</v>
       </c>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
-      <c r="Q120" s="17"/>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>334</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>140</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>34</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>246</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>247</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="P121" s="13">
+        <v>6781.5600000000004</v>
+      </c>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
+        <v>335</v>
+      </c>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
+        <v>336</v>
+      </c>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>337</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="572">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5929,10 +6007,20 @@
     <mergeCell ref="H118:K118"/>
     <mergeCell ref="L118:M118"/>
     <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:Q120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -119,6 +119,18 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>APEXIDONE 4MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>ARYTHREX 200MG 20 CAP</t>
   </si>
   <si>
@@ -158,9 +170,6 @@
     <t>BIOREST MASSAGE SPRAY</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>110.00</t>
   </si>
   <si>
@@ -332,6 +341,15 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -530,12 +548,6 @@
     <t>GAPTIN 300 MG 30 CAPS</t>
   </si>
   <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
     <t>GATISTAR 0.5% OPHTH. SOLN. 5 ML</t>
   </si>
   <si>
@@ -572,6 +584,15 @@
     <t>30.1950</t>
   </si>
   <si>
+    <t>INTEGROL 10MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>77.2200</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -617,6 +638,18 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>MEMEXA 10MG 30F.C. TAB.</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>156.4200</t>
+  </si>
+  <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
     <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
   </si>
   <si>
@@ -692,6 +725,9 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>PROCYKINOL 5MG 50 TAB SACHET</t>
+  </si>
+  <si>
     <t>RAMIXOLE 1 MG 30 TAB.</t>
   </si>
   <si>
@@ -722,9 +758,6 @@
     <t>0:6</t>
   </si>
   <si>
-    <t>144.00</t>
-  </si>
-  <si>
     <t>47.5200</t>
   </si>
   <si>
@@ -1016,7 +1049,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 9:23 PM</t>
+    <t>Sunday, 1 June, 2025 9:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1855,7 +1888,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1865,11 +1898,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1881,14 +1914,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1898,11 +1931,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1914,14 +1947,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1931,14 +1964,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1947,7 +1980,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1964,14 +1997,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1980,20 +2013,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -2004,7 +2037,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2020,24 +2053,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2046,14 +2079,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2070,7 +2103,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2086,7 +2119,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2103,7 +2136,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2119,7 +2152,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2136,7 +2169,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2152,13 +2185,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -2169,7 +2202,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2185,13 +2218,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -2202,7 +2235,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2211,14 +2244,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2228,14 +2261,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>74</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2251,7 +2284,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2268,7 +2301,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2284,7 +2317,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2294,14 +2327,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2310,14 +2343,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2327,14 +2360,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2343,14 +2376,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2360,14 +2393,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2376,14 +2409,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2393,11 +2426,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>18</v>
@@ -2409,14 +2442,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2426,11 +2459,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>18</v>
@@ -2449,7 +2482,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2466,7 +2499,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2482,7 +2515,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2515,7 +2548,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2548,7 +2581,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2558,14 +2591,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2574,14 +2607,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2591,14 +2624,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2607,14 +2640,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2624,11 +2657,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>18</v>
@@ -2640,14 +2673,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2657,14 +2690,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2680,7 +2713,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2690,11 +2723,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>18</v>
@@ -2706,14 +2739,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2723,7 +2756,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2746,7 +2779,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2779,7 +2812,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2796,7 +2829,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>125</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2805,14 +2838,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2822,11 +2855,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>18</v>
@@ -2838,14 +2871,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2855,14 +2888,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q43" s="12">
         <v>131</v>
-      </c>
-      <c t="s" r="Q43" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2878,7 +2911,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2888,14 +2921,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>136</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2904,14 +2937,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2921,14 +2954,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2937,14 +2970,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2954,14 +2987,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>142</v>
-      </c>
-      <c t="s" r="Q46" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2977,7 +3010,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2987,14 +3020,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3003,14 +3036,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3043,7 +3076,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3076,7 +3109,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3109,7 +3142,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3119,14 +3152,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3142,7 +3175,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3159,7 +3192,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>71</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3175,7 +3208,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3185,14 +3218,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q53" s="12">
         <v>163</v>
-      </c>
-      <c t="s" r="Q53" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3208,7 +3241,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3225,7 +3258,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3241,7 +3274,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3251,14 +3284,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3267,14 +3300,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3284,14 +3317,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>54</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>55</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3300,14 +3333,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3317,14 +3350,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3333,14 +3366,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3350,14 +3383,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>57</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3373,7 +3406,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3383,11 +3416,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>38</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3399,14 +3432,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3416,11 +3449,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>18</v>
@@ -3432,14 +3465,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3449,11 +3482,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3465,14 +3498,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3482,14 +3515,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>30</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>190</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3498,31 +3531,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>192</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>188</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3531,14 +3564,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3548,14 +3581,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>134</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3564,14 +3597,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>49</v>
+        <v>195</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3581,14 +3614,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>30</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3597,31 +3630,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>199</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>96</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3630,14 +3663,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3647,14 +3680,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3663,14 +3696,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3680,11 +3713,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>18</v>
@@ -3696,7 +3729,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3713,14 +3746,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>147</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>71</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3736,7 +3769,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3746,14 +3779,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>147</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>125</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3762,14 +3795,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3779,14 +3812,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3802,7 +3835,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3812,11 +3845,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3835,7 +3868,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3845,14 +3878,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>147</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3861,14 +3894,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3878,14 +3911,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>153</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>154</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3894,14 +3927,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3911,14 +3944,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3927,14 +3960,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3944,14 +3977,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>20</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3960,14 +3993,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3977,11 +4010,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3993,14 +4026,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4010,14 +4043,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>153</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4026,7 +4059,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4043,14 +4076,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4066,21 +4099,21 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>123</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4092,14 +4125,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4109,14 +4142,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>71</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4125,14 +4158,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>236</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4142,14 +4175,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>188</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4158,14 +4191,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>195</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4175,14 +4208,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4191,28 +4224,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>133</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -4224,14 +4257,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4241,11 +4274,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4257,7 +4290,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4270,15 +4303,15 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4290,14 +4323,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4307,14 +4340,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>125</v>
+        <v>74</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4323,14 +4356,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4340,14 +4373,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>195</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4356,7 +4389,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4373,14 +4406,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>197</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4389,14 +4422,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4406,14 +4439,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4422,14 +4455,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4439,14 +4472,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>153</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4455,14 +4488,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4472,14 +4505,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4488,14 +4521,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4505,14 +4538,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>120</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>268</v>
+        <v>131</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4521,14 +4554,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4538,14 +4571,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>125</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4554,14 +4587,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4571,14 +4604,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>201</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4587,14 +4620,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4604,14 +4637,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4620,14 +4653,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4637,14 +4670,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4653,14 +4686,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>277</v>
+        <v>37</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4670,11 +4703,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>18</v>
@@ -4686,14 +4719,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4703,14 +4736,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>279</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4719,14 +4752,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>284</v>
+        <v>29</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4736,14 +4769,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>81</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4752,14 +4785,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4769,14 +4802,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>287</v>
+        <v>207</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>288</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4785,31 +4818,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>290</v>
+        <v>37</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4818,31 +4851,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>293</v>
+        <v>84</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4851,28 +4884,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4884,28 +4917,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>18</v>
@@ -4917,31 +4950,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>31</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>168</v>
+        <v>84</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4950,31 +4983,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4983,14 +5016,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>49</v>
+        <v>301</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5000,14 +5033,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>296</v>
+        <v>63</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5016,14 +5049,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5033,14 +5066,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>309</v>
+        <v>136</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>310</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5049,14 +5082,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>168</v>
+        <v>306</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5066,11 +5099,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>120</v>
+        <v>307</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>121</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>18</v>
@@ -5082,14 +5115,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5099,14 +5132,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>183</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>314</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5115,14 +5148,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>49</v>
+        <v>313</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5132,14 +5165,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>304</v>
+        <v>63</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>316</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>277</v>
+        <v>174</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5148,14 +5181,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>318</v>
+        <v>37</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5165,11 +5198,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>18</v>
@@ -5181,14 +5214,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>277</v>
+        <v>37</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5198,11 +5231,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>18</v>
@@ -5214,14 +5247,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>49</v>
+        <v>319</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5231,11 +5264,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>61</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>18</v>
@@ -5247,14 +5280,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>49</v>
+        <v>174</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5264,11 +5297,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>316</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>18</v>
@@ -5280,14 +5313,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5297,14 +5330,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>328</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>18</v>
+        <v>325</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5313,14 +5346,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>330</v>
+        <v>37</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5330,14 +5363,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>87</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>168</v>
+        <v>288</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5346,14 +5379,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5363,11 +5396,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>118</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>18</v>
@@ -5379,14 +5412,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>140</v>
+        <v>288</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5396,49 +5429,247 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>246</v>
+        <v>333</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>247</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
-      <c r="P121" s="13">
-        <v>6781.5600000000004</v>
-      </c>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="14">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>334</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>37</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>34</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
         <v>335</v>
       </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c t="s" r="G122" s="15">
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
         <v>336</v>
       </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c t="s" r="K122" s="17">
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>37</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>34</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>136</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>327</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
         <v>337</v>
       </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>12</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>34</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>338</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>339</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>340</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>341</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>34</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>342</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>343</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>304</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>34</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>344</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>345</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>146</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>34</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>257</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>258</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="P127" s="13">
+        <v>7306.7799999999997</v>
+      </c>
+      <c r="Q127" s="13"/>
+    </row>
+    <row r="128" ht="16.5" customHeight="1">
+      <c t="s" r="A128" s="14">
+        <v>346</v>
+      </c>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c t="s" r="G128" s="15">
+        <v>347</v>
+      </c>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="16"/>
+      <c t="s" r="K128" s="17">
+        <v>348</v>
+      </c>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="17"/>
+      <c r="P128" s="17"/>
+      <c r="Q128" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="582">
+  <mergeCells count="612">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6017,10 +6248,40 @@
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
     <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="P127:Q127"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="K128:Q128"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -605,6 +605,15 @@
     <t>3:2</t>
   </si>
   <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
   </si>
   <si>
@@ -1049,7 +1058,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 9:26 PM</t>
+    <t>Sunday, 1 June, 2025 9:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3637,24 +3646,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>96</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>195</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3670,24 +3679,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>74</v>
+        <v>202</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>195</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3696,14 +3705,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3713,14 +3722,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3736,7 +3745,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3769,7 +3778,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3786,7 +3795,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>84</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3802,7 +3811,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3812,11 +3821,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>120</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>84</v>
@@ -3828,14 +3837,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3845,14 +3854,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3861,14 +3870,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3878,7 +3887,7 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>85</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
@@ -3901,7 +3910,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3911,14 +3920,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>153</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>74</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3927,14 +3936,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3948,10 +3957,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>131</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3960,14 +3969,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3977,14 +3986,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>89</v>
+        <v>153</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3993,14 +4002,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4010,14 +4019,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>89</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>97</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4026,14 +4035,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4043,14 +4052,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>153</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4059,14 +4068,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4076,11 +4085,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>153</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4092,7 +4101,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4109,11 +4118,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>123</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4125,14 +4134,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4142,14 +4151,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4158,7 +4167,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4175,11 +4184,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>19</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -4198,7 +4207,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>195</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4215,7 +4224,7 @@
         <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>84</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4231,24 +4240,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>37</v>
+        <v>195</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>133</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>134</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4257,28 +4266,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>133</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4297,13 +4306,13 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
@@ -4314,7 +4323,7 @@
         <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4330,24 +4339,24 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>89</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4356,14 +4365,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>248</v>
+        <v>29</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4373,14 +4382,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>195</v>
+        <v>74</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4396,7 +4405,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>251</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4406,14 +4415,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>111</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>195</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4429,7 +4438,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4495,7 +4504,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4512,7 +4521,7 @@
         <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4528,7 +4537,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4538,14 +4547,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>120</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>131</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4554,14 +4563,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4571,14 +4580,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>131</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4587,14 +4596,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4604,11 +4613,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>204</v>
+        <v>25</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4620,14 +4629,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4637,7 +4646,7 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>207</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
@@ -4660,7 +4669,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4670,14 +4679,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4686,7 +4695,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4703,14 +4712,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>274</v>
+        <v>159</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4726,7 +4735,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4743,7 +4752,7 @@
         <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>279</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4752,7 +4761,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4769,14 +4778,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>131</v>
+        <v>282</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4785,14 +4794,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>144</v>
+        <v>29</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4802,14 +4811,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>207</v>
+        <v>30</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>208</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>18</v>
+        <v>131</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4818,14 +4827,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4835,11 +4844,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>72</v>
+        <v>210</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
@@ -4851,14 +4860,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4868,11 +4877,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>18</v>
@@ -4884,14 +4893,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>288</v>
+        <v>84</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4901,11 +4910,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>289</v>
+        <v>14</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4917,14 +4926,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>37</v>
+        <v>291</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4957,7 +4966,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>295</v>
+        <v>37</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4967,14 +4976,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>19</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>84</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4990,7 +4999,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>37</v>
+        <v>298</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5000,14 +5009,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>84</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5023,17 +5032,17 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>301</v>
+        <v>37</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>63</v>
+        <v>301</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
@@ -5066,11 +5075,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>136</v>
+        <v>63</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>258</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -5082,14 +5091,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5099,14 +5108,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>307</v>
+        <v>136</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>308</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5115,14 +5124,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>144</v>
+        <v>309</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5155,7 +5164,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>313</v>
+        <v>144</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5165,14 +5174,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>63</v>
+        <v>313</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>31</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>174</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5181,14 +5190,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>37</v>
+        <v>316</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5198,14 +5207,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>315</v>
+        <v>63</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>316</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>18</v>
+        <v>174</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5231,11 +5240,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>18</v>
@@ -5247,14 +5256,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>319</v>
+        <v>37</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5264,11 +5273,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>18</v>
@@ -5280,14 +5289,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>174</v>
+        <v>322</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5297,11 +5306,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>126</v>
+        <v>323</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>127</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>18</v>
@@ -5313,14 +5322,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>37</v>
+        <v>174</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5330,14 +5339,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>324</v>
+        <v>126</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>325</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5363,14 +5372,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>327</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>288</v>
+        <v>328</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5379,14 +5388,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>329</v>
+        <v>37</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5396,14 +5405,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>18</v>
+        <v>291</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5412,14 +5421,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>288</v>
+        <v>332</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5433,7 +5442,7 @@
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>18</v>
@@ -5445,14 +5454,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>37</v>
+        <v>291</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5462,11 +5471,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>64</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>18</v>
@@ -5478,7 +5487,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5495,11 +5504,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>136</v>
+        <v>338</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>327</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>18</v>
@@ -5511,14 +5520,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5528,11 +5537,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>338</v>
+        <v>136</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>18</v>
@@ -5551,7 +5560,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>341</v>
+        <v>12</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5561,14 +5570,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>90</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>174</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5584,7 +5593,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5594,14 +5603,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>18</v>
+        <v>174</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5610,14 +5619,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>146</v>
+        <v>307</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5627,49 +5636,82 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>257</v>
+        <v>347</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>258</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
-      <c r="P127" s="13">
-        <v>7306.7799999999997</v>
-      </c>
-      <c r="Q127" s="13"/>
-    </row>
-    <row r="128" ht="16.5" customHeight="1">
-      <c t="s" r="A128" s="14">
-        <v>346</v>
-      </c>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c t="s" r="G128" s="15">
-        <v>347</v>
-      </c>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="16"/>
-      <c t="s" r="K128" s="17">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
         <v>348</v>
       </c>
-      <c r="L128" s="17"/>
-      <c r="M128" s="17"/>
-      <c r="N128" s="17"/>
-      <c r="O128" s="17"/>
-      <c r="P128" s="17"/>
-      <c r="Q128" s="17"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>146</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>34</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>260</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>261</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="P128" s="13">
+        <v>7328.7799999999997</v>
+      </c>
+      <c r="Q128" s="13"/>
+    </row>
+    <row r="129" ht="16.5" customHeight="1">
+      <c t="s" r="A129" s="14">
+        <v>349</v>
+      </c>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c t="s" r="G129" s="15">
+        <v>350</v>
+      </c>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="16"/>
+      <c t="s" r="K129" s="17">
+        <v>351</v>
+      </c>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="17"/>
+      <c r="P129" s="17"/>
+      <c r="Q129" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="612">
+  <mergeCells count="617">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6278,10 +6320,15 @@
     <mergeCell ref="H126:K126"/>
     <mergeCell ref="L126:M126"/>
     <mergeCell ref="N126:O126"/>
-    <mergeCell ref="P127:Q127"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="K128:Q128"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="K129:Q129"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -167,6 +167,18 @@
     <t>72.2700</t>
   </si>
   <si>
+    <t>BETOLVEX 1MG/ML 2 AMP</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
     <t>BIOREST MASSAGE SPRAY</t>
   </si>
   <si>
@@ -233,9 +245,6 @@
     <t>129.0000</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -362,6 +371,18 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>DEVAROL-S 200000 I.U AMPOULE</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -1058,7 +1079,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 9:46 PM</t>
+    <t>Sunday, 1 June, 2025 9:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2062,24 +2083,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2088,20 +2109,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -2112,7 +2133,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2128,7 +2149,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2138,14 +2159,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2154,14 +2175,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2171,14 +2192,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2187,14 +2208,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2204,14 +2225,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2220,31 +2241,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2253,31 +2274,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2293,7 +2314,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2310,7 +2331,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2326,7 +2347,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2343,7 +2364,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2359,7 +2380,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2369,14 +2390,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2385,14 +2406,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2402,14 +2423,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2418,14 +2439,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2435,14 +2456,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2451,14 +2472,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2468,11 +2489,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>18</v>
@@ -2484,14 +2505,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2501,11 +2522,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>18</v>
@@ -2524,7 +2545,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2541,7 +2562,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2557,7 +2578,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2590,7 +2611,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2623,7 +2644,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2633,14 +2654,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2649,14 +2670,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2666,14 +2687,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2682,7 +2703,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2699,7 +2720,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2722,7 +2743,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2732,11 +2753,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>18</v>
@@ -2748,14 +2769,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2765,14 +2786,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2781,14 +2802,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2798,11 +2819,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>18</v>
@@ -2814,14 +2835,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2831,11 +2852,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2847,14 +2868,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2864,11 +2885,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>18</v>
@@ -2880,14 +2901,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2897,14 +2918,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>131</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2920,7 +2941,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2953,7 +2974,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2970,7 +2991,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2979,14 +3000,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3003,7 +3024,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>142</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3012,14 +3033,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3029,14 +3050,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3069,7 +3090,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3078,14 +3099,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3095,14 +3116,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3118,7 +3139,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3128,11 +3149,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>18</v>
@@ -3144,7 +3165,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3161,11 +3182,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3177,14 +3198,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3194,11 +3215,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>18</v>
@@ -3210,14 +3231,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3227,14 +3248,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>163</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3243,7 +3264,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3260,14 +3281,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>74</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3276,14 +3297,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3293,14 +3314,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3309,14 +3330,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3326,14 +3347,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>84</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3342,14 +3363,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3366,7 +3387,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3382,7 +3403,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3392,14 +3413,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3408,14 +3429,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>84</v>
+        <v>181</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3425,14 +3446,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>38</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>39</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3441,14 +3462,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3458,14 +3479,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>61</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3474,14 +3495,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3491,11 +3512,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>38</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3507,14 +3528,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3524,11 +3545,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>18</v>
@@ -3540,14 +3561,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3557,11 +3578,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3573,14 +3594,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3590,14 +3611,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>84</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3606,14 +3627,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>195</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3623,14 +3644,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>30</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>197</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3646,7 +3667,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3663,7 +3684,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3685,18 +3706,18 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>195</v>
+        <v>204</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3705,14 +3726,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3722,11 +3743,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>140</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3738,31 +3759,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>37</v>
+        <v>209</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>99</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3771,14 +3792,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3788,14 +3809,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>147</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3804,7 +3825,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3821,14 +3842,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>84</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3837,14 +3858,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3854,14 +3875,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>120</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>84</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3870,14 +3891,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3887,14 +3908,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>85</v>
+        <v>220</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3903,14 +3924,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3920,14 +3941,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>127</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3936,7 +3957,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3953,14 +3974,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>74</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3969,14 +3990,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3986,14 +4007,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>153</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>131</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4002,14 +4023,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4019,14 +4040,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4035,14 +4056,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4052,14 +4073,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>160</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>97</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4068,14 +4089,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4085,11 +4106,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4101,14 +4122,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4118,14 +4139,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4134,14 +4155,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4151,11 +4172,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>124</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4167,14 +4188,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4184,14 +4205,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>19</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>20</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4200,14 +4221,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4217,14 +4238,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>130</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4233,14 +4254,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>195</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4250,14 +4271,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>19</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>84</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4266,28 +4287,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>133</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>134</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4299,14 +4320,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>202</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4316,14 +4337,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4332,14 +4353,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4349,14 +4370,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>140</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4365,14 +4386,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4382,14 +4403,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>89</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>74</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4398,31 +4419,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>251</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>111</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>195</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4431,14 +4452,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4448,14 +4469,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>92</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4464,14 +4485,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>37</v>
+        <v>258</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4481,14 +4502,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>114</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4497,14 +4518,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4514,11 +4535,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>18</v>
@@ -4530,14 +4551,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4547,14 +4568,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4563,14 +4584,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4580,14 +4601,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>120</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>131</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4596,14 +4617,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4613,11 +4634,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>25</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4629,14 +4650,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4646,14 +4667,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4662,14 +4683,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4679,11 +4700,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>25</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4695,14 +4716,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4712,14 +4733,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>159</v>
+        <v>214</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4728,14 +4749,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4745,14 +4766,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4761,14 +4782,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4778,14 +4799,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>280</v>
+        <v>166</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>282</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4801,7 +4822,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4811,14 +4832,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>30</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>131</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4827,14 +4848,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>144</v>
+        <v>29</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4844,14 +4865,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>210</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>211</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>18</v>
+        <v>289</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4860,14 +4881,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4877,14 +4898,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>18</v>
+        <v>138</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4893,14 +4914,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4910,11 +4931,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4926,14 +4947,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>291</v>
+        <v>37</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4943,11 +4964,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>292</v>
+        <v>76</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>18</v>
@@ -4959,14 +4980,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4976,7 +4997,7 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>14</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
@@ -5009,14 +5030,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>19</v>
+        <v>299</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>84</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5025,7 +5046,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5042,14 +5063,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5058,31 +5079,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5091,28 +5112,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>307</v>
+        <v>37</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>136</v>
+        <v>308</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5124,14 +5145,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5141,14 +5162,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>310</v>
+        <v>67</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5157,14 +5178,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>144</v>
+        <v>314</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5174,14 +5195,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>313</v>
+        <v>143</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>314</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5207,14 +5228,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>63</v>
+        <v>317</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>31</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>174</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5223,14 +5244,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5240,11 +5261,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>18</v>
@@ -5256,14 +5277,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>37</v>
+        <v>323</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5273,14 +5294,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>310</v>
+        <v>67</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>311</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>18</v>
+        <v>181</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5289,14 +5310,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>322</v>
+        <v>37</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5306,11 +5327,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>18</v>
@@ -5322,14 +5343,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>174</v>
+        <v>37</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5339,11 +5360,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>126</v>
+        <v>317</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>127</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>18</v>
@@ -5355,14 +5376,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>37</v>
+        <v>329</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5372,14 +5393,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>187</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>328</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5388,14 +5409,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5405,14 +5426,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>318</v>
+        <v>133</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>330</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>291</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5421,14 +5442,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>332</v>
+        <v>37</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5438,14 +5459,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>334</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>18</v>
+        <v>335</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5454,14 +5475,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>291</v>
+        <v>37</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5471,14 +5492,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>18</v>
+        <v>298</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5487,14 +5508,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>37</v>
+        <v>339</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5504,11 +5525,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>64</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>18</v>
@@ -5520,14 +5541,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>37</v>
+        <v>298</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5537,11 +5558,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>136</v>
+        <v>343</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>18</v>
@@ -5553,14 +5574,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5570,11 +5591,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>342</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>18</v>
@@ -5586,14 +5607,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>344</v>
+        <v>37</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5603,14 +5624,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>345</v>
+        <v>143</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>90</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>174</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5619,14 +5640,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>307</v>
+        <v>12</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5636,11 +5657,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>124</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>18</v>
@@ -5652,14 +5673,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>146</v>
+        <v>351</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5669,49 +5690,115 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>260</v>
+        <v>352</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>261</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>18</v>
+        <v>181</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
-      <c r="P128" s="13">
-        <v>7328.7799999999997</v>
-      </c>
-      <c r="Q128" s="13"/>
-    </row>
-    <row r="129" ht="16.5" customHeight="1">
-      <c t="s" r="A129" s="14">
-        <v>349</v>
-      </c>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c t="s" r="G129" s="15">
-        <v>350</v>
-      </c>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="16"/>
-      <c t="s" r="K129" s="17">
-        <v>351</v>
-      </c>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17"/>
-      <c r="O129" s="17"/>
-      <c r="P129" s="17"/>
-      <c r="Q129" s="17"/>
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>353</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>314</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>34</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>354</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>355</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>153</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>34</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>267</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>268</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="P130" s="13">
+        <v>7394.7799999999997</v>
+      </c>
+      <c r="Q130" s="13"/>
+    </row>
+    <row r="131" ht="16.5" customHeight="1">
+      <c t="s" r="A131" s="14">
+        <v>356</v>
+      </c>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c t="s" r="G131" s="15">
+        <v>357</v>
+      </c>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="16"/>
+      <c t="s" r="K131" s="17">
+        <v>358</v>
+      </c>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="17"/>
+      <c r="P131" s="17"/>
+      <c r="Q131" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="617">
+  <mergeCells count="627">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6325,10 +6412,20 @@
     <mergeCell ref="H127:K127"/>
     <mergeCell ref="L127:M127"/>
     <mergeCell ref="N127:O127"/>
-    <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="K129:Q129"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="P130:Q130"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="K131:Q131"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -371,6 +371,15 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>DESA 2.5MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>DEVAROL-S 200000 I.U AMPOULE</t>
   </si>
   <si>
@@ -386,7 +395,7 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>11.8800</t>
+    <t>0.0000</t>
   </si>
   <si>
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
@@ -662,10 +671,7 @@
     <t>MEGALASE SYRUP 125 ML</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
+    <t xml:space="preserve">MELASONOZ   SYRUP</t>
   </si>
   <si>
     <t>MEMEXA 10MG 30F.C. TAB.</t>
@@ -758,6 +764,15 @@
     <t>PROCYKINOL 5MG 50 TAB SACHET</t>
   </si>
   <si>
+    <t>RAME-ZITHRO 200MG/5ML SUSP. 30 ML</t>
+  </si>
+  <si>
+    <t>62.50</t>
+  </si>
+  <si>
+    <t>62.5000</t>
+  </si>
+  <si>
     <t>RAMIXOLE 1 MG 30 TAB.</t>
   </si>
   <si>
@@ -932,6 +947,18 @@
     <t>32.6400</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8706:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
   </si>
   <si>
@@ -1013,10 +1040,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>33:0</t>
+    <t>67.3200</t>
+  </si>
+  <si>
+    <t>33:1</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1061,6 +1088,12 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>مبرد قدم</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -1079,7 +1112,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 9:53 PM</t>
+    <t>Sunday, 1 June, 2025 9:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2809,7 +2842,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2819,11 +2852,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>18</v>
@@ -2835,14 +2868,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2852,14 +2885,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2868,14 +2901,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2885,14 +2918,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2925,7 +2958,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2941,7 +2974,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2958,7 +2991,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2974,7 +3007,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2991,7 +3024,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>138</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3000,14 +3033,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3017,14 +3050,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>141</v>
-      </c>
-      <c t="s" r="Q46" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3040,7 +3073,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3057,7 +3090,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3073,7 +3106,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3083,14 +3116,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>149</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3099,14 +3132,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3116,14 +3149,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3132,14 +3165,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3149,11 +3182,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>18</v>
@@ -3165,14 +3198,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3189,7 +3222,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3205,7 +3238,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3222,7 +3255,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3238,7 +3271,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3255,7 +3288,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3288,7 +3321,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3304,7 +3337,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3314,14 +3347,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>170</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3337,7 +3370,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3347,14 +3380,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q56" s="12">
         <v>173</v>
-      </c>
-      <c t="s" r="Q56" s="12">
-        <v>53</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3370,7 +3403,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3387,7 +3420,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3403,7 +3436,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3420,7 +3453,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>87</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3436,7 +3469,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>181</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3446,14 +3479,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3462,14 +3495,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3479,14 +3512,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>61</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>62</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3495,14 +3528,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3512,11 +3545,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3528,14 +3561,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3545,14 +3578,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>38</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3568,7 +3601,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3585,7 +3618,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3601,7 +3634,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3618,7 +3651,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3651,7 +3684,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3667,7 +3700,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3684,7 +3717,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3700,7 +3733,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>202</v>
+        <v>37</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3710,14 +3743,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>30</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>204</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3726,14 +3759,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>205</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3743,14 +3776,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>30</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q68" s="12">
         <v>207</v>
-      </c>
-      <c t="s" r="Q68" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3766,24 +3799,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>99</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>210</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>202</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3799,24 +3832,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>53</v>
+        <v>212</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>205</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3825,14 +3858,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3842,14 +3875,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3865,7 +3898,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3908,14 +3941,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>87</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3924,31 +3957,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>87</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3957,14 +3990,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3974,14 +4007,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>88</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3990,14 +4023,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4007,14 +4040,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>130</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4023,7 +4056,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4040,14 +4073,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>160</v>
+        <v>88</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>53</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4056,14 +4089,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4073,14 +4106,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>160</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>138</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4089,14 +4122,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4106,14 +4139,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4122,14 +4155,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4139,14 +4172,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>235</v>
+        <v>163</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>100</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4155,14 +4188,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4172,11 +4205,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4188,14 +4221,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4205,14 +4238,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4221,14 +4254,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4238,11 +4271,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>131</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4254,14 +4287,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4271,14 +4304,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>19</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4294,7 +4327,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4304,14 +4337,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>133</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4320,14 +4353,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>202</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4337,14 +4370,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>19</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>87</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4353,28 +4386,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>140</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>141</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4386,14 +4419,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>205</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4403,14 +4436,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4419,14 +4452,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4436,14 +4469,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>143</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4452,14 +4485,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4469,14 +4502,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>92</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>53</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4485,14 +4518,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>258</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4502,14 +4535,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>114</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>202</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4518,7 +4551,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4531,18 +4564,18 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4551,14 +4584,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4568,14 +4601,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>92</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4584,14 +4617,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>37</v>
+        <v>263</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4601,14 +4634,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>114</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>18</v>
+        <v>205</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4617,7 +4650,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4634,14 +4667,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4650,14 +4683,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4667,14 +4700,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>127</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>138</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4683,14 +4716,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4700,14 +4733,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>25</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4716,7 +4749,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4733,11 +4766,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>214</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4749,14 +4782,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4766,14 +4799,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>130</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4782,14 +4815,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4799,14 +4832,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>166</v>
+        <v>25</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4815,14 +4848,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4832,14 +4865,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>217</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4848,14 +4881,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4865,14 +4898,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>289</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4881,14 +4914,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4898,14 +4931,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>138</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4914,14 +4947,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>151</v>
+        <v>37</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4931,11 +4964,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>217</v>
+        <v>289</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>218</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>18</v>
@@ -4947,14 +4980,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4964,14 +4997,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>76</v>
+        <v>292</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
+        <v>293</v>
+      </c>
+      <c t="s" r="Q105" s="12">
         <v>294</v>
-      </c>
-      <c t="s" r="Q105" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4987,7 +5020,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4997,14 +5030,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>18</v>
+        <v>141</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5020,7 +5053,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>298</v>
+        <v>154</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5030,11 +5063,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>299</v>
+        <v>121</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>300</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>18</v>
@@ -5046,7 +5079,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5063,11 +5096,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>302</v>
+        <v>76</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>18</v>
@@ -5079,14 +5112,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>305</v>
+        <v>87</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5096,14 +5129,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>87</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5112,14 +5145,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>37</v>
+        <v>303</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5129,14 +5162,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5145,31 +5178,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>311</v>
+        <v>37</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>67</v>
+        <v>307</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5178,31 +5211,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5211,28 +5244,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>18</v>
@@ -5244,31 +5277,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>151</v>
+        <v>37</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5277,14 +5310,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5298,10 +5331,10 @@
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>31</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>181</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5310,14 +5343,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>37</v>
+        <v>323</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5327,14 +5360,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>325</v>
+        <v>146</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5343,14 +5376,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>37</v>
+        <v>325</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5360,11 +5393,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>18</v>
@@ -5383,7 +5416,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>329</v>
+        <v>154</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5393,11 +5426,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>18</v>
@@ -5409,14 +5442,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>181</v>
+        <v>332</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5426,14 +5459,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>18</v>
+        <v>184</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5463,10 +5496,10 @@
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>194</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>335</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5492,14 +5525,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>298</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5508,14 +5541,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5525,11 +5558,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>18</v>
@@ -5541,14 +5574,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>298</v>
+        <v>184</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5558,11 +5591,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>343</v>
+        <v>136</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>312</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>18</v>
@@ -5574,7 +5607,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5591,14 +5624,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>68</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>18</v>
+        <v>344</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5607,7 +5640,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5624,14 +5657,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>143</v>
+        <v>334</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>18</v>
+        <v>303</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5647,7 +5680,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>12</v>
+        <v>348</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5657,11 +5690,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>18</v>
@@ -5673,14 +5706,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>351</v>
+        <v>303</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5694,10 +5727,10 @@
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>93</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>181</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5713,7 +5746,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>314</v>
+        <v>37</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5727,7 +5760,7 @@
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>18</v>
@@ -5746,7 +5779,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5756,49 +5789,214 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>267</v>
+        <v>146</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>268</v>
+        <v>346</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
-      <c r="P130" s="13">
-        <v>7394.7799999999997</v>
-      </c>
-      <c r="Q130" s="13"/>
-    </row>
-    <row r="131" ht="16.5" customHeight="1">
-      <c t="s" r="A131" s="14">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
         <v>356</v>
       </c>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c t="s" r="G131" s="15">
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>12</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>34</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
         <v>357</v>
       </c>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="16"/>
-      <c t="s" r="K131" s="17">
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
         <v>358</v>
       </c>
-      <c r="L131" s="17"/>
-      <c r="M131" s="17"/>
-      <c r="N131" s="17"/>
-      <c r="O131" s="17"/>
-      <c r="P131" s="17"/>
-      <c r="Q131" s="17"/>
+      <c t="s" r="Q130" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>359</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>303</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>34</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>67</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>360</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>361</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>362</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>34</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>363</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>364</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>323</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>34</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>365</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>366</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>156</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>34</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>272</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>273</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="P135" s="13">
+        <v>7590.7200000000003</v>
+      </c>
+      <c r="Q135" s="13"/>
+    </row>
+    <row r="136" ht="16.5" customHeight="1">
+      <c t="s" r="A136" s="14">
+        <v>367</v>
+      </c>
+      <c r="B136" s="14"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c t="s" r="G136" s="15">
+        <v>368</v>
+      </c>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="16"/>
+      <c t="s" r="K136" s="17">
+        <v>369</v>
+      </c>
+      <c r="L136" s="17"/>
+      <c r="M136" s="17"/>
+      <c r="N136" s="17"/>
+      <c r="O136" s="17"/>
+      <c r="P136" s="17"/>
+      <c r="Q136" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="627">
+  <mergeCells count="652">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6422,10 +6620,35 @@
     <mergeCell ref="H129:K129"/>
     <mergeCell ref="L129:M129"/>
     <mergeCell ref="N129:O129"/>
-    <mergeCell ref="P130:Q130"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="K131:Q131"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="G136:I136"/>
+    <mergeCell ref="K136:Q136"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -626,33 +626,33 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
+    <t>228.0000</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:22</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>0:4</t>
   </si>
   <si>
-    <t>204.0000</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>LARYPRO 20 LOZENGES</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>0:22</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
     <t>LUCIDRIL 500MG 20 F.C TAB</t>
   </si>
   <si>
@@ -1040,10 +1040,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>67.3200</t>
-  </si>
-  <si>
-    <t>33:1</t>
+    <t>77.3200</t>
+  </si>
+  <si>
+    <t>38:1</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -3766,7 +3766,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>205</v>
+        <v>87</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3780,10 +3780,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q68" s="12">
         <v>206</v>
-      </c>
-      <c t="s" r="Q68" s="12">
-        <v>207</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3792,7 +3792,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3809,11 +3809,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3825,14 +3825,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3846,10 +3846,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
+        <v>212</v>
+      </c>
+      <c t="s" r="Q70" s="12">
         <v>213</v>
-      </c>
-      <c t="s" r="Q70" s="12">
-        <v>205</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -4426,7 +4426,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4641,7 +4641,7 @@
         <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -5966,7 +5966,7 @@
     </row>
     <row r="135" ht="24.75" customHeight="1">
       <c r="P135" s="13">
-        <v>7590.7200000000003</v>
+        <v>7624.7200000000003</v>
       </c>
       <c r="Q135" s="13"/>
     </row>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -1016,7 +1016,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>رباط ضغط 10سم</t>
@@ -1040,10 +1040,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>77.3200</t>
-  </si>
-  <si>
-    <t>38:1</t>
+    <t>87.3200</t>
+  </si>
+  <si>
+    <t>43:1</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1112,7 +1112,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 9:59 PM</t>
+    <t>Sunday, 1 June, 2025 10:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5499,7 +5499,7 @@
         <v>335</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>18</v>
+        <v>184</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5966,7 +5966,7 @@
     </row>
     <row r="135" ht="24.75" customHeight="1">
       <c r="P135" s="13">
-        <v>7624.7200000000003</v>
+        <v>7640.7200000000003</v>
       </c>
       <c r="Q135" s="13"/>
     </row>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -3766,7 +3766,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -527,6 +527,9 @@
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
+    <t>0:6</t>
+  </si>
+  <si>
     <t>71.2800</t>
   </si>
   <si>
@@ -701,6 +704,15 @@
     <t>23.5000</t>
   </si>
   <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>MUCOSTA 100MG 20 TAB</t>
   </si>
   <si>
@@ -800,7 +812,7 @@
     <t>SILDAVA 100MG 12 TABLETS</t>
   </si>
   <si>
-    <t>0:6</t>
+    <t>0:10</t>
   </si>
   <si>
     <t>47.5200</t>
@@ -836,9 +848,6 @@
     <t>SPANIELA MR 35MG 30 F.C. TAB.</t>
   </si>
   <si>
-    <t>39.00</t>
-  </si>
-  <si>
     <t>12.8700</t>
   </si>
   <si>
@@ -851,9 +860,6 @@
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
-    <t>25.7400</t>
-  </si>
-  <si>
     <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
   </si>
   <si>
@@ -902,6 +908,15 @@
     <t>-19.8000</t>
   </si>
   <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -1040,10 +1055,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>87.3200</t>
-  </si>
-  <si>
-    <t>43:1</t>
+    <t>91.3200</t>
+  </si>
+  <si>
+    <t>45:1</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1112,7 +1127,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 10:02 PM</t>
+    <t>Sunday, 1 June, 2025 10:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3370,7 +3385,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3384,10 +3399,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3396,7 +3411,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3413,11 +3428,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>53</v>
@@ -3429,7 +3444,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3446,11 +3461,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3462,7 +3477,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3479,11 +3494,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>87</v>
@@ -3495,14 +3510,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3512,11 +3527,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>18</v>
@@ -3528,7 +3543,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3561,7 +3576,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3594,7 +3609,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3611,11 +3626,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>18</v>
@@ -3627,7 +3642,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3644,11 +3659,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3660,7 +3675,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3677,11 +3692,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>18</v>
@@ -3693,7 +3708,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3710,11 +3725,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3726,7 +3741,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3743,11 +3758,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>87</v>
@@ -3759,7 +3774,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3780,10 +3795,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3792,7 +3807,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3809,11 +3824,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3825,14 +3840,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3846,10 +3861,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3858,7 +3873,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3879,7 +3894,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3891,7 +3906,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3908,11 +3923,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3924,7 +3939,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3945,7 +3960,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3957,7 +3972,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3990,7 +4005,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -4007,11 +4022,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>87</v>
@@ -4023,7 +4038,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4044,7 +4059,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>87</v>
@@ -4056,7 +4071,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4077,7 +4092,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -4089,7 +4104,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4106,11 +4121,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -4122,14 +4137,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>185</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4139,14 +4154,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>163</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>53</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4155,14 +4170,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4176,10 +4191,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>141</v>
+        <v>53</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4188,14 +4203,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4205,14 +4220,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4221,14 +4236,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4238,14 +4253,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>92</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>100</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4254,14 +4269,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4271,14 +4286,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>163</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4287,14 +4302,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4304,11 +4319,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>163</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>170</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4320,7 +4335,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4337,11 +4352,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>133</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4353,14 +4368,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4370,14 +4385,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4386,7 +4401,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4403,11 +4418,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>19</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4419,14 +4434,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>213</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4436,14 +4451,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>87</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4452,31 +4467,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>37</v>
+        <v>214</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>143</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>144</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4485,7 +4500,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4498,15 +4513,15 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>143</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4518,14 +4533,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4535,11 +4550,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>18</v>
@@ -4551,31 +4566,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4584,31 +4599,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>92</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4617,14 +4632,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>263</v>
+        <v>29</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4634,14 +4649,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>213</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4650,14 +4665,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>267</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4667,14 +4682,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>114</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>18</v>
+        <v>214</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4683,14 +4698,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4700,11 +4715,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
@@ -4716,7 +4731,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4733,11 +4748,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4749,14 +4764,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4766,14 +4781,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4782,14 +4797,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4799,14 +4814,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>130</v>
+        <v>232</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>141</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4815,14 +4830,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4832,14 +4847,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>141</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4848,14 +4863,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4865,11 +4880,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>217</v>
+        <v>25</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4888,7 +4903,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4898,11 +4913,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>284</v>
+        <v>218</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4914,14 +4929,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4931,14 +4946,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>169</v>
+        <v>286</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4964,14 +4979,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>289</v>
+        <v>169</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4980,14 +4995,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4997,14 +5012,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>294</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5013,7 +5028,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -5030,14 +5045,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>30</v>
+        <v>294</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
+        <v>295</v>
+      </c>
+      <c t="s" r="Q106" s="12">
         <v>296</v>
-      </c>
-      <c t="s" r="Q106" s="12">
-        <v>141</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5053,7 +5068,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>154</v>
+        <v>29</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5063,14 +5078,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>122</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>18</v>
+        <v>141</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5079,14 +5094,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5096,11 +5111,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>76</v>
+        <v>300</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>18</v>
@@ -5112,14 +5127,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5129,11 +5144,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>301</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>18</v>
@@ -5145,14 +5160,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>303</v>
+        <v>37</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5162,11 +5177,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>304</v>
+        <v>76</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>18</v>
@@ -5178,14 +5193,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5195,11 +5210,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>307</v>
+        <v>14</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>18</v>
@@ -5211,14 +5226,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5228,14 +5243,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>19</v>
+        <v>309</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>87</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5244,14 +5259,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>313</v>
+        <v>37</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5261,11 +5276,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>18</v>
@@ -5277,14 +5292,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>37</v>
+        <v>315</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5294,14 +5309,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>317</v>
+        <v>19</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5310,31 +5325,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>67</v>
+        <v>319</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5343,28 +5358,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>323</v>
+        <v>37</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>146</v>
+        <v>322</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>273</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5393,14 +5408,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>326</v>
+        <v>67</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5409,14 +5424,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>154</v>
+        <v>328</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5426,14 +5441,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>329</v>
+        <v>146</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>330</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5442,14 +5457,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5459,14 +5474,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>67</v>
+        <v>331</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>31</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>184</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5482,7 +5497,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5499,7 +5514,7 @@
         <v>335</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>184</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5515,7 +5530,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>37</v>
+        <v>337</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5525,14 +5540,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>326</v>
+        <v>67</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>327</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>18</v>
+        <v>185</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5541,14 +5556,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>338</v>
+        <v>37</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5565,7 +5580,7 @@
         <v>340</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>18</v>
+        <v>185</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5581,7 +5596,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>184</v>
+        <v>37</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5591,11 +5606,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>136</v>
+        <v>331</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>137</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>18</v>
@@ -5614,7 +5629,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>37</v>
+        <v>343</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5624,14 +5639,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>344</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5640,14 +5655,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>37</v>
+        <v>185</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5657,14 +5672,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>334</v>
+        <v>136</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>346</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>303</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5680,7 +5695,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>348</v>
+        <v>37</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5690,14 +5705,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>349</v>
+        <v>319</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>18</v>
+        <v>349</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5706,14 +5721,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>303</v>
+        <v>37</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5723,14 +5738,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>18</v>
+        <v>308</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5739,14 +5754,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>37</v>
+        <v>353</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5760,7 +5775,7 @@
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>68</v>
+        <v>355</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>18</v>
@@ -5772,14 +5787,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>37</v>
+        <v>308</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5789,11 +5804,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>146</v>
+        <v>357</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>18</v>
@@ -5805,14 +5820,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5822,11 +5837,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>358</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>18</v>
@@ -5838,14 +5853,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>303</v>
+        <v>37</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5855,11 +5870,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>18</v>
@@ -5878,7 +5893,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>362</v>
+        <v>12</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5888,14 +5903,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>93</v>
+        <v>363</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>184</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5911,7 +5926,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5921,11 +5936,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>365</v>
+        <v>67</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>134</v>
+        <v>365</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>18</v>
@@ -5944,7 +5959,7 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>156</v>
+        <v>367</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5954,49 +5969,115 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>272</v>
+        <v>368</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>273</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>18</v>
+        <v>185</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
-      <c r="P135" s="13">
-        <v>7640.7200000000003</v>
-      </c>
-      <c r="Q135" s="13"/>
-    </row>
-    <row r="136" ht="16.5" customHeight="1">
-      <c t="s" r="A136" s="14">
-        <v>367</v>
-      </c>
-      <c r="B136" s="14"/>
-      <c r="C136" s="14"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
-      <c t="s" r="G136" s="15">
-        <v>368</v>
-      </c>
-      <c r="H136" s="15"/>
-      <c r="I136" s="15"/>
-      <c r="J136" s="16"/>
-      <c t="s" r="K136" s="17">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
         <v>369</v>
       </c>
-      <c r="L136" s="17"/>
-      <c r="M136" s="17"/>
-      <c r="N136" s="17"/>
-      <c r="O136" s="17"/>
-      <c r="P136" s="17"/>
-      <c r="Q136" s="17"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>328</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>34</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>370</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
+        <v>371</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>156</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>34</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>276</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
+        <v>277</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="P137" s="13">
+        <v>7716.46</v>
+      </c>
+      <c r="Q137" s="13"/>
+    </row>
+    <row r="138" ht="16.5" customHeight="1">
+      <c t="s" r="A138" s="14">
+        <v>372</v>
+      </c>
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c t="s" r="G138" s="15">
+        <v>373</v>
+      </c>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="16"/>
+      <c t="s" r="K138" s="17">
+        <v>374</v>
+      </c>
+      <c r="L138" s="17"/>
+      <c r="M138" s="17"/>
+      <c r="N138" s="17"/>
+      <c r="O138" s="17"/>
+      <c r="P138" s="17"/>
+      <c r="Q138" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="652">
+  <mergeCells count="662">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6645,10 +6726,20 @@
     <mergeCell ref="H134:K134"/>
     <mergeCell ref="L134:M134"/>
     <mergeCell ref="N134:O134"/>
-    <mergeCell ref="P135:Q135"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="G136:I136"/>
-    <mergeCell ref="K136:Q136"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="P137:Q137"/>
+    <mergeCell ref="A138:F138"/>
+    <mergeCell ref="G138:I138"/>
+    <mergeCell ref="K138:Q138"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -1127,7 +1127,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 10:13 PM</t>
+    <t>Sunday, 1 June, 2025 10:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5134,7 +5134,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5148,10 +5148,10 @@
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>122</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -6047,7 +6047,7 @@
     </row>
     <row r="137" ht="25.5" customHeight="1">
       <c r="P137" s="13">
-        <v>7716.46</v>
+        <v>7747.46</v>
       </c>
       <c r="Q137" s="13"/>
     </row>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -80,6 +80,18 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>AMRIZOLE 500MG 5 VAGINAL SUPP.</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -308,435 +320,447 @@
     <t>D.DEP 10.000 I.U. 30 CAPS</t>
   </si>
   <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>300.00</t>
   </si>
   <si>
+    <t>399.0000</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>DEMAFIGHT 5 MG 30 SCORED TABS</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>DESA 2.5MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>DEVAROL-S 200000 I.U AMPOULE</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>-50.5000</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>EMETREX-N 37.55MG/ML 3 I.M./I.V. AMP.</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>4.9500</t>
+  </si>
+  <si>
+    <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>-45.0000</t>
+  </si>
+  <si>
+    <t>0:-3</t>
+  </si>
+  <si>
+    <t>EPICEPHIN 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>104.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 10/40MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>124.50</t>
+  </si>
+  <si>
+    <t>41.0850</t>
+  </si>
+  <si>
+    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>ESOMIUM 40MG 14 S.R. CAPSULES</t>
+  </si>
+  <si>
+    <t>202.00</t>
+  </si>
+  <si>
+    <t>101.0000</t>
+  </si>
+  <si>
+    <t>EXTRAUMA DNA CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>71.2800</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>270.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAGELLAT FORTE 200MG/5ML  100ML SUSP</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
+    <t>FLOPADEX 8 MG 30 CAPSULES</t>
+  </si>
+  <si>
+    <t>177.00</t>
+  </si>
+  <si>
+    <t>116.8200</t>
+  </si>
+  <si>
+    <t>FORTAZEDIM 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
+    <t>GANATON 50 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>GAPTIN 300 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>GATISTAR 0.5% OPHTH. SOLN. 5 ML</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
+  </si>
+  <si>
+    <t>288.00</t>
+  </si>
+  <si>
+    <t>11.5200</t>
+  </si>
+  <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>INCONT L.A. 4MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>91.50</t>
+  </si>
+  <si>
+    <t>30.1950</t>
+  </si>
+  <si>
+    <t>INTEGROL 10MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>77.2200</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>228.0000</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:22</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>LUCIDRIL 500MG 20 F.C TAB</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>MARK FAST 30 CAPSULES</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>MEGALASE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MELASONOZ   SYRUP</t>
+  </si>
+  <si>
+    <t>MEMEXA 10MG 30F.C. TAB.</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>156.4200</t>
+  </si>
+  <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>MIXDERM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG 10 TAB.</t>
+  </si>
+  <si>
+    <t>23.50</t>
+  </si>
+  <si>
+    <t>23.5000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>MUCOSTA 100MG 20 TAB</t>
+  </si>
+  <si>
+    <t>171.0000</t>
+  </si>
+  <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>-37.6200</t>
+  </si>
+  <si>
+    <t>NAUSILEX 50MG/2ML I.V./I.M. 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>NEVILOB 5 MG 21 TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
     <t>99.0000</t>
   </si>
   <si>
-    <t>DANSET 4MG/2ML 3 AMP</t>
-  </si>
-  <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>27.2250</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>DEMAFIGHT 5 MG 30 SCORED TABS</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>DESA 2.5MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>DEVAROL-S 200000 I.U AMPOULE</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>-50.5000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>EMETREX-N 37.55MG/ML 3 I.M./I.V. AMP.</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>4.9500</t>
-  </si>
-  <si>
-    <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>-45.0000</t>
-  </si>
-  <si>
-    <t>0:-3</t>
-  </si>
-  <si>
-    <t>EPICEPHIN 1GM I.V. VIAL</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>104.00</t>
-  </si>
-  <si>
-    <t>104.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 10/40MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>124.50</t>
-  </si>
-  <si>
-    <t>41.0850</t>
-  </si>
-  <si>
-    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>ESOMIUM 40MG 14 S.R. CAPSULES</t>
-  </si>
-  <si>
-    <t>202.00</t>
-  </si>
-  <si>
-    <t>101.0000</t>
-  </si>
-  <si>
-    <t>EXTRAUMA DNA CREAM 25 GM</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>71.2800</t>
-  </si>
-  <si>
-    <t>0:8</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>270.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAGELLAT FORTE 200MG/5ML  100ML SUSP</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>64.0000</t>
-  </si>
-  <si>
-    <t>FLOPADEX 8 MG 30 CAPSULES</t>
-  </si>
-  <si>
-    <t>177.00</t>
-  </si>
-  <si>
-    <t>116.8200</t>
-  </si>
-  <si>
-    <t>FORTAZEDIM 1 GM VIAL</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>59.00</t>
-  </si>
-  <si>
-    <t>59.0000</t>
-  </si>
-  <si>
-    <t>GANATON 50 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>GAPTIN 300 MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>GATISTAR 0.5% OPHTH. SOLN. 5 ML</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
-  </si>
-  <si>
-    <t>288.00</t>
-  </si>
-  <si>
-    <t>11.5200</t>
-  </si>
-  <si>
-    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>INCONT L.A. 4MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>91.50</t>
-  </si>
-  <si>
-    <t>30.1950</t>
-  </si>
-  <si>
-    <t>INTEGROL 10MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>77.2200</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>228.0000</t>
-  </si>
-  <si>
-    <t>3:4</t>
-  </si>
-  <si>
-    <t>LARYPRO 20 LOZENGES</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>0:22</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>LUCIDRIL 500MG 20 F.C TAB</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>MARK FAST 30 CAPSULES</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>MEGALASE SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MELASONOZ   SYRUP</t>
-  </si>
-  <si>
-    <t>MEMEXA 10MG 30F.C. TAB.</t>
-  </si>
-  <si>
-    <t>237.00</t>
-  </si>
-  <si>
-    <t>156.4200</t>
-  </si>
-  <si>
-    <t>MILGA 40 TABLETS</t>
-  </si>
-  <si>
-    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG 10 TAB.</t>
-  </si>
-  <si>
-    <t>23.50</t>
-  </si>
-  <si>
-    <t>23.5000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>MUCOSTA 100MG 20 TAB</t>
-  </si>
-  <si>
-    <t>171.0000</t>
-  </si>
-  <si>
-    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>-37.6200</t>
-  </si>
-  <si>
-    <t>NAUSILEX 50MG/2ML I.V./I.M. 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>NEVILOB 5 MG 21 TAB</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
     <t>OCTATRON 30 CAPS</t>
   </si>
   <si>
@@ -839,12 +863,6 @@
     <t>SORAL 20MG 5 SUPP.</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>SPANIELA MR 35MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -908,6 +926,9 @@
     <t>-19.8000</t>
   </si>
   <si>
+    <t>TREFLUCAN 150MG 1 CAPS.</t>
+  </si>
+  <si>
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
@@ -1040,9 +1061,6 @@
     <t>ريكسونا بليه بودر دراي</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>37.00</t>
   </si>
   <si>
@@ -1079,6 +1097,15 @@
     <t>7.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t>24:0</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>صابونه دوف SOAP</t>
   </si>
   <si>
@@ -1106,18 +1133,12 @@
     <t>مبرد قدم</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
     <t>35:0</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
@@ -1127,7 +1148,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 10:15 PM</t>
+    <t>Sunday, 1 June, 2025 10:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1884,7 +1905,7 @@
         <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1893,14 +1914,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1910,14 +1931,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>31</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1939,18 +1960,18 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1972,11 +1993,11 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
@@ -1999,7 +2020,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -2009,11 +2030,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -2025,14 +2046,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -2042,11 +2063,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -2058,14 +2079,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2075,14 +2096,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2091,7 +2112,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -2108,14 +2129,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2124,14 +2145,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2164,24 +2185,24 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2190,20 +2211,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -2214,7 +2235,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2230,7 +2251,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2240,14 +2261,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2256,14 +2277,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2273,14 +2294,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2289,14 +2310,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2306,14 +2327,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2322,31 +2343,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2355,31 +2376,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2388,14 +2409,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2405,14 +2426,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2421,14 +2442,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2438,14 +2459,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2454,14 +2475,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2471,14 +2492,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2487,14 +2508,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2504,14 +2525,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2544,7 +2565,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2560,7 +2581,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2570,11 +2591,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>18</v>
@@ -2586,14 +2607,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2619,14 +2640,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2636,14 +2657,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2652,14 +2673,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2669,14 +2690,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2685,14 +2706,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2702,11 +2723,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2718,14 +2739,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2735,14 +2756,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2751,14 +2772,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2768,14 +2789,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2784,14 +2805,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2801,11 +2822,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>18</v>
@@ -2817,14 +2838,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2834,11 +2855,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>18</v>
@@ -2850,14 +2871,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2867,11 +2888,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>18</v>
@@ -2883,14 +2904,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2900,11 +2921,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>18</v>
@@ -2916,14 +2937,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2933,14 +2954,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2949,14 +2970,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2966,14 +2987,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2982,7 +3003,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2999,14 +3020,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3015,14 +3036,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3032,14 +3053,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3048,14 +3069,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3065,14 +3086,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>141</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3081,14 +3102,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3098,14 +3119,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3114,14 +3135,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3131,14 +3152,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3147,14 +3168,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3171,7 +3192,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>152</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3180,14 +3201,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3197,14 +3218,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>31</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3213,14 +3234,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3230,11 +3251,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>34</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>18</v>
@@ -3253,7 +3274,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3263,14 +3284,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3279,14 +3300,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3296,14 +3317,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3312,14 +3333,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3329,14 +3350,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3345,14 +3366,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3362,14 +3383,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3378,14 +3399,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>172</v>
+        <v>41</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3395,14 +3416,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>174</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3418,7 +3439,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>37</v>
+        <v>176</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3428,14 +3449,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>53</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3444,14 +3465,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3461,14 +3482,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3477,14 +3498,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3494,14 +3515,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>87</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3510,14 +3531,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>185</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3534,7 +3555,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3550,7 +3571,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>91</v>
+        <v>189</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3560,14 +3581,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>61</v>
+        <v>190</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3576,14 +3597,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3593,11 +3614,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3609,14 +3630,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3626,14 +3647,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>42</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3642,14 +3663,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3659,14 +3680,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3675,14 +3696,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3692,14 +3713,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3708,7 +3729,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3725,14 +3746,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3741,14 +3762,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3758,14 +3779,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3774,14 +3795,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3791,14 +3812,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>30</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>207</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3807,14 +3828,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3824,14 +3845,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>34</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>210</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3840,31 +3861,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>99</v>
+        <v>213</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>214</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3880,24 +3901,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>53</v>
+        <v>216</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>218</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3906,14 +3927,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3923,14 +3944,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>218</v>
+        <v>154</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3939,14 +3960,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3956,14 +3977,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>121</v>
+        <v>222</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3972,31 +3993,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>31</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -4005,31 +4026,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>34</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>87</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4038,14 +4059,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4055,14 +4076,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>130</v>
+        <v>227</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4071,14 +4092,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4088,14 +4109,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4104,14 +4125,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4121,11 +4142,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
@@ -4137,14 +4158,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>185</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4154,14 +4175,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>92</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>87</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4170,14 +4191,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4187,14 +4208,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>163</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>53</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4203,14 +4224,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>53</v>
+        <v>189</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4220,14 +4241,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>163</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>141</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4236,14 +4257,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4253,14 +4274,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>92</v>
+        <v>167</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4269,14 +4290,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4286,14 +4307,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>100</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4302,14 +4323,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4319,11 +4340,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>163</v>
+        <v>96</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4335,14 +4356,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4352,14 +4373,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>170</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4368,14 +4389,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4385,11 +4406,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>134</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4401,14 +4422,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4418,14 +4439,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>19</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4434,14 +4455,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4451,14 +4472,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>138</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4467,14 +4488,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>214</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4484,14 +4505,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>87</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4500,28 +4521,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>143</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>144</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4533,14 +4554,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>37</v>
+        <v>218</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4550,14 +4571,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4566,28 +4587,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>147</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>18</v>
@@ -4599,31 +4620,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4632,14 +4653,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4649,14 +4670,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>92</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>53</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4665,31 +4686,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>267</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>114</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>214</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4698,14 +4719,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4715,14 +4736,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>96</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4731,14 +4752,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>37</v>
+        <v>275</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4748,14 +4769,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>119</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>218</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4764,14 +4785,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4781,11 +4802,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>18</v>
@@ -4797,14 +4818,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4814,14 +4835,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4830,14 +4851,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4847,14 +4868,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>141</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4863,14 +4884,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4880,11 +4901,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>25</v>
+        <v>239</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4896,14 +4917,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4913,14 +4934,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>218</v>
+        <v>135</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4929,14 +4950,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4946,11 +4967,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>286</v>
+        <v>29</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4962,14 +4983,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4979,14 +5000,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>169</v>
+        <v>222</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4995,14 +5016,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5012,14 +5033,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5028,14 +5049,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5045,14 +5066,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>294</v>
+        <v>173</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>295</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>296</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5061,14 +5082,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5078,14 +5099,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>30</v>
+        <v>297</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>141</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5101,7 +5122,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5118,7 +5139,7 @@
         <v>301</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>18</v>
+        <v>302</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5127,14 +5148,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5144,14 +5165,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>192</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>103</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5160,14 +5181,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5177,14 +5198,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5193,14 +5214,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5210,11 +5231,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>14</v>
+        <v>307</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>18</v>
@@ -5226,14 +5247,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>308</v>
+        <v>129</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5243,14 +5264,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>309</v>
+        <v>126</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>310</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5259,14 +5280,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5276,11 +5297,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>312</v>
+        <v>80</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>18</v>
@@ -5292,14 +5313,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>315</v>
+        <v>91</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5309,14 +5330,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>87</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5325,14 +5346,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5342,11 +5363,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>18</v>
@@ -5358,14 +5379,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5375,14 +5396,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5391,31 +5412,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>12</v>
+        <v>91</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5424,31 +5445,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>146</v>
+        <v>326</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>277</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5457,31 +5478,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>330</v>
+        <v>41</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5490,31 +5511,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>154</v>
+        <v>332</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>334</v>
+        <v>71</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5523,31 +5544,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>185</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5556,31 +5577,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>37</v>
+        <v>337</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>185</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5589,28 +5610,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>18</v>
@@ -5622,31 +5643,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>344</v>
+        <v>71</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>345</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>18</v>
+        <v>189</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5655,31 +5676,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>185</v>
+        <v>41</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>136</v>
+        <v>346</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>137</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>18</v>
+        <v>189</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5688,31 +5709,31 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>349</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5721,31 +5742,31 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
         <v>351</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>308</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5761,21 +5782,21 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>353</v>
+        <v>189</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>354</v>
+        <v>141</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>355</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>18</v>
@@ -5787,31 +5808,31 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>308</v>
+        <v>41</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>18</v>
+        <v>355</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5820,31 +5841,31 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>68</v>
+        <v>357</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>18</v>
+        <v>315</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5853,28 +5874,28 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>37</v>
+        <v>359</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>146</v>
+        <v>360</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>18</v>
@@ -5886,28 +5907,28 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>12</v>
+        <v>363</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>362</v>
+        <v>71</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>18</v>
@@ -5919,28 +5940,28 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>67</v>
+        <v>366</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>18</v>
@@ -5952,20 +5973,20 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>367</v>
+        <v>41</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
@@ -5973,10 +5994,10 @@
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>185</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5992,21 +6013,21 @@
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>328</v>
+        <v>41</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c t="s" r="L135" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>370</v>
+        <v>150</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>134</v>
+        <v>357</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>18</v>
@@ -6018,66 +6039,198 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
       <c t="s" r="L136" s="10">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>276</v>
+        <v>371</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>277</v>
+        <v>372</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
-      <c r="P137" s="13">
-        <v>7747.46</v>
-      </c>
-      <c r="Q137" s="13"/>
-    </row>
-    <row r="138" ht="16.5" customHeight="1">
-      <c t="s" r="A138" s="14">
-        <v>372</v>
-      </c>
-      <c r="B138" s="14"/>
-      <c r="C138" s="14"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="14"/>
-      <c t="s" r="G138" s="15">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
         <v>373</v>
       </c>
-      <c r="H138" s="15"/>
-      <c r="I138" s="15"/>
-      <c r="J138" s="16"/>
-      <c t="s" r="K138" s="17">
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>160</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>38</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>71</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
+        <v>333</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
         <v>374</v>
       </c>
-      <c r="L138" s="17"/>
-      <c r="M138" s="17"/>
-      <c r="N138" s="17"/>
-      <c r="O138" s="17"/>
-      <c r="P138" s="17"/>
-      <c r="Q138" s="17"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
+        <v>375</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>38</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>231</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q138" s="12">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="A139" s="7">
+        <v>133</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c t="s" r="C139" s="8">
+        <v>376</v>
+      </c>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
+        <v>335</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c t="s" r="L139" s="10">
+        <v>38</v>
+      </c>
+      <c r="M139" s="10"/>
+      <c t="s" r="N139" s="8">
+        <v>377</v>
+      </c>
+      <c r="O139" s="8"/>
+      <c t="s" r="P139" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q139" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="A140" s="7">
+        <v>134</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c t="s" r="C140" s="8">
+        <v>378</v>
+      </c>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c t="s" r="H140" s="9">
+        <v>160</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c t="s" r="L140" s="10">
+        <v>38</v>
+      </c>
+      <c r="M140" s="10"/>
+      <c t="s" r="N140" s="8">
+        <v>25</v>
+      </c>
+      <c r="O140" s="8"/>
+      <c t="s" r="P140" s="11">
+        <v>26</v>
+      </c>
+      <c t="s" r="Q140" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="P141" s="13">
+        <v>8197.4599999999991</v>
+      </c>
+      <c r="Q141" s="13"/>
+    </row>
+    <row r="142" ht="16.5" customHeight="1">
+      <c t="s" r="A142" s="14">
+        <v>379</v>
+      </c>
+      <c r="B142" s="14"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="14"/>
+      <c t="s" r="G142" s="15">
+        <v>380</v>
+      </c>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="16"/>
+      <c t="s" r="K142" s="17">
+        <v>381</v>
+      </c>
+      <c r="L142" s="17"/>
+      <c r="M142" s="17"/>
+      <c r="N142" s="17"/>
+      <c r="O142" s="17"/>
+      <c r="P142" s="17"/>
+      <c r="Q142" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="662">
+  <mergeCells count="682">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6736,10 +6889,30 @@
     <mergeCell ref="H136:K136"/>
     <mergeCell ref="L136:M136"/>
     <mergeCell ref="N136:O136"/>
-    <mergeCell ref="P137:Q137"/>
-    <mergeCell ref="A138:F138"/>
-    <mergeCell ref="G138:I138"/>
-    <mergeCell ref="K138:Q138"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="P141:Q141"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="G142:I142"/>
+    <mergeCell ref="K142:Q142"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -575,6 +575,15 @@
     <t>116.8200</t>
   </si>
   <si>
+    <t>FLOWADJUST 25MG 30 PROLONGED REL. TABS.</t>
+  </si>
+  <si>
+    <t>306.00</t>
+  </si>
+  <si>
+    <t>100.9800</t>
+  </si>
+  <si>
     <t>FORTAZEDIM 1 GM VIAL</t>
   </si>
   <si>
@@ -767,6 +776,15 @@
     <t>37.6200</t>
   </si>
   <si>
+    <t>OMEGAPRESS 0.2 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>411.00</t>
+  </si>
+  <si>
+    <t>135.6300</t>
+  </si>
+  <si>
     <t>OMEZ 20MG 14 CAPS.</t>
   </si>
   <si>
@@ -1148,7 +1166,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 10:17 PM</t>
+    <t>Sunday, 1 June, 2025 10:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3571,7 +3589,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3581,14 +3599,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3597,14 +3615,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>95</v>
+        <v>192</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3614,14 +3632,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>65</v>
+        <v>193</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>66</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3630,14 +3648,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3647,11 +3665,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3663,14 +3681,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3680,14 +3698,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>42</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3703,7 +3721,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3720,7 +3738,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3736,7 +3754,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3753,7 +3771,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3786,7 +3804,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3802,7 +3820,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3819,7 +3837,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3845,14 +3863,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>34</v>
+        <v>210</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3868,7 +3886,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3878,14 +3896,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>213</v>
+        <v>34</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q70" s="12">
         <v>214</v>
-      </c>
-      <c t="s" r="Q70" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3901,24 +3919,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>216</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>104</v>
+        <v>216</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>217</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>218</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3927,31 +3945,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>57</v>
+        <v>219</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>220</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>221</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3960,14 +3978,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3977,14 +3995,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>222</v>
+        <v>154</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>223</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -4010,14 +4028,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -4026,7 +4044,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -4039,18 +4057,18 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>35</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4059,7 +4077,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4072,18 +4090,18 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>227</v>
+        <v>34</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>228</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>91</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4099,7 +4117,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4109,11 +4127,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>135</v>
+        <v>230</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>91</v>
@@ -4125,14 +4143,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4142,14 +4160,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>135</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4165,7 +4183,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4175,11 +4193,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>92</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -4191,14 +4209,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4208,7 +4226,7 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>92</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -4231,7 +4249,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4248,7 +4266,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>91</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4264,7 +4282,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4274,14 +4292,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>57</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4290,14 +4308,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4311,10 +4329,10 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>103</v>
+        <v>57</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4323,14 +4341,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4340,14 +4358,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4356,14 +4374,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4373,14 +4391,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>248</v>
+        <v>96</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4396,7 +4414,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4406,14 +4424,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>167</v>
+        <v>251</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4422,14 +4440,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4439,11 +4457,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>253</v>
+        <v>167</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>174</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4455,14 +4473,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4472,11 +4490,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>138</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>139</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4488,14 +4506,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4505,14 +4523,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>19</v>
+        <v>259</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4521,14 +4539,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4538,14 +4556,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>138</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4554,14 +4572,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>218</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4571,14 +4589,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>19</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>91</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4594,21 +4612,21 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>147</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>148</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>18</v>
@@ -4620,14 +4638,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>41</v>
+        <v>221</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4637,14 +4655,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4653,28 +4671,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>147</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>18</v>
@@ -4693,13 +4711,13 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
@@ -4710,7 +4728,7 @@
         <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4726,7 +4744,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4736,14 +4754,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>96</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4752,31 +4770,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>275</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>119</v>
+        <v>276</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>218</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4785,14 +4803,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4802,14 +4820,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>96</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4825,7 +4843,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>41</v>
+        <v>281</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4835,14 +4853,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>119</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>221</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4858,7 +4876,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4868,11 +4886,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>25</v>
+        <v>284</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>26</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>18</v>
@@ -4884,14 +4902,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4901,14 +4919,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>239</v>
+        <v>287</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4917,14 +4935,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4934,14 +4952,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>103</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4950,14 +4968,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4967,11 +4985,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>29</v>
+        <v>242</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4983,14 +5001,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -5000,14 +5018,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>222</v>
+        <v>135</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -5016,14 +5034,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5033,11 +5051,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>292</v>
+        <v>29</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -5049,14 +5067,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5066,14 +5084,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5082,14 +5100,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5099,14 +5117,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5115,14 +5133,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5132,14 +5150,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>300</v>
+        <v>173</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
         <v>301</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>302</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5148,14 +5166,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5165,14 +5183,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>34</v>
+        <v>303</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
         <v>304</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>103</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5188,7 +5206,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5198,14 +5216,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>173</v>
+        <v>306</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>308</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5214,14 +5232,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5231,14 +5249,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>307</v>
+        <v>34</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>18</v>
+        <v>103</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5247,14 +5265,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5264,11 +5282,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>196</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5280,14 +5298,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5297,11 +5315,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>80</v>
+        <v>313</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>18</v>
@@ -5313,14 +5331,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5330,14 +5348,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>313</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5346,14 +5364,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>315</v>
+        <v>41</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5363,7 +5381,7 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>316</v>
+        <v>80</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
@@ -5386,7 +5404,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5396,11 +5414,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>319</v>
+        <v>14</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>18</v>
@@ -5412,14 +5430,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5429,14 +5447,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>19</v>
+        <v>322</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
         <v>323</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>91</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5452,7 +5470,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>325</v>
+        <v>41</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5462,11 +5480,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>18</v>
@@ -5478,14 +5496,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>41</v>
+        <v>328</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5495,14 +5513,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>329</v>
+        <v>19</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>12</v>
+        <v>91</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5511,31 +5529,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>71</v>
+        <v>332</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
         <v>333</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5551,21 +5569,21 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>335</v>
+        <v>41</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>150</v>
+        <v>335</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>26</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5577,14 +5595,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5594,14 +5612,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>338</v>
+        <v>71</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
         <v>339</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5617,7 +5635,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>158</v>
+        <v>341</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5627,14 +5645,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>341</v>
+        <v>150</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>342</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5643,14 +5661,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5660,14 +5678,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>71</v>
+        <v>344</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>35</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>189</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5676,14 +5694,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5693,14 +5711,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>189</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5709,14 +5727,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>41</v>
+        <v>350</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5726,14 +5744,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>338</v>
+        <v>71</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>339</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>18</v>
+        <v>192</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5742,14 +5760,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5759,14 +5777,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>18</v>
+        <v>192</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5775,14 +5793,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5792,11 +5810,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>141</v>
+        <v>344</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>142</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>18</v>
@@ -5808,14 +5826,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5825,14 +5843,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>355</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5841,14 +5859,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5858,14 +5876,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>346</v>
+        <v>141</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>357</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>315</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5874,14 +5892,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>359</v>
+        <v>41</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5891,14 +5909,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
+        <v>360</v>
+      </c>
+      <c t="s" r="Q131" s="12">
         <v>361</v>
-      </c>
-      <c t="s" r="Q131" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5914,7 +5932,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>363</v>
+        <v>41</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5924,14 +5942,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>71</v>
+        <v>352</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>18</v>
+        <v>321</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5940,14 +5958,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5961,7 +5979,7 @@
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>18</v>
@@ -5973,14 +5991,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>41</v>
+        <v>369</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5990,11 +6008,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>368</v>
+        <v>71</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>72</v>
+        <v>370</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>18</v>
@@ -6006,14 +6024,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>41</v>
+        <v>321</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6023,11 +6041,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>150</v>
+        <v>372</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>18</v>
@@ -6039,14 +6057,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6056,11 +6074,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>372</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>18</v>
@@ -6072,14 +6090,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6089,14 +6107,14 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>333</v>
+        <v>363</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6105,14 +6123,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>375</v>
+        <v>12</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6122,14 +6140,14 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>231</v>
+        <v>377</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>97</v>
+        <v>378</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>189</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
@@ -6138,14 +6156,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>335</v>
+        <v>160</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6155,14 +6173,14 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>377</v>
+        <v>71</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>139</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q139" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" ht="24.75" customHeight="1">
@@ -6171,14 +6189,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>160</v>
+        <v>381</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6188,49 +6206,115 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>25</v>
+        <v>234</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q140" s="12">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="A141" s="7">
+        <v>135</v>
+      </c>
+      <c r="B141" s="7"/>
+      <c t="s" r="C141" s="8">
+        <v>382</v>
+      </c>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c t="s" r="H141" s="9">
+        <v>341</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c t="s" r="L141" s="10">
+        <v>38</v>
+      </c>
+      <c r="M141" s="10"/>
+      <c t="s" r="N141" s="8">
+        <v>383</v>
+      </c>
+      <c r="O141" s="8"/>
+      <c t="s" r="P141" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q141" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="A142" s="7">
+        <v>136</v>
+      </c>
+      <c r="B142" s="7"/>
+      <c t="s" r="C142" s="8">
+        <v>384</v>
+      </c>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c t="s" r="H142" s="9">
+        <v>160</v>
+      </c>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c t="s" r="L142" s="10">
+        <v>38</v>
+      </c>
+      <c r="M142" s="10"/>
+      <c t="s" r="N142" s="8">
+        <v>25</v>
+      </c>
+      <c r="O142" s="8"/>
+      <c t="s" r="P142" s="11">
         <v>26</v>
       </c>
-      <c t="s" r="Q140" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="141" ht="25.5" customHeight="1">
-      <c r="P141" s="13">
-        <v>8197.4599999999991</v>
-      </c>
-      <c r="Q141" s="13"/>
-    </row>
-    <row r="142" ht="16.5" customHeight="1">
-      <c t="s" r="A142" s="14">
-        <v>379</v>
-      </c>
-      <c r="B142" s="14"/>
-      <c r="C142" s="14"/>
-      <c r="D142" s="14"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="14"/>
-      <c t="s" r="G142" s="15">
-        <v>380</v>
-      </c>
-      <c r="H142" s="15"/>
-      <c r="I142" s="15"/>
-      <c r="J142" s="16"/>
-      <c t="s" r="K142" s="17">
-        <v>381</v>
-      </c>
-      <c r="L142" s="17"/>
-      <c r="M142" s="17"/>
-      <c r="N142" s="17"/>
-      <c r="O142" s="17"/>
-      <c r="P142" s="17"/>
-      <c r="Q142" s="17"/>
+      <c t="s" r="Q142" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" ht="24.75" customHeight="1">
+      <c r="P143" s="13">
+        <v>8434.0699999999997</v>
+      </c>
+      <c r="Q143" s="13"/>
+    </row>
+    <row r="144" ht="16.5" customHeight="1">
+      <c t="s" r="A144" s="14">
+        <v>385</v>
+      </c>
+      <c r="B144" s="14"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="14"/>
+      <c r="E144" s="14"/>
+      <c r="F144" s="14"/>
+      <c t="s" r="G144" s="15">
+        <v>386</v>
+      </c>
+      <c r="H144" s="15"/>
+      <c r="I144" s="15"/>
+      <c r="J144" s="16"/>
+      <c t="s" r="K144" s="17">
+        <v>387</v>
+      </c>
+      <c r="L144" s="17"/>
+      <c r="M144" s="17"/>
+      <c r="N144" s="17"/>
+      <c r="O144" s="17"/>
+      <c r="P144" s="17"/>
+      <c r="Q144" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="682">
+  <mergeCells count="692">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6909,10 +6993,20 @@
     <mergeCell ref="H140:K140"/>
     <mergeCell ref="L140:M140"/>
     <mergeCell ref="N140:O140"/>
-    <mergeCell ref="P141:Q141"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="G142:I142"/>
-    <mergeCell ref="K142:Q142"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="N141:O141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:G142"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="L142:M142"/>
+    <mergeCell ref="N142:O142"/>
+    <mergeCell ref="P143:Q143"/>
+    <mergeCell ref="A144:F144"/>
+    <mergeCell ref="G144:I144"/>
+    <mergeCell ref="K144:Q144"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -47,39 +47,45 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>57.4200</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>AMBEZIM-G 30 F.C. TABS.</t>
+  </si>
+  <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
+    <t>33.6600</t>
   </si>
   <si>
     <t>0:1</t>
   </si>
   <si>
-    <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>AMBEZIM-G 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
     <t>AMRIZOLE 500MG 5 VAGINAL SUPP.</t>
   </si>
   <si>
@@ -110,9 +116,6 @@
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -284,9 +287,6 @@
     <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>130.00</t>
   </si>
   <si>
@@ -431,6 +431,18 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>9:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>DOWNOPRAZOL 40/1100MG 14 CAPS.</t>
   </si>
   <si>
@@ -470,150 +482,147 @@
     <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
   </si>
   <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>EPICEPHIN 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>104.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 10/40MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>124.50</t>
+  </si>
+  <si>
+    <t>41.0850</t>
+  </si>
+  <si>
+    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>ESOMIUM 40MG 14 S.R. CAPSULES</t>
+  </si>
+  <si>
+    <t>202.00</t>
+  </si>
+  <si>
+    <t>101.0000</t>
+  </si>
+  <si>
+    <t>EXTRAUMA DNA CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>71.2800</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>270.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAGELLAT FORTE 200MG/5ML  100ML SUSP</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
+    <t>FLOPADEX 8 MG 30 CAPSULES</t>
+  </si>
+  <si>
+    <t>177.00</t>
+  </si>
+  <si>
+    <t>116.8200</t>
+  </si>
+  <si>
+    <t>FLOWADJUST 25MG 30 PROLONGED REL. TABS.</t>
+  </si>
+  <si>
+    <t>306.00</t>
+  </si>
+  <si>
+    <t>100.9800</t>
+  </si>
+  <si>
+    <t>FORTAZEDIM 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
+    <t>GANATON 50 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>GAPTIN 300 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>GATISTAR 0.5% OPHTH. SOLN. 5 ML</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
+  </si>
+  <si>
     <t>0:5</t>
   </si>
   <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>-45.0000</t>
-  </si>
-  <si>
-    <t>0:-3</t>
-  </si>
-  <si>
-    <t>EPICEPHIN 1GM I.V. VIAL</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>104.00</t>
-  </si>
-  <si>
-    <t>104.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 10/40MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>124.50</t>
-  </si>
-  <si>
-    <t>41.0850</t>
-  </si>
-  <si>
-    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>ESOMIUM 40MG 14 S.R. CAPSULES</t>
-  </si>
-  <si>
-    <t>202.00</t>
-  </si>
-  <si>
-    <t>101.0000</t>
-  </si>
-  <si>
-    <t>EXTRAUMA DNA CREAM 25 GM</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>71.2800</t>
-  </si>
-  <si>
-    <t>0:8</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>270.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAGELLAT FORTE 200MG/5ML  100ML SUSP</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>64.0000</t>
-  </si>
-  <si>
-    <t>FLOPADEX 8 MG 30 CAPSULES</t>
-  </si>
-  <si>
-    <t>177.00</t>
-  </si>
-  <si>
-    <t>116.8200</t>
-  </si>
-  <si>
-    <t>FLOWADJUST 25MG 30 PROLONGED REL. TABS.</t>
-  </si>
-  <si>
-    <t>306.00</t>
-  </si>
-  <si>
-    <t>100.9800</t>
-  </si>
-  <si>
-    <t>FORTAZEDIM 1 GM VIAL</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>59.00</t>
-  </si>
-  <si>
-    <t>59.0000</t>
-  </si>
-  <si>
-    <t>GANATON 50 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>GAPTIN 300 MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>GATISTAR 0.5% OPHTH. SOLN. 5 ML</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
-  </si>
-  <si>
     <t>288.00</t>
   </si>
   <si>
@@ -809,12 +818,6 @@
     <t>POWER B COMPLEX I.M./I.V. 6 AMP</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
     <t>PROCYKINOL 5MG 50 TAB SACHET</t>
   </si>
   <si>
@@ -1001,6 +1004,9 @@
     <t>32.6400</t>
   </si>
   <si>
+    <t>VOMIBREAK 30 DELAYED RELEASE F.C. TABLETS</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -1013,15 +1019,18 @@
     <t>2.0000</t>
   </si>
   <si>
+    <t>XORAXON 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
   </si>
   <si>
     <t>84.00</t>
   </si>
   <si>
-    <t>168.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -1088,21 +1097,27 @@
     <t>سائل ريد</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>91.3200</t>
-  </si>
-  <si>
-    <t>45:1</t>
+    <t>93.3200</t>
+  </si>
+  <si>
+    <t>46:1</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>شاش فازلين 10*10 سم</t>
   </si>
   <si>
@@ -1166,7 +1181,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 10:18 PM</t>
+    <t>Sunday, 1 June, 2025 10:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1873,7 +1888,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1887,10 +1902,10 @@
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1899,14 +1914,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1916,11 +1931,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>18</v>
@@ -1932,14 +1947,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1949,14 +1964,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1965,14 +1980,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1982,11 +1997,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>18</v>
@@ -1998,31 +2013,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -2031,14 +2046,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -2048,14 +2063,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -2064,7 +2079,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -2081,14 +2096,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -2097,14 +2112,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2114,14 +2129,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2130,7 +2145,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -2147,11 +2162,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>18</v>
@@ -2163,7 +2178,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -2180,14 +2195,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2196,14 +2211,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2213,14 +2228,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2229,28 +2244,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>18</v>
@@ -2262,14 +2277,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2279,14 +2294,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2295,14 +2310,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2312,11 +2327,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>18</v>
@@ -2328,14 +2343,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2345,14 +2360,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2361,7 +2376,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2378,11 +2393,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>18</v>
@@ -2394,31 +2409,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2427,7 +2442,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2444,14 +2459,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2460,14 +2475,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2477,14 +2492,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2493,14 +2508,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2510,11 +2525,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>18</v>
@@ -2526,14 +2541,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2543,14 +2558,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2559,14 +2574,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2583,7 +2598,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2632,7 +2647,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2715,7 +2730,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2731,7 +2746,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2748,7 +2763,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2764,7 +2779,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2781,7 +2796,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2814,7 +2829,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2830,7 +2845,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2840,7 +2855,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2863,7 +2878,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2929,7 +2944,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2995,7 +3010,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -3012,7 +3027,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -3028,7 +3043,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3061,7 +3076,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3078,7 +3093,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3094,7 +3109,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3104,14 +3119,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3120,14 +3135,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3137,14 +3152,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>103</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3153,14 +3168,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3170,14 +3185,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3186,14 +3201,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3203,14 +3218,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3219,14 +3234,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3243,7 +3258,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>156</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3252,14 +3267,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3269,14 +3284,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>34</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3302,11 +3317,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>35</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>18</v>
@@ -3318,14 +3333,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3335,14 +3350,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3351,14 +3366,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3368,14 +3383,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3384,14 +3399,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3401,14 +3416,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3417,14 +3432,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3434,14 +3449,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3450,14 +3465,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3467,14 +3482,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>178</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3483,14 +3498,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3500,14 +3515,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>57</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3516,14 +3531,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3533,14 +3548,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3549,14 +3564,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3566,14 +3581,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>91</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3582,14 +3597,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3599,11 +3614,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3615,14 +3630,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>192</v>
+        <v>24</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3632,14 +3647,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3648,14 +3663,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>95</v>
+        <v>194</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3665,14 +3680,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>65</v>
+        <v>195</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3681,14 +3696,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3698,14 +3713,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3714,14 +3729,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3731,14 +3746,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>43</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3747,14 +3762,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3764,14 +3779,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3780,14 +3795,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>203</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3804,7 +3819,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3837,7 +3852,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3853,7 +3868,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3870,7 +3885,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>91</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3886,7 +3901,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3896,14 +3911,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>34</v>
+        <v>213</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>214</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3919,7 +3934,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3929,14 +3944,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>216</v>
+        <v>35</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q71" s="12">
         <v>217</v>
-      </c>
-      <c t="s" r="Q71" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3952,24 +3967,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>219</v>
+        <v>24</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>104</v>
+        <v>219</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>220</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>221</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3978,31 +3993,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>57</v>
+        <v>222</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>223</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>224</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -4011,14 +4026,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -4028,14 +4043,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>225</v>
+        <v>157</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>226</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -4051,7 +4066,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4061,14 +4076,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>126</v>
+        <v>228</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4077,31 +4092,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>35</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4110,31 +4125,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>230</v>
+        <v>35</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>231</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>91</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4150,7 +4165,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4160,14 +4175,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>135</v>
+        <v>233</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4176,14 +4191,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4193,14 +4208,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>135</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4216,7 +4231,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4226,11 +4241,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>92</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -4242,14 +4257,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4259,7 +4274,7 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>92</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -4282,7 +4297,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4299,7 +4314,7 @@
         <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>91</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4315,7 +4330,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4325,14 +4340,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4341,14 +4356,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4358,14 +4373,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>103</v>
+        <v>58</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4374,14 +4389,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4391,14 +4406,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4407,14 +4422,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4424,14 +4439,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>251</v>
+        <v>96</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4447,7 +4462,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4457,14 +4472,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>167</v>
+        <v>254</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4473,14 +4488,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4490,14 +4505,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>256</v>
+        <v>169</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4513,7 +4528,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4527,10 +4542,10 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>174</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4539,14 +4554,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4556,14 +4571,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>138</v>
+        <v>262</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4572,14 +4587,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4589,14 +4604,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4605,7 +4620,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4622,11 +4637,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>19</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>18</v>
@@ -4645,7 +4660,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>221</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4662,7 +4677,7 @@
         <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>91</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4678,24 +4693,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>41</v>
+        <v>224</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4711,21 +4726,21 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>151</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>18</v>
@@ -4737,14 +4752,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4754,11 +4769,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
@@ -4770,31 +4785,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4803,31 +4818,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>96</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>57</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4836,14 +4851,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>281</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4853,14 +4868,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>221</v>
+        <v>58</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4869,14 +4884,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>282</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4886,14 +4901,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>284</v>
+        <v>119</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>18</v>
+        <v>224</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4902,14 +4917,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4919,11 +4934,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>18</v>
@@ -4935,14 +4950,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4952,11 +4967,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>25</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>26</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>18</v>
@@ -4975,7 +4990,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4985,14 +5000,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>242</v>
+        <v>27</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>291</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -5001,14 +5016,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -5018,14 +5033,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>135</v>
+        <v>245</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>103</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -5034,14 +5049,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5051,14 +5066,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>243</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5074,7 +5089,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5084,14 +5099,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>225</v>
+        <v>31</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5100,14 +5115,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5117,14 +5132,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>298</v>
+        <v>228</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5133,14 +5148,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5150,14 +5165,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>173</v>
+        <v>299</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5166,14 +5181,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5183,14 +5198,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>303</v>
+        <v>175</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5199,14 +5214,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5216,14 +5231,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>308</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5232,14 +5247,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5249,14 +5264,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>34</v>
+        <v>307</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>103</v>
+        <v>309</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5265,14 +5280,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5282,14 +5297,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>173</v>
+        <v>35</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>103</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5315,14 +5330,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>313</v>
+        <v>175</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5331,14 +5346,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5348,14 +5363,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>126</v>
+        <v>314</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>199</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5371,7 +5386,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5381,14 +5396,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>317</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5397,14 +5412,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5414,11 +5429,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>18</v>
@@ -5430,14 +5445,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>321</v>
+        <v>16</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5447,11 +5462,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>322</v>
+        <v>14</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>18</v>
@@ -5463,14 +5478,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>41</v>
+        <v>322</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5480,11 +5495,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>18</v>
@@ -5496,14 +5511,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>328</v>
+        <v>42</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5513,14 +5528,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>19</v>
+        <v>326</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>91</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5529,14 +5544,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5546,14 +5561,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5562,14 +5577,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5579,14 +5594,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>335</v>
+        <v>207</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>336</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5595,31 +5610,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>71</v>
+        <v>334</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5628,31 +5643,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>341</v>
+        <v>26</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>150</v>
+        <v>262</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>26</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>12</v>
+        <v>194</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5661,31 +5676,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>343</v>
+        <v>42</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5694,31 +5709,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>158</v>
+        <v>341</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>347</v>
+        <v>72</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5727,31 +5742,31 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>192</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5760,31 +5775,31 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>41</v>
+        <v>346</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>192</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5793,28 +5808,28 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>18</v>
@@ -5826,31 +5841,31 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>24</v>
+        <v>353</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>356</v>
+        <v>72</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>357</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>18</v>
+        <v>194</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5859,31 +5874,31 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>141</v>
+        <v>355</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>142</v>
+        <v>356</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>18</v>
+        <v>194</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5892,31 +5907,31 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>361</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5925,31 +5940,31 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>321</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5958,28 +5973,28 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>365</v>
+        <v>194</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>366</v>
+        <v>145</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>367</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>18</v>
@@ -5991,31 +6006,31 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>369</v>
+        <v>42</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>71</v>
+        <v>363</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>18</v>
+        <v>194</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -6024,31 +6039,31 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>321</v>
+        <v>42</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c t="s" r="L135" s="10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>18</v>
+        <v>367</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -6057,31 +6072,31 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
       <c t="s" r="L136" s="10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>18</v>
+        <v>322</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6090,28 +6105,28 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>41</v>
+        <v>370</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
       <c r="K137" s="9"/>
       <c t="s" r="L137" s="10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>150</v>
+        <v>371</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>18</v>
@@ -6123,28 +6138,28 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>12</v>
+        <v>374</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
       <c t="s" r="L138" s="10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>377</v>
+        <v>72</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>18</v>
@@ -6156,31 +6171,31 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>160</v>
+        <v>322</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
       <c r="K139" s="9"/>
       <c t="s" r="L139" s="10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>71</v>
+        <v>377</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q139" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" ht="24.75" customHeight="1">
@@ -6189,31 +6204,31 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>381</v>
+        <v>42</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
       <c t="s" r="L140" s="10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>234</v>
+        <v>379</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q140" s="12">
-        <v>192</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141" ht="25.5" customHeight="1">
@@ -6222,31 +6237,31 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>341</v>
+        <v>42</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
       <c r="K141" s="9"/>
       <c t="s" r="L141" s="10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>383</v>
+        <v>154</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q141" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="142" ht="25.5" customHeight="1">
@@ -6255,66 +6270,198 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c t="s" r="H142" s="9">
-        <v>160</v>
+        <v>22</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
       <c r="K142" s="9"/>
       <c t="s" r="L142" s="10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>25</v>
+        <v>382</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>26</v>
+        <v>383</v>
       </c>
       <c t="s" r="Q142" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="143" ht="24.75" customHeight="1">
-      <c r="P143" s="13">
-        <v>8434.0699999999997</v>
-      </c>
-      <c r="Q143" s="13"/>
-    </row>
-    <row r="144" ht="16.5" customHeight="1">
-      <c t="s" r="A144" s="14">
+      <c r="A143" s="7">
+        <v>137</v>
+      </c>
+      <c r="B143" s="7"/>
+      <c t="s" r="C143" s="8">
+        <v>384</v>
+      </c>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c t="s" r="H143" s="9">
+        <v>162</v>
+      </c>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c t="s" r="L143" s="10">
+        <v>39</v>
+      </c>
+      <c r="M143" s="10"/>
+      <c t="s" r="N143" s="8">
+        <v>72</v>
+      </c>
+      <c r="O143" s="8"/>
+      <c t="s" r="P143" s="11">
+        <v>342</v>
+      </c>
+      <c t="s" r="Q143" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="144" ht="25.5" customHeight="1">
+      <c r="A144" s="7">
+        <v>138</v>
+      </c>
+      <c r="B144" s="7"/>
+      <c t="s" r="C144" s="8">
         <v>385</v>
       </c>
-      <c r="B144" s="14"/>
-      <c r="C144" s="14"/>
-      <c r="D144" s="14"/>
-      <c r="E144" s="14"/>
-      <c r="F144" s="14"/>
-      <c t="s" r="G144" s="15">
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c t="s" r="H144" s="9">
         <v>386</v>
       </c>
-      <c r="H144" s="15"/>
-      <c r="I144" s="15"/>
-      <c r="J144" s="16"/>
-      <c t="s" r="K144" s="17">
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c t="s" r="L144" s="10">
+        <v>39</v>
+      </c>
+      <c r="M144" s="10"/>
+      <c t="s" r="N144" s="8">
+        <v>237</v>
+      </c>
+      <c r="O144" s="8"/>
+      <c t="s" r="P144" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q144" s="12">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="145" ht="24.75" customHeight="1">
+      <c r="A145" s="7">
+        <v>139</v>
+      </c>
+      <c r="B145" s="7"/>
+      <c t="s" r="C145" s="8">
         <v>387</v>
       </c>
-      <c r="L144" s="17"/>
-      <c r="M144" s="17"/>
-      <c r="N144" s="17"/>
-      <c r="O144" s="17"/>
-      <c r="P144" s="17"/>
-      <c r="Q144" s="17"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c t="s" r="H145" s="9">
+        <v>344</v>
+      </c>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c t="s" r="L145" s="10">
+        <v>39</v>
+      </c>
+      <c r="M145" s="10"/>
+      <c t="s" r="N145" s="8">
+        <v>388</v>
+      </c>
+      <c r="O145" s="8"/>
+      <c t="s" r="P145" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q145" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="146" ht="25.5" customHeight="1">
+      <c r="A146" s="7">
+        <v>140</v>
+      </c>
+      <c r="B146" s="7"/>
+      <c t="s" r="C146" s="8">
+        <v>389</v>
+      </c>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c t="s" r="H146" s="9">
+        <v>162</v>
+      </c>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+      <c t="s" r="L146" s="10">
+        <v>39</v>
+      </c>
+      <c r="M146" s="10"/>
+      <c t="s" r="N146" s="8">
+        <v>27</v>
+      </c>
+      <c r="O146" s="8"/>
+      <c t="s" r="P146" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q146" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147" ht="25.5" customHeight="1">
+      <c r="P147" s="13">
+        <v>8801.6200000000008</v>
+      </c>
+      <c r="Q147" s="13"/>
+    </row>
+    <row r="148" ht="16.5" customHeight="1">
+      <c t="s" r="A148" s="14">
+        <v>390</v>
+      </c>
+      <c r="B148" s="14"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="14"/>
+      <c r="E148" s="14"/>
+      <c r="F148" s="14"/>
+      <c t="s" r="G148" s="15">
+        <v>391</v>
+      </c>
+      <c r="H148" s="15"/>
+      <c r="I148" s="15"/>
+      <c r="J148" s="16"/>
+      <c t="s" r="K148" s="17">
+        <v>392</v>
+      </c>
+      <c r="L148" s="17"/>
+      <c r="M148" s="17"/>
+      <c r="N148" s="17"/>
+      <c r="O148" s="17"/>
+      <c r="P148" s="17"/>
+      <c r="Q148" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="692">
+  <mergeCells count="712">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -7003,10 +7150,30 @@
     <mergeCell ref="H142:K142"/>
     <mergeCell ref="L142:M142"/>
     <mergeCell ref="N142:O142"/>
-    <mergeCell ref="P143:Q143"/>
-    <mergeCell ref="A144:F144"/>
-    <mergeCell ref="G144:I144"/>
-    <mergeCell ref="K144:Q144"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:G143"/>
+    <mergeCell ref="H143:K143"/>
+    <mergeCell ref="L143:M143"/>
+    <mergeCell ref="N143:O143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:G144"/>
+    <mergeCell ref="H144:K144"/>
+    <mergeCell ref="L144:M144"/>
+    <mergeCell ref="N144:O144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C145:G145"/>
+    <mergeCell ref="H145:K145"/>
+    <mergeCell ref="L145:M145"/>
+    <mergeCell ref="N145:O145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="C146:G146"/>
+    <mergeCell ref="H146:K146"/>
+    <mergeCell ref="L146:M146"/>
+    <mergeCell ref="N146:O146"/>
+    <mergeCell ref="P147:Q147"/>
+    <mergeCell ref="A148:F148"/>
+    <mergeCell ref="G148:I148"/>
+    <mergeCell ref="K148:Q148"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-01_00-00.xlsx
+++ b/DaySale_2025-06-01_00-00.xlsx
@@ -707,6 +707,15 @@
     <t xml:space="preserve">MELASONOZ   SYRUP</t>
   </si>
   <si>
+    <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>193.50</t>
+  </si>
+  <si>
+    <t>63.8550</t>
+  </si>
+  <si>
     <t>MEMEXA 10MG 30F.C. TAB.</t>
   </si>
   <si>
@@ -1118,18 +1127,24 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
     <t>شاش فازلين 10*10 سم</t>
   </si>
   <si>
     <t>11:0</t>
   </si>
   <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>7.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">شفرات فينوس حريمي </t>
   </si>
   <si>
@@ -1181,7 +1196,7 @@
     <t>مناديل مبلله كبيره</t>
   </si>
   <si>
-    <t>Sunday, 1 June, 2025 10:22 PM</t>
+    <t>Sunday, 1 June, 2025 10:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4165,7 +4180,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4182,7 +4197,7 @@
         <v>234</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4198,7 +4213,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4208,11 +4223,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>135</v>
+        <v>236</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4224,14 +4239,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4241,14 +4256,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>135</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4264,7 +4279,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4274,11 +4289,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>92</v>
+        <v>240</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -4290,14 +4305,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4307,7 +4322,7 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>92</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
@@ -4330,7 +4345,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>194</v>
+        <v>42</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4347,7 +4362,7 @@
         <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4363,7 +4378,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4373,14 +4388,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>169</v>
+        <v>248</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4389,14 +4404,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4410,10 +4425,10 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>103</v>
+        <v>58</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4422,14 +4437,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4439,14 +4454,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>24</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4455,14 +4470,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4472,14 +4487,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>254</v>
+        <v>96</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>255</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4495,7 +4510,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4505,14 +4520,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>169</v>
+        <v>257</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4521,7 +4536,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4538,7 +4553,7 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>259</v>
+        <v>169</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
@@ -4561,7 +4576,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4575,7 +4590,7 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>24</v>
@@ -4587,7 +4602,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4604,11 +4619,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>138</v>
+        <v>265</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>24</v>
@@ -4620,14 +4635,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4637,14 +4652,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>24</v>
       </c>